--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -1010,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1090,11 +1090,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B34" si="0">H3+(J3*0.0000001)-(K3*0.0000001)</f>
+        <f t="shared" ref="B3:B7" si="0">H3+(J3*0.0000001)-(K3*0.0000001)</f>
         <v>37.514741999999998</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C34" si="1">I3+(L3*0.0000001)-(M3*0.0000001)</f>
+        <f t="shared" ref="C3:C7" si="1">I3+(L3*0.0000001)-(M3*0.0000001)</f>
         <v>127.007423</v>
       </c>
       <c r="D3" t="s">
@@ -1214,357 +1214,6 @@
       </c>
       <c r="I7">
         <v>127.014325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -36,9 +36,6 @@
     <t>Sub-district</t>
   </si>
   <si>
-    <t>YouTube Link</t>
-  </si>
-  <si>
     <t>LIVE</t>
   </si>
   <si>
@@ -83,6 +80,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTube Link</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1014,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,69 +1043,72 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <f>H2+(J2*0.000001)-(K2*0.000001)</f>
+        <v>37.566525599999999</v>
+      </c>
+      <c r="C2" s="2">
+        <f>I2+(L2*0.0001)-(M2*0.0001)</f>
+        <v>127.01114869999999</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <f>H2+(J2*0.0000001)-(K2*0.0000001)</f>
-        <v>37.566525599999999</v>
-      </c>
-      <c r="C2" s="2">
-        <f>I2+(L2*0.0000001)-(M2*0.0000001)</f>
-        <v>127.0066487</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="H2">
         <v>37.566525599999999</v>
       </c>
       <c r="I2">
         <v>127.0066487</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B7" si="0">H3+(J3*0.0000001)-(K3*0.0000001)</f>
+        <f t="shared" ref="B3:B7" si="0">H3+(J3*0.000001)-(K3*0.000001)</f>
         <v>37.514741999999998</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C7" si="1">I3+(L3*0.0000001)-(M3*0.0000001)</f>
+        <f t="shared" ref="C3:C7" si="1">I3+(L3*0.0001)-(M3*0.0001)</f>
         <v>127.007423</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="H3">
         <v>37.514741999999998</v>
@@ -1115,7 +1119,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
@@ -1126,15 +1130,15 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -1145,13 +1149,13 @@
         <v>127.00478750000001</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="H5">
         <v>37.514040299999998</v>
@@ -1162,7 +1166,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -1173,13 +1177,13 @@
         <v>127.00008800000001</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
       <c r="H6">
         <v>37.512324</v>
@@ -1190,7 +1194,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -1201,13 +1205,13 @@
         <v>127.014325</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
       <c r="H7">
         <v>37.534146</v>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C2" s="2">
         <f>I2+(L2*0.0001)-(M2*0.0001)</f>
-        <v>127.01114869999999</v>
+        <v>127.0101487</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1086,7 +1086,7 @@
         <v>127.0066487</v>
       </c>
       <c r="L2">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF05EF7-18C7-4981-84FD-5ABBA8DA9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Category</t>
   </si>
@@ -85,20 +86,29 @@
   <si>
     <t>YouTube Link</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPj4hMttgJM</t>
+  </si>
+  <si>
+    <t>Sandy Ground, Anguilla</t>
+  </si>
+  <si>
+    <t>Elvis' Beach Bar LIVE HD Webcam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -106,7 +116,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -114,7 +124,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -123,7 +133,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -132,7 +142,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -141,7 +151,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -149,7 +159,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -157,7 +167,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -165,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -173,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -182,7 +192,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -191,7 +201,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -199,7 +209,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -208,7 +218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -216,7 +226,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -225,7 +235,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -234,7 +244,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -242,20 +252,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +461,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -551,6 +589,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,15 +733,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1010,215 +1072,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <f>H2+(J2*0.000001)-(K2*0.000001)</f>
         <v>37.566525599999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <f>I2+(L2*0.0001)-(M2*0.0001)</f>
         <v>127.0101487</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>37.566525599999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>127.0066487</v>
       </c>
-      <c r="L2">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
         <v>35</v>
       </c>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B7" si="0">H3+(J3*0.000001)-(K3*0.000001)</f>
         <v>37.514741999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C7" si="1">I3+(L3*0.0001)-(M3*0.0001)</f>
         <v>127.007423</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>37.514741999999998</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>127.007423</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>37.514040299999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>127.00478750000001</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>37.514040299999998</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>127.00478750000001</v>
       </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>37.512324</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <f t="shared" si="1"/>
         <v>127.00008800000001</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>37.512324</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>127.00008800000001</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>37.534146</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <f t="shared" si="1"/>
         <v>127.014325</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>37.534146</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>127.014325</v>
       </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8" si="2">H8+(J8*0.000001)-(K8*0.000001)</f>
+        <v>18.203309300000001</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8" si="3">I8+(L8*0.0001)-(M8*0.0001)</f>
+        <v>-63.091456600000001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>18.203309300000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-63.091456600000001</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF05EF7-18C7-4981-84FD-5ABBA8DA9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD435B-17A6-47B9-A882-87075D391040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD435B-17A6-47B9-A882-87075D391040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708792F-45AD-4A0C-98C6-EAA3A6E62206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ref="B8" si="2">H8+(J8*0.000001)-(K8*0.000001)</f>
-        <v>18.203309300000001</v>
+        <v>18.2033083</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8" si="3">I8+(L8*0.0001)-(M8*0.0001)</f>
-        <v>-63.091456600000001</v>
+        <v>-63.090956599999998</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -1346,9 +1346,15 @@
         <v>-63.091456600000001</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708792F-45AD-4A0C-98C6-EAA3A6E62206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CD97C-E868-4D03-8EFC-7E3DD78B6F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Category</t>
   </si>
@@ -34,16 +34,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Sub-district</t>
-  </si>
-  <si>
     <t>LIVE</t>
   </si>
   <si>
     <t>DDP (Dongdaemun Design Plaza)</t>
-  </si>
-  <si>
-    <t>Seoul, Korea</t>
   </si>
   <si>
     <t>q6L90G9Ae84</t>
@@ -91,10 +85,130 @@
     <t>SPj4hMttgJM</t>
   </si>
   <si>
-    <t>Sandy Ground, Anguilla</t>
+    <t>Anguilla</t>
   </si>
   <si>
     <t>Elvis' Beach Bar LIVE HD Webcam</t>
+  </si>
+  <si>
+    <t>t0UcTcD3aN0</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Brisbane City Weather Live</t>
+  </si>
+  <si>
+    <t>zkEdGueUrek</t>
+  </si>
+  <si>
+    <t>Port Départemental de la Santé</t>
+  </si>
+  <si>
+    <t>ckOgbO4T078</t>
+  </si>
+  <si>
+    <t>Notre Dame de Paris</t>
+  </si>
+  <si>
+    <t>pOL0u6K4wLI</t>
+  </si>
+  <si>
+    <t>WebCam.NL | Charme.NL | live ultraHD camera. (4K)</t>
+  </si>
+  <si>
+    <t>2u4VTneg-0Y</t>
+  </si>
+  <si>
+    <t>Live Châtel</t>
+  </si>
+  <si>
+    <t>SKI</t>
+  </si>
+  <si>
+    <t>RIVER</t>
+  </si>
+  <si>
+    <t>CHURCH</t>
+  </si>
+  <si>
+    <t>SHOPPING</t>
+  </si>
+  <si>
+    <t>TRAFFIC</t>
+  </si>
+  <si>
+    <t>LANDSCAPE</t>
+  </si>
+  <si>
+    <t>BRIDGE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>BUILDING</t>
+  </si>
+  <si>
+    <t>MOUNTAIN</t>
+  </si>
+  <si>
+    <t>PARK</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>BEACH</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Sandy Ground</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Villefranche-sur-Mer</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Coullons</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>SPORTS</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>SKY</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>CAMPING</t>
   </si>
 </sst>
 </file>
@@ -1073,288 +1187,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4">
+        <f>N2+(P2*0.000001)-(Q2*0.000001)</f>
+        <v>37.566525599999999</v>
+      </c>
+      <c r="H2" s="4">
+        <f>O2+(R2*0.0001)-(S2*0.0001)</f>
+        <v>127.0101487</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>37.566525599999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>127.0066487</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <f>H2+(J2*0.000001)-(K2*0.000001)</f>
-        <v>37.566525599999999</v>
-      </c>
-      <c r="C2" s="4">
-        <f>I2+(L2*0.0001)-(M2*0.0001)</f>
-        <v>127.0101487</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G7" si="0">N3+(P3*0.000001)-(Q3*0.000001)</f>
+        <v>37.514741999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H7" si="1">O3+(R3*0.0001)-(S3*0.0001)</f>
+        <v>127.007423</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>37.566525599999999</v>
-      </c>
-      <c r="I2" s="3">
-        <v>127.0066487</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>37.514741999999998</v>
+      </c>
+      <c r="O3" s="3">
+        <v>127.007423</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B7" si="0">H3+(J3*0.000001)-(K3*0.000001)</f>
-        <v>37.514741999999998</v>
-      </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C7" si="1">I3+(L3*0.0001)-(M3*0.0001)</f>
-        <v>127.007423</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>37.514741999999998</v>
-      </c>
-      <c r="I3" s="3">
-        <v>127.007423</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>37.514040299999998</v>
       </c>
-      <c r="C5" s="4">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>127.00478750000001</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>37.514040299999998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="O5" s="3">
         <v>127.00478750000001</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>37.512324</v>
       </c>
-      <c r="C6" s="4">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>127.00008800000001</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>37.512324</v>
       </c>
-      <c r="I6" s="3">
+      <c r="O6" s="3">
         <v>127.00008800000001</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>37.534146</v>
       </c>
-      <c r="C7" s="4">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>127.014325</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>37.534146</v>
       </c>
-      <c r="I7" s="3">
+      <c r="O7" s="3">
         <v>127.014325</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" ref="B8" si="2">H8+(J8*0.000001)-(K8*0.000001)</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8" si="2">N8+(P8*0.000001)-(Q8*0.000001)</f>
         <v>18.2033083</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8" si="3">I8+(L8*0.0001)-(M8*0.0001)</f>
-        <v>-63.090956599999998</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="H8" s="4">
+        <f t="shared" ref="H8" si="3">O8+(R8*0.0001)-(S8*0.0001)</f>
+        <v>-63.091156599999998</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>18.203309300000001</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-63.091456600000001</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G13" si="4">N9+(P9*0.000001)-(Q9*0.000001)</f>
+        <v>-27.462502000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9:H13" si="5">O9+(R9*0.0001)-(S9*0.0001)</f>
+        <v>153.02717899999999</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>18.203309300000001</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-63.091456600000001</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4">
+        <v>-27.462502000000001</v>
+      </c>
+      <c r="O9" s="4">
+        <v>153.02717899999999</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
+        <f t="shared" si="4"/>
+        <v>43.703235999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="5"/>
+        <v>7.312729</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4">
+        <v>43.703235999999997</v>
+      </c>
+      <c r="O10" s="4">
+        <v>7.312729</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4">
+        <f t="shared" si="4"/>
+        <v>48.851854000000003</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3508390000000001</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4">
+        <v>48.851854000000003</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.3508390000000001</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4">
+        <f t="shared" si="4"/>
+        <v>47.6173845</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5246807000000002</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4">
+        <v>47.6173845</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.5246807000000002</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>46.218201999999998</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="5"/>
+        <v>6.7925329999999997</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4">
+        <v>46.218201999999998</v>
+      </c>
+      <c r="O13" s="4">
+        <v>6.7925329999999997</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CD97C-E868-4D03-8EFC-7E3DD78B6F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -34,9 +33,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>LIVE</t>
-  </si>
-  <si>
     <t>DDP (Dongdaemun Design Plaza)</t>
   </si>
   <si>
@@ -47,9 +43,6 @@
   </si>
   <si>
     <t>dbrTAsxhdiE</t>
-  </si>
-  <si>
-    <t>Seogang Bridge, Han river</t>
   </si>
   <si>
     <t>Ban-po Bridge, Han river</t>
@@ -124,48 +117,9 @@
     <t>Live Châtel</t>
   </si>
   <si>
-    <t>SKI</t>
-  </si>
-  <si>
-    <t>RIVER</t>
-  </si>
-  <si>
-    <t>CHURCH</t>
-  </si>
-  <si>
-    <t>SHOPPING</t>
-  </si>
-  <si>
-    <t>TRAFFIC</t>
-  </si>
-  <si>
-    <t>LANDSCAPE</t>
-  </si>
-  <si>
-    <t>BRIDGE</t>
-  </si>
-  <si>
     <t>CITY</t>
   </si>
   <si>
-    <t>BUILDING</t>
-  </si>
-  <si>
-    <t>MOUNTAIN</t>
-  </si>
-  <si>
-    <t>PARK</t>
-  </si>
-  <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>BEACH</t>
-  </si>
-  <si>
     <t>COUNTRY</t>
   </si>
   <si>
@@ -193,36 +147,60 @@
     <t>France</t>
   </si>
   <si>
-    <t>SPORTS</t>
-  </si>
-  <si>
-    <t>PORT</t>
-  </si>
-  <si>
-    <t>SHIP</t>
-  </si>
-  <si>
-    <t>SKY</t>
-  </si>
-  <si>
-    <t>NATURE</t>
-  </si>
-  <si>
-    <t>CAMPING</t>
+    <t>LIVE, LANDSCAPE, TRAFFIC, RIVER, BRIDGE, BUILDING</t>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE, TRAFFIC, RIVER, BRIDGE, PARK</t>
+  </si>
+  <si>
+    <t>LIVE, SHOPPING, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE, TRAFFIC, RIVER, MOUNTAIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE, TRAFFIC, RIVER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH, BAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE, SKY, BUILDING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SEA, PORT, SHIP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, RIVER, CHURCH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, NATURE, CAMPING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SPORTS, SKI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -230,7 +208,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -238,7 +216,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -247,7 +225,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -256,7 +234,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -265,7 +243,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -273,7 +251,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -281,7 +259,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -289,7 +267,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -297,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -306,7 +284,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -315,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -323,7 +301,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -332,7 +310,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -340,7 +318,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -349,7 +327,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -358,7 +336,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -366,14 +344,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -382,7 +360,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +368,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -860,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,636 +1164,463 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="10" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4">
+        <f>I2+(K2*0.000001)-(L2*0.000001)</f>
+        <v>37.566525599999999</v>
+      </c>
+      <c r="C2" s="4">
+        <f>J2+(M2*0.0001)-(N2*0.0001)</f>
+        <v>127.0101487</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4">
-        <f>N2+(P2*0.000001)-(Q2*0.000001)</f>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <v>37.566525599999999</v>
       </c>
-      <c r="H2" s="4">
-        <f>O2+(R2*0.0001)-(S2*0.0001)</f>
-        <v>127.0101487</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="3">
+        <v>127.0066487</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B6" si="0">I3+(K3*0.000001)-(L3*0.000001)</f>
+        <v>37.514741999999998</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C6" si="1">J3+(M3*0.0001)-(N3*0.0001)</f>
+        <v>127.007423</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
-        <v>37.566525599999999</v>
-      </c>
-      <c r="O2" s="3">
-        <v>127.0066487</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>37.514741999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>127.007423</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G7" si="0">N3+(P3*0.000001)-(Q3*0.000001)</f>
-        <v>37.514741999999998</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H7" si="1">O3+(R3*0.0001)-(S3*0.0001)</f>
-        <v>127.007423</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>37.514040299999998</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>127.00478750000001</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
-        <v>37.514741999999998</v>
-      </c>
-      <c r="O3" s="3">
-        <v>127.007423</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>37.514040299999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>127.00478750000001</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>37.514040299999998</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>127.00478750000001</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
-        <v>37.514040299999998</v>
-      </c>
-      <c r="O5" s="3">
-        <v>127.00478750000001</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>37.512324</v>
       </c>
-      <c r="H6" s="4">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>127.00008800000001</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>37.512324</v>
       </c>
-      <c r="O6" s="3">
+      <c r="J5" s="3">
         <v>127.00008800000001</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>37.534146</v>
       </c>
-      <c r="H7" s="4">
+      <c r="C6" s="4">
         <f t="shared" si="1"/>
         <v>127.014325</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>37.534146</v>
+      </c>
+      <c r="J6" s="3">
+        <v>127.014325</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" ref="B7" si="2">I7+(K7*0.000001)-(L7*0.000001)</f>
+        <v>18.2033083</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7" si="3">J7+(M7*0.0001)-(N7*0.0001)</f>
+        <v>-63.091156599999998</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>18.203309300000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-63.091456600000001</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:B12" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
+        <v>-27.462502000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:C12" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
+        <v>153.02717899999999</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
+        <v>-27.462502000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>153.02717899999999</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <v>37.534146</v>
-      </c>
-      <c r="O7" s="3">
-        <v>127.014325</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8" si="2">N8+(P8*0.000001)-(Q8*0.000001)</f>
-        <v>18.2033083</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" ref="H8" si="3">O8+(R8*0.0001)-(S8*0.0001)</f>
-        <v>-63.091156599999998</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3">
-        <v>18.203309300000001</v>
-      </c>
-      <c r="O8" s="3">
-        <v>-63.091456600000001</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4">
-        <f t="shared" ref="G9:G13" si="4">N9+(P9*0.000001)-(Q9*0.000001)</f>
-        <v>-27.462502000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" ref="H9:H13" si="5">O9+(R9*0.0001)-(S9*0.0001)</f>
-        <v>153.02717899999999</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4">
-        <v>-27.462502000000001</v>
-      </c>
-      <c r="O9" s="4">
-        <v>153.02717899999999</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4">
+      <c r="B9" s="4">
         <f t="shared" si="4"/>
         <v>43.703235999999997</v>
       </c>
-      <c r="H10" s="4">
+      <c r="C9" s="4">
         <f t="shared" si="5"/>
         <v>7.312729</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
         <v>43.703235999999997</v>
       </c>
-      <c r="O10" s="4">
+      <c r="J9" s="4">
         <v>7.312729</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4">
         <f t="shared" si="4"/>
         <v>48.851854000000003</v>
       </c>
-      <c r="H11" s="4">
+      <c r="C10" s="4">
         <f t="shared" si="5"/>
         <v>2.3508390000000001</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>48.851854000000003</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.3508390000000001</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="4"/>
+        <v>47.6173845</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5246807000000002</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <v>47.6173845</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.5246807000000002</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4">
-        <v>48.851854000000003</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2.3508390000000001</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="4"/>
+        <v>46.218201999999998</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="5"/>
+        <v>6.7925329999999997</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4">
-        <f t="shared" si="4"/>
-        <v>47.6173845</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="5"/>
-        <v>2.5246807000000002</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4">
+        <v>46.218201999999998</v>
+      </c>
+      <c r="J12" s="4">
+        <v>6.7925329999999997</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4">
-        <v>47.6173845</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2.5246807000000002</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4">
-        <f t="shared" si="4"/>
-        <v>46.218201999999998</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="5"/>
-        <v>6.7925329999999997</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4">
-        <v>46.218201999999998</v>
-      </c>
-      <c r="O13" s="4">
-        <v>6.7925329999999997</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="N12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>DDP (Dongdaemun Design Plaza)</t>
   </si>
   <si>
     <t>q6L90G9Ae84</t>
@@ -114,9 +111,6 @@
     <t>2u4VTneg-0Y</t>
   </si>
   <si>
-    <t>Live Châtel</t>
-  </si>
-  <si>
     <t>CITY</t>
   </si>
   <si>
@@ -186,6 +180,18 @@
   </si>
   <si>
     <t>LIVE, SPORTS, SKI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDP (Dongdaemun Design Plaza)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Châtel SKI resort</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Châtel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1174,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1198,33 +1204,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
         <f>I2+(K2*0.000001)-(L2*0.000001)</f>
@@ -1235,16 +1241,16 @@
         <v>127.0101487</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
@@ -1262,7 +1268,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B6" si="0">I3+(K3*0.000001)-(L3*0.000001)</f>
@@ -1273,16 +1279,16 @@
         <v>127.007423</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
@@ -1298,7 +1304,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
@@ -1309,16 +1315,16 @@
         <v>127.00478750000001</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
@@ -1334,7 +1340,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
@@ -1345,16 +1351,16 @@
         <v>127.00008800000001</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -1370,7 +1376,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
@@ -1381,16 +1387,16 @@
         <v>127.014325</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
@@ -1406,7 +1412,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" ref="B7" si="2">I7+(K7*0.000001)-(L7*0.000001)</f>
@@ -1417,16 +1423,16 @@
         <v>-63.091156599999998</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
@@ -1448,7 +1454,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ref="B8:B12" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
@@ -1459,16 +1465,16 @@
         <v>153.02717899999999</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4">
@@ -1484,7 +1490,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="4"/>
@@ -1495,16 +1501,16 @@
         <v>7.312729</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4">
@@ -1520,7 +1526,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="4"/>
@@ -1531,16 +1537,16 @@
         <v>2.3508390000000001</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4">
@@ -1556,7 +1562,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="4"/>
@@ -1567,16 +1573,16 @@
         <v>2.5246807000000002</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4">
@@ -1592,7 +1598,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="4"/>
@@ -1603,12 +1609,16 @@
         <v>6.7925329999999997</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4">

--- a/location.xlsx
+++ b/location.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Category</t>
   </si>
@@ -192,6 +192,26 @@
   </si>
   <si>
     <t>Châtel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSSHILnbfyw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newyork</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times Square 1515 Broadway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BILLBOARD</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -702,6 +722,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +880,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1171,10 +1208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,11 +1495,11 @@
         <v>45</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B12" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
+        <f t="shared" ref="B8:B13" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
         <v>-27.462502000000001</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C12" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
+        <f t="shared" ref="C8:C13" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
         <v>153.02717899999999</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1632,6 +1670,37 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="4"/>
+        <v>40.757947000000001</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="5"/>
+        <v>73.985530999999995</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>40.757947000000001</v>
+      </c>
+      <c r="J13" s="7">
+        <v>73.985530999999995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -208,6 +208,66 @@
   </si>
   <si>
     <t>Times Square 1515 Broadway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BILLBOARD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4qyZLflp-Si</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iiBTWU2FyFo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times Square : Duffy Square</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2HXup8nA1I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times Square 1560 Broadway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times Square 1540 Broadway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a9J1OP_x5Rg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times Square Express view</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jtvmwjzZY0c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BILLBOARD, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s489qpbvA0o</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas : NYNY VIEW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas : Aerie VIEW</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -592,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -733,6 +793,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +954,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1495,11 +1567,11 @@
         <v>45</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B13" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
+        <f t="shared" ref="B8:B19" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
         <v>-27.462502000000001</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C13" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
+        <f t="shared" ref="C8:C19" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
         <v>153.02717899999999</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1680,7 +1752,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="5"/>
-        <v>73.985530999999995</v>
+        <v>-73.985530999999995</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>56</v>
@@ -1698,7 +1770,193 @@
         <v>40.757947000000001</v>
       </c>
       <c r="J13" s="7">
-        <v>73.985530999999995</v>
+        <v>-73.985530999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="4"/>
+        <v>40.758659000000002</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="5"/>
+        <v>-73.985212000000004</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40.758659000000002</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-73.985212000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="4"/>
+        <v>40.7591976</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="5"/>
+        <v>-73.985034499999998</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="7">
+        <v>40.7591976</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-73.985034499999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="4"/>
+        <v>40.758232</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="5"/>
+        <v>-73.985382000000001</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="7">
+        <v>40.758232</v>
+      </c>
+      <c r="J16">
+        <v>-73.985382000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="4"/>
+        <v>40.758772027015702</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="5"/>
+        <v>-73.985588391999002</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7">
+        <v>40.758772027015702</v>
+      </c>
+      <c r="J17" s="8">
+        <v>-73.985588391999002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="4"/>
+        <v>36.102658016882799</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="5"/>
+        <v>-115.17294222911001</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="7">
+        <v>36.102658016882799</v>
+      </c>
+      <c r="J18" s="8">
+        <v>-115.17294222911001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="4"/>
+        <v>36.102330999948997</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="5"/>
+        <v>-115.172899992019</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="7">
+        <v>36.102330999948997</v>
+      </c>
+      <c r="J19" s="8">
+        <v>-115.172899992019</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1283,8 +1283,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="B2" s="4">
         <f>I2+(K2*0.000001)-(L2*0.000001)</f>
-        <v>37.566525599999999</v>
+        <v>37.5666956552163</v>
       </c>
       <c r="C2" s="4">
         <f>J2+(M2*0.0001)-(N2*0.0001)</f>
-        <v>127.0101487</v>
+        <v>127.00928797018599</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>50</v>
@@ -1364,16 +1364,14 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
-        <v>37.566525599999999</v>
+        <v>37.5666956552163</v>
       </c>
       <c r="J2" s="3">
-        <v>127.0066487</v>
+        <v>127.00928797018599</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>35</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA67C1B-8976-4E05-9BE2-F6B365C3C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t>Category</t>
   </si>
@@ -271,22 +272,42 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LIVE, BILLBOARD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>MwcqP3ta6RI</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Calgary Downtown View</t>
+  </si>
+  <si>
+    <t>xsRDTfuksyI</t>
+  </si>
+  <si>
+    <t>Central Memorial Park</t>
+  </si>
+  <si>
+    <t>LIVE, PARK</t>
+  </si>
+  <si>
+    <t>LIVE, DOWNTOWN, RIVER, TRAFFIC, BUILDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -294,7 +315,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -302,7 +323,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -311,7 +332,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -320,7 +341,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -329,7 +350,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -337,7 +358,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -345,7 +366,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -353,7 +374,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -361,7 +382,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -370,7 +391,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -379,7 +400,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -387,7 +408,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -396,7 +417,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -404,7 +425,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -413,7 +434,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -422,7 +443,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -430,14 +451,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -446,7 +467,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +475,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -931,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,19 +965,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,28 +1309,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1374,7 +1404,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1440,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1446,7 +1476,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1482,7 +1512,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -1518,7 +1548,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1560,16 +1590,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B19" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
+        <f t="shared" ref="B8:B21" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
         <v>-27.462502000000001</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C19" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
+        <f t="shared" ref="C8:C21" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
         <v>153.02717899999999</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1596,7 +1626,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1632,7 +1662,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1668,7 +1698,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1734,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1740,7 +1770,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1801,7 @@
         <v>-73.985530999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -1802,7 +1832,7 @@
         <v>-73.985212000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -1833,7 +1863,7 @@
         <v>-73.985034499999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>57</v>
       </c>
@@ -1864,7 +1894,7 @@
         <v>-73.985382000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>57</v>
       </c>
@@ -1895,7 +1925,7 @@
         <v>-73.985588391999002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
@@ -1926,9 +1956,9 @@
         <v>-115.17294222911001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" si="4"/>
@@ -1955,6 +1985,68 @@
       </c>
       <c r="J19" s="8">
         <v>-115.172899992019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="9">
+        <f t="shared" si="4"/>
+        <v>51.051458907264099</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="5"/>
+        <v>-114.05785799826501</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="9">
+        <v>51.051458907264099</v>
+      </c>
+      <c r="J20" s="10">
+        <v>-114.05785799826501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="4"/>
+        <v>51.0411974223206</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="5"/>
+        <v>-114.070227502294</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="9">
+        <v>51.0411974223206</v>
+      </c>
+      <c r="J21" s="10">
+        <v>-114.070227502294</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA67C1B-8976-4E05-9BE2-F6B365C3C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0AFBB-EFF0-475B-B2C9-BF92824AF465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>Category</t>
   </si>
@@ -294,6 +294,24 @@
   </si>
   <si>
     <t>LIVE, DOWNTOWN, RIVER, TRAFFIC, BUILDING</t>
+  </si>
+  <si>
+    <t>KSsfLxP-A9g</t>
+  </si>
+  <si>
+    <t>LONDON BUS RIDES</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>51.50374306471883, -0.11602725095922188</t>
+  </si>
+  <si>
+    <t>RECORDED, BUS, CITY, TRAFFIC</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1329,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,15 +1340,16 @@
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,107 +1359,119 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2" t="str">
+        <f>B1&amp;", "&amp;C1</f>
+        <v>latitude, longitude</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="4">
-        <f>I2+(K2*0.000001)-(L2*0.000001)</f>
+        <f>J2+(L2*0.000001)-(M2*0.000001)</f>
         <v>37.5666956552163</v>
       </c>
       <c r="C2" s="4">
-        <f>J2+(M2*0.0001)-(N2*0.0001)</f>
+        <f>K2+(N2*0.0001)-(O2*0.0001)</f>
         <v>127.00928797018599</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="str">
+        <f>B2&amp;", "&amp;C2</f>
+        <v>37.5666956552163, 127.009287970186</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>37.5666956552163</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>127.00928797018599</v>
       </c>
-      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B6" si="0">I3+(K3*0.000001)-(L3*0.000001)</f>
+        <f t="shared" ref="B3:B6" si="0">J3+(L3*0.000001)-(M3*0.000001)</f>
         <v>37.514741999999998</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C6" si="1">J3+(M3*0.0001)-(N3*0.0001)</f>
+        <f t="shared" ref="C3:C6" si="1">K3+(N3*0.0001)-(O3*0.0001)</f>
         <v>127.007423</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D21" si="2">B3&amp;", "&amp;C3</f>
+        <v>37.514742, 127.007423</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>37.514741999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>127.007423</v>
       </c>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1452,31 +1483,35 @@
         <f t="shared" si="1"/>
         <v>127.00478750000001</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>37.5140403, 127.0047875</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>37.514040299999998</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>127.00478750000001</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1488,31 +1523,35 @@
         <f t="shared" si="1"/>
         <v>127.00008800000001</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>37.512324, 127.000088</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>37.512324</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>127.00008800000001</v>
       </c>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -1524,529 +1563,613 @@
         <f t="shared" si="1"/>
         <v>127.014325</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>37.534146, 127.014325</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>37.534146</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>127.014325</v>
       </c>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7" si="2">I7+(K7*0.000001)-(L7*0.000001)</f>
+        <f t="shared" ref="B7" si="3">J7+(L7*0.000001)-(M7*0.000001)</f>
         <v>18.2033083</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7" si="3">J7+(M7*0.0001)-(N7*0.0001)</f>
+        <f t="shared" ref="C7" si="4">K7+(N7*0.0001)-(O7*0.0001)</f>
         <v>-63.091156599999998</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>18.2033083, -63.0911566</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>18.203309300000001</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>-63.091456600000001</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>3</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B21" si="4">I8+(K8*0.000001)-(L8*0.000001)</f>
+        <f t="shared" ref="B8:B21" si="5">J8+(L8*0.000001)-(M8*0.000001)</f>
         <v>-27.462502000000001</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C21" si="5">J8+(M8*0.0001)-(N8*0.0001)</f>
+        <f t="shared" ref="C8:C21" si="6">K8+(N8*0.0001)-(O8*0.0001)</f>
         <v>153.02717899999999</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-27.462502, 153.027179</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4">
+      <c r="I8" s="3"/>
+      <c r="J8" s="4">
         <v>-27.462502000000001</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>153.02717899999999</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.703235999999997</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.312729</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>43.703236, 7.312729</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4">
+      <c r="I9" s="3"/>
+      <c r="J9" s="4">
         <v>43.703235999999997</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7.312729</v>
       </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.851854000000003</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3508390000000001</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>48.851854, 2.350839</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4">
+      <c r="I10" s="3"/>
+      <c r="J10" s="4">
         <v>48.851854000000003</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>2.3508390000000001</v>
       </c>
-      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.6173845</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5246807000000002</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>47.6173845, 2.5246807</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4">
+      <c r="I11" s="3"/>
+      <c r="J11" s="4">
         <v>47.6173845</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>2.5246807000000002</v>
       </c>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.218201999999998</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7925329999999997</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>46.218202, 6.792533</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4">
+      <c r="I12" s="3"/>
+      <c r="J12" s="4">
         <v>46.218201999999998</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>6.7925329999999997</v>
       </c>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.757947000000001</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73.985530999999995</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>40.757947, -73.985531</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>40.757947000000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>-73.985530999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.758659000000002</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73.985212000000004</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>40.758659, -73.985212</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>40.758659000000002</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>-73.985212000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.7591976</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73.985034499999998</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>40.7591976, -73.9850345</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <v>40.7591976</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>-73.985034499999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.758232</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73.985382000000001</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>40.758232, -73.985382</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>40.758232</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-73.985382000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.758772027015702</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73.985588391999002</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>40.7587720270157, -73.985588391999</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <v>40.758772027015702</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>-73.985588391999002</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.102658016882799</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-115.17294222911001</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>36.1026580168828, -115.17294222911</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>36.102658016882799</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>-115.17294222911001</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.102330999948997</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-115.172899992019</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>36.102330999949, -115.172899992019</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>36.102330999948997</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>-115.172899992019</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.051458907264099</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-114.05785799826501</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>51.0514589072641, -114.057857998265</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>51.051458907264099</v>
       </c>
-      <c r="J20" s="10">
+      <c r="K20" s="10">
         <v>-114.05785799826501</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.0411974223206</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-114.070227502294</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>51.0411974223206, -114.070227502294</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>51.0411974223206</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <v>-114.070227502294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0AFBB-EFF0-475B-B2C9-BF92824AF465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CBBBFE-911E-4A38-A67A-83CF9BE356E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -61,14 +55,6 @@
     <t>r4APQYCkVpE</t>
   </si>
   <si>
-    <t>+</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>YouTube Link</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -216,10 +202,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>4qyZLflp-Si</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>iiBTWU2FyFo</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -312,6 +294,111 @@
   </si>
   <si>
     <t>RECORDED, BUS, CITY, TRAFFIC</t>
+  </si>
+  <si>
+    <t>37.5666956552163, 127.009287970186</t>
+  </si>
+  <si>
+    <t>37.514742, 127.007423</t>
+  </si>
+  <si>
+    <t>37.5140403, 127.0047875</t>
+  </si>
+  <si>
+    <t>37.512324, 127.000088</t>
+  </si>
+  <si>
+    <t>37.534146, 127.014325</t>
+  </si>
+  <si>
+    <t>18.2033083, -63.0911566</t>
+  </si>
+  <si>
+    <t>-27.462502, 153.027179</t>
+  </si>
+  <si>
+    <t>43.703236, 7.312729</t>
+  </si>
+  <si>
+    <t>48.851854, 2.350839</t>
+  </si>
+  <si>
+    <t>47.6173845, 2.5246807</t>
+  </si>
+  <si>
+    <t>46.218202, 6.792533</t>
+  </si>
+  <si>
+    <t>40.757947, -73.985531</t>
+  </si>
+  <si>
+    <t>40.758659, -73.985212</t>
+  </si>
+  <si>
+    <t>40.7591976, -73.9850345</t>
+  </si>
+  <si>
+    <t>40.758232, -73.985382</t>
+  </si>
+  <si>
+    <t>40.7587720270157, -73.985588391999</t>
+  </si>
+  <si>
+    <t>36.1026580168828, -115.17294222911</t>
+  </si>
+  <si>
+    <t>36.102330999949, -115.172899992019</t>
+  </si>
+  <si>
+    <t>51.0514589072641, -114.057857998265</t>
+  </si>
+  <si>
+    <t>51.0411974223206, -114.070227502294</t>
+  </si>
+  <si>
+    <t>latitude, longitude</t>
+  </si>
+  <si>
+    <t>4qyZLflp-sI</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>GSSntsHgf-g</t>
+  </si>
+  <si>
+    <t>Malayia</t>
+  </si>
+  <si>
+    <t>3.0432564804041733, 101.61878799446806</t>
+  </si>
+  <si>
+    <t>Selangor</t>
+  </si>
+  <si>
+    <t>IOI Business Park, Jalan Puchong</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, TRAIN, METRO</t>
+  </si>
+  <si>
+    <t>yF5nQlhw-nc</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Ix-Xagħra</t>
+  </si>
+  <si>
+    <t>Xaghra Parish Church Cam</t>
+  </si>
+  <si>
+    <t>36.05018765033522, 14.26477289724582</t>
+  </si>
+  <si>
+    <t>LIVE, CHURCH</t>
   </si>
 </sst>
 </file>
@@ -321,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,16 +576,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,14 +763,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -832,15 +905,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,23 +1050,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1329,847 +1378,596 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f>B1&amp;", "&amp;C1</f>
-        <v>latitude, longitude</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="3" t="b">
+        <f>IsYouTubeVideoValid(F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <f t="shared" ref="G3:G24" si="0">IsYouTubeVideoValid(F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4">
-        <f>J2+(L2*0.000001)-(M2*0.000001)</f>
-        <v>37.5666956552163</v>
-      </c>
-      <c r="C2" s="4">
-        <f>K2+(N2*0.0001)-(O2*0.0001)</f>
-        <v>127.00928797018599</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>B2&amp;", "&amp;C2</f>
-        <v>37.5666956552163, 127.009287970186</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>37.5666956552163</v>
-      </c>
-      <c r="K2" s="3">
-        <v>127.00928797018599</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B6" si="0">J3+(L3*0.000001)-(M3*0.000001)</f>
-        <v>37.514741999999998</v>
-      </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C6" si="1">K3+(N3*0.0001)-(O3*0.0001)</f>
-        <v>127.007423</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D21" si="2">B3&amp;", "&amp;C3</f>
-        <v>37.514742, 127.007423</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>37.514741999999998</v>
-      </c>
-      <c r="K3" s="3">
-        <v>127.007423</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>37.514040299999998</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" si="1"/>
-        <v>127.00478750000001</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>37.5140403, 127.0047875</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>37.514040299999998</v>
-      </c>
-      <c r="K4" s="3">
-        <v>127.00478750000001</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>37.512324</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>127.00008800000001</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>37.512324, 127.000088</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>37.512324</v>
-      </c>
-      <c r="K5" s="3">
-        <v>127.00008800000001</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>37.534146</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>127.014325</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>37.534146, 127.014325</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>37.534146</v>
-      </c>
-      <c r="K6" s="3">
-        <v>127.014325</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" ref="B7" si="3">J7+(L7*0.000001)-(M7*0.000001)</f>
-        <v>18.2033083</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7" si="4">K7+(N7*0.0001)-(O7*0.0001)</f>
-        <v>-63.091156599999998</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>18.2033083, -63.0911566</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>18.203309300000001</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-63.091456600000001</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>3</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" ref="B8:B21" si="5">J8+(L8*0.000001)-(M8*0.000001)</f>
-        <v>-27.462502000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:C21" si="6">K8+(N8*0.0001)-(O8*0.0001)</f>
-        <v>153.02717899999999</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-27.462502, 153.027179</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4">
-        <v>-27.462502000000001</v>
-      </c>
-      <c r="K8" s="4">
-        <v>153.02717899999999</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="5"/>
-        <v>43.703235999999997</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="6"/>
-        <v>7.312729</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>43.703236, 7.312729</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4">
-        <v>43.703235999999997</v>
-      </c>
-      <c r="K9" s="4">
-        <v>7.312729</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="5"/>
-        <v>48.851854000000003</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3508390000000001</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>48.851854, 2.350839</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4">
-        <v>48.851854000000003</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2.3508390000000001</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="5"/>
-        <v>47.6173845</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="6"/>
-        <v>2.5246807000000002</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>47.6173845, 2.5246807</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4">
-        <v>47.6173845</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2.5246807000000002</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" si="5"/>
-        <v>46.218201999999998</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="6"/>
-        <v>6.7925329999999997</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>46.218202, 6.792533</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G13" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4">
-        <v>46.218201999999998</v>
-      </c>
-      <c r="K12" s="4">
-        <v>6.7925329999999997</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" si="5"/>
-        <v>40.757947000000001</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="6"/>
-        <v>-73.985530999999995</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>40.757947, -73.985531</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G16" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="7">
-        <v>40.757947000000001</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-73.985530999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" si="5"/>
-        <v>40.758659000000002</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="6"/>
-        <v>-73.985212000000004</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>40.758659, -73.985212</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="7">
-        <v>40.758659000000002</v>
-      </c>
-      <c r="K14" s="7">
-        <v>-73.985212000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="7">
-        <f t="shared" si="5"/>
-        <v>40.7591976</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="6"/>
-        <v>-73.985034499999998</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>40.7591976, -73.9850345</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="7">
-        <v>40.7591976</v>
-      </c>
-      <c r="K15" s="7">
-        <v>-73.985034499999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="7">
-        <f t="shared" si="5"/>
-        <v>40.758232</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="6"/>
-        <v>-73.985382000000001</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>40.758232, -73.985382</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="7">
-        <v>40.758232</v>
-      </c>
-      <c r="K16">
-        <v>-73.985382000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="7">
-        <f t="shared" si="5"/>
-        <v>40.758772027015702</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="6"/>
-        <v>-73.985588391999002</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>40.7587720270157, -73.985588391999</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="7">
-        <v>40.758772027015702</v>
-      </c>
-      <c r="K17" s="8">
-        <v>-73.985588391999002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6" t="s">
+      <c r="G19" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="7">
-        <f t="shared" si="5"/>
-        <v>36.102658016882799</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="6"/>
-        <v>-115.17294222911001</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>36.1026580168828, -115.17294222911</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="7">
-        <v>36.102658016882799</v>
-      </c>
-      <c r="K18" s="8">
-        <v>-115.17294222911001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="7">
-        <f t="shared" si="5"/>
-        <v>36.102330999948997</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="6"/>
-        <v>-115.172899992019</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>36.102330999949, -115.172899992019</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="7">
-        <v>36.102330999948997</v>
-      </c>
-      <c r="K19" s="8">
-        <v>-115.172899992019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6" t="s">
+      <c r="G21" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="9">
-        <f t="shared" si="5"/>
-        <v>51.051458907264099</v>
-      </c>
-      <c r="C20" s="9">
-        <f t="shared" si="6"/>
-        <v>-114.05785799826501</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>51.0514589072641, -114.057857998265</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="9">
-        <v>51.051458907264099</v>
-      </c>
-      <c r="K20" s="10">
-        <v>-114.05785799826501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="9">
-        <f t="shared" si="5"/>
-        <v>51.0411974223206</v>
-      </c>
-      <c r="C21" s="9">
-        <f t="shared" si="6"/>
-        <v>-114.070227502294</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>51.0411974223206, -114.070227502294</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="9">
-        <v>51.0411974223206</v>
-      </c>
-      <c r="K21" s="10">
-        <v>-114.070227502294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s">
-        <v>80</v>
+      <c r="G22" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CBBBFE-911E-4A38-A67A-83CF9BE356E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE411F8-0865-4751-90F1-A92868839D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
   <si>
     <t>Category</t>
   </si>
@@ -399,6 +399,42 @@
   </si>
   <si>
     <t>LIVE, CHURCH</t>
+  </si>
+  <si>
+    <t>Fzo8jORoQMo</t>
+  </si>
+  <si>
+    <t>-22.30265962622518, 166.44579881056939</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Nouméa</t>
+  </si>
+  <si>
+    <t>Baie de l'Anse-Vata</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH, TRAFFIC</t>
+  </si>
+  <si>
+    <t>WtoxxHADnGk</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>8.621350446135837, -80.13963890536638</t>
+  </si>
+  <si>
+    <t>Provincia de Coclé</t>
+  </si>
+  <si>
+    <t>Panama Fruit Feeder Cam at Canopy Lodge | Cornell Lab</t>
+  </si>
+  <si>
+    <t>LIVE, BIRD, NATURE</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1462,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G24" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G26" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1966,6 +2002,54 @@
         <v>110</v>
       </c>
       <c r="G24" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE411F8-0865-4751-90F1-A92868839D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B704E1C-1D15-49B6-9635-77CC0577E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,9 +425,6 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>8.621350446135837, -80.13963890536638</t>
-  </si>
-  <si>
     <t>Provincia de Coclé</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>LIVE, BIRD, NATURE</t>
+  </si>
+  <si>
+    <t>9.724600339585967, -80.04641141161272</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -930,17 +930,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1089,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,7 +1406,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,7 +1951,7 @@
       <c r="A23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1974,7 +1963,7 @@
       <c r="E23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G23" s="3" t="b">
@@ -1986,7 +1975,7 @@
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1998,7 +1987,7 @@
       <c r="E24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="3" t="b">
@@ -2010,7 +1999,7 @@
       <c r="A25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2022,7 +2011,7 @@
       <c r="E25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G25" s="3" t="b">
@@ -2032,21 +2021,21 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G26" s="3" t="b">

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B704E1C-1D15-49B6-9635-77CC0577E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7368D68-90A1-4101-BF7F-778CB7DCD7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>Category</t>
   </si>
@@ -435,6 +435,42 @@
   </si>
   <si>
     <t>9.724600339585967, -80.04641141161272</t>
+  </si>
+  <si>
+    <t>F06HWCf22-Q</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>16.06102229463763, 108.22382963847215</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>western traffic intersection of Dragon Bridge</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, PARK, RIVER</t>
+  </si>
+  <si>
+    <t>tdNknaT_H5M</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Pattaya</t>
+  </si>
+  <si>
+    <t>Soi Buakhao, Pattaya Live</t>
+  </si>
+  <si>
+    <t>12.930868720771649, 100.88613082143016</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC</t>
   </si>
 </sst>
 </file>
@@ -800,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -930,6 +966,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1059,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1403,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1487,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G26" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G28" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1948,19 +1998,19 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1972,19 +2022,19 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1996,19 +2046,19 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2020,25 +2070,73 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G26" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7368D68-90A1-4101-BF7F-778CB7DCD7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2E4F6-3CD0-46B4-B5B8-A55F1E2829E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>Category</t>
   </si>
@@ -471,6 +471,60 @@
   </si>
   <si>
     <t>LIVE, TRAFFIC</t>
+  </si>
+  <si>
+    <t>xbBKbDwlR0E</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>The Gaucho | Soi 19 | Sukhumvit Road</t>
+  </si>
+  <si>
+    <t>13.737665552051753, 100.55985657894716</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, METRO</t>
+  </si>
+  <si>
+    <t>cB9Fs9UmcRU</t>
+  </si>
+  <si>
+    <t>PTZ Camera Phuong Tran Da Nang Performance Costume</t>
+  </si>
+  <si>
+    <t>16.07427386419858, 108.21753543894123</t>
+  </si>
+  <si>
+    <t>IXBTD4VgFF4</t>
+  </si>
+  <si>
+    <t>Camera at the back gate of Da Nang C Hospital</t>
+  </si>
+  <si>
+    <t>16.074046511064708, 108.21727583355347</t>
+  </si>
+  <si>
+    <t>Fu3nDsqC1J0</t>
+  </si>
+  <si>
+    <t>Camera gate of Nguyen Hue school, Da Nang</t>
+  </si>
+  <si>
+    <t>16.07413230110752, 108.21610230612718</t>
+  </si>
+  <si>
+    <t>Camera View of Danang Hospital Project</t>
+  </si>
+  <si>
+    <t>b6fkug3AmH4</t>
+  </si>
+  <si>
+    <t>16.073735513035444, 108.21582517332482</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, BUILDING</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G28" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G33" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2140,6 +2194,123 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2E4F6-3CD0-46B4-B5B8-A55F1E2829E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814E35A-43E9-4D82-B7D0-C25070E648E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="170">
   <si>
     <t>Category</t>
   </si>
@@ -525,6 +525,42 @@
   </si>
   <si>
     <t>LIVE, TRAFFIC, BUILDING</t>
+  </si>
+  <si>
+    <t>oXItWNjqnbc</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Muizenberg Beach</t>
+  </si>
+  <si>
+    <t>-34.10955591045264, 18.470935764551246</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, TRAFFIC</t>
+  </si>
+  <si>
+    <t>qqJNmFBAK6E</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>LIVE STREAMING FROM HOTEL EVEREST VIEW (3880m / 13000ft)</t>
+  </si>
+  <si>
+    <t>Lukla - Shyangboche Marg, Khumjung 56000, Nepal</t>
+  </si>
+  <si>
+    <t>27.816721243285855, 86.72365777594092</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G34" sqref="G34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G33" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G35" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2310,7 +2346,58 @@
       <c r="F33" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814E35A-43E9-4D82-B7D0-C25070E648E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7926C8-E2D0-4CBC-B497-E018DFD99BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="175">
   <si>
     <t>Category</t>
   </si>
@@ -554,13 +554,28 @@
     <t>LIVE STREAMING FROM HOTEL EVEREST VIEW (3880m / 13000ft)</t>
   </si>
   <si>
-    <t>Lukla - Shyangboche Marg, Khumjung 56000, Nepal</t>
-  </si>
-  <si>
     <t>27.816721243285855, 86.72365777594092</t>
   </si>
   <si>
     <t>LIVE, MOUNTAIN</t>
+  </si>
+  <si>
+    <t>Khumjung</t>
+  </si>
+  <si>
+    <t>qc6D_8ldCQs</t>
+  </si>
+  <si>
+    <t>Lukla</t>
+  </si>
+  <si>
+    <t>LUKLA AIRPORT LIVE FROM HIMALAYA LODGE</t>
+  </si>
+  <si>
+    <t>27.687254751592487, 86.73240885152107</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN, AIRPORT</t>
   </si>
 </sst>
 </file>
@@ -1543,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G35"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G35" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G36" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2377,16 +2392,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>165</v>
@@ -2397,6 +2412,30 @@
       <c r="G35" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7926C8-E2D0-4CBC-B497-E018DFD99BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D301B-EDE3-44DE-802D-B638C03323CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="180">
   <si>
     <t>Category</t>
   </si>
@@ -576,6 +576,21 @@
   </si>
   <si>
     <t>LIVE, MOUNTAIN, AIRPORT</t>
+  </si>
+  <si>
+    <t>0Aktv-_xUXs</t>
+  </si>
+  <si>
+    <t>Maxico</t>
+  </si>
+  <si>
+    <t>28.6765193300356, -100.534359044566</t>
+  </si>
+  <si>
+    <t>Live broadcast of fiscal route Piedras Negras International Bridge 2</t>
+  </si>
+  <si>
+    <t>Piedras Negras</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1642,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G36" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G37" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2436,6 +2451,30 @@
       <c r="G36" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D301B-EDE3-44DE-802D-B638C03323CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="185">
   <si>
     <t>Category</t>
   </si>
@@ -591,20 +590,38 @@
   </si>
   <si>
     <t>Piedras Negras</t>
+  </si>
+  <si>
+    <t>vz_sIkkAv7Y</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-27.005150441765377, -48.63292964378517</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ª AVENIDA - VILA REAL - BALNEÁRIO CAMBORIÚ - SC - BC AO VIVO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balneário Camboriú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -612,7 +629,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -620,7 +637,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -629,7 +646,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -638,7 +655,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -647,7 +664,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -655,7 +672,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -663,7 +680,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -671,7 +688,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -679,7 +696,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -688,7 +705,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -697,7 +714,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -705,7 +722,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -714,7 +731,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -722,7 +739,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -731,7 +748,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -740,7 +757,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -748,14 +765,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -764,7 +781,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1226,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,7 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1249,6 +1266,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,26 +1591,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1633,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1637,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -1657,11 +1677,11 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G37" si="0">IsYouTubeVideoValid(F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f t="shared" ref="G3:G38" si="0">IsYouTubeVideoValid(F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1709,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1757,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1781,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1805,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1829,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1853,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1877,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1925,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -1949,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -1973,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1997,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2021,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -2045,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -2069,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -2093,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
@@ -2117,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>109</v>
       </c>
@@ -2141,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>115</v>
       </c>
@@ -2165,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>121</v>
       </c>
@@ -2189,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>126</v>
       </c>
@@ -2213,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>133</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>139</v>
       </c>
@@ -2261,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>144</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>139</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>139</v>
       </c>
@@ -2333,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>139</v>
       </c>
@@ -2357,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>157</v>
       </c>
@@ -2381,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>163</v>
       </c>
@@ -2405,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>168</v>
       </c>
@@ -2429,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>174</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>139</v>
       </c>
@@ -2475,6 +2495,30 @@
       <c r="G37" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="189">
   <si>
     <t>Category</t>
   </si>
@@ -608,6 +608,21 @@
   </si>
   <si>
     <t>Balneário Camboriú</t>
+  </si>
+  <si>
+    <t>StAk5P7B4Go</t>
+  </si>
+  <si>
+    <t>-26.9971687101983-48.5908382934894</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRAIA DE LARANJEIRAS - BALNEÁRIO CAMBORIU - SC - RESTAURANTE CASA DO CAMARÃO - BC AO VIVO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1593,10 +1608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1677,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G38" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G39" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2517,6 +2532,30 @@
         <v>180</v>
       </c>
       <c r="G38" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="3" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>

--- a/location.xlsx
+++ b/location.xlsx
@@ -613,15 +613,15 @@
     <t>StAk5P7B4Go</t>
   </si>
   <si>
-    <t>-26.9971687101983-48.5908382934894</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LIVE, SEA, BEACH</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>PRAIA DE LARANJEIRAS - BALNEÁRIO CAMBORIU - SC - RESTAURANTE CASA DO CAMARÃO - BC AO VIVO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-26.9971687101983, -48.5908382934894</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>184</v>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="204">
   <si>
     <t>Category</t>
   </si>
@@ -622,6 +622,62 @@
   </si>
   <si>
     <t>-26.9971687101983, -48.5908382934894</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mPqGLVpYN5Q</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Davao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.082030630801781, 125.6236221942979</t>
+  </si>
+  <si>
+    <t>LIVE, SHOPPING, MARKET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agdao Farmers Market, Davao City Cam 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTZ Live Camera in Philippines, Construction &amp; Market</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t45_gP7I82I</t>
+  </si>
+  <si>
+    <t>7.081855910707648, 125.62407457207543</t>
+  </si>
+  <si>
+    <t>Live Hummingbird Cam in Peru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13.256655478925458, -72.17352170709896</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BIRD, NATURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>av.pucara</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ej_bvcIlByY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1608,10 +1664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G39" si="0">IsYouTubeVideoValid(F3)</f>
+        <f t="shared" ref="G3:G41" si="0">IsYouTubeVideoValid(F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2558,6 +2614,74 @@
       <c r="G39" s="3" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="206">
   <si>
     <t>Category</t>
   </si>
@@ -678,6 +678,14 @@
   </si>
   <si>
     <t>Ej_bvcIlByY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pXe8MpU7uzk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live Hummingbird Feeder Cam in Peru</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1664,10 +1672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A43" sqref="A43:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2684,6 +2692,26 @@
         <v>203</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="207">
   <si>
     <t>Category</t>
   </si>
@@ -686,6 +686,10 @@
   </si>
   <si>
     <t>Live Hummingbird Feeder Cam in Peru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13.256811544682915, -72.1737790667959</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1679,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B43"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2701,7 @@
         <v>201</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>205</v>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="219">
   <si>
     <t>Category</t>
   </si>
@@ -690,6 +690,53 @@
   </si>
   <si>
     <t>-13.256811544682915, -72.1737790667959</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gIT99L3TQ9s</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larne</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.85621973585378, -5.815691135936153</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VhVgZi2lGv0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tallinn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/7 Live Stream 4K - Digital</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larne, Northern Ireland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.437358306894886, 24.75017667351407</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, TRAFFIC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1676,10 +1723,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2716,6 +2763,46 @@
         <v>204</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="237">
   <si>
     <t>Category</t>
   </si>
@@ -737,6 +737,78 @@
   </si>
   <si>
     <t>LIVE, CITY, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.69335426530158, 44.801504831142886</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberty square</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fDYKDeZC9c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.26932767037566735, 29.014477227098208</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRACE Gorilla Forest Corridor Cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mukula</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yfSyjwY6zSQ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, ANIMAL, NATURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>58.737698088254525, -93.81946825793419</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Lights Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Churchill</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0i1Kg6fROg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, NATURE, UNIVERSE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1244,6 +1316,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1373,7 +1454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,6 +1480,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,7 +1530,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1723,10 +1829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2803,8 +2909,77 @@
         <v>212</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F45 F48:F1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="253">
   <si>
     <t>Category</t>
   </si>
@@ -809,6 +809,68 @@
   </si>
   <si>
     <t>LIVE, NATURE, UNIVERSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, TRAFFIC, BRIDGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.938937786015906, 30.30665733597569</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE CAMERA Sidewalk 24/7 St. Petersburg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGHhKZlFpXM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wULEcVypV4Q</t>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.10994206708416, 131.88786535463603</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online Camera Vladivostok Center Веб-камера Владивосток Океанский пр-т</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>utI0WcV36Tk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.97718790981845, -0.6702841528155156</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrevieja</t>
+  </si>
+  <si>
+    <t>Playa del Cura</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, SEA, SHIP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1530,7 +1592,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1829,10 +1898,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2969,15 +3038,78 @@
         <v>235</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F45 F48:F1048576">
+  <conditionalFormatting sqref="F1:F45 F48 F50:F1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F49">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="262">
   <si>
     <t>Category</t>
   </si>
@@ -871,6 +871,41 @@
   </si>
   <si>
     <t>LIVE, CITY, SEA, SHIP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG6PqR9v5Uk</t>
+  </si>
+  <si>
+    <t>LIVE WEBCAM Playa Palmira</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.53702073445707, 2.4489938589458964</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peguera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7dE4IjDQJmE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.108953838345435, 55.1394663849426</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairmont The Palm - The Palm Jumeirah</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dubai</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1898,10 +1933,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3096,6 +3131,46 @@
       </c>
       <c r="F51" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="278">
   <si>
     <t>Category</t>
   </si>
@@ -906,6 +906,68 @@
   </si>
   <si>
     <t>Dubai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03Itx8iSC0</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaohsiung</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄壽山情人觀景台 4K即時影像 | Kaohsiung Shoushan Lovers' Viewing Platform 4K Live Camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.625447377485727, 120.27414133578823</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_fY1pj1VBw</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.033763020202137, 121.56503162459309</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taipei City panorama view - TAIPEI 101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, BUILDING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>o9MIV7sep5k</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zaanse Schans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebCam.NL | dezaanseschans.nl | live ultraHD Pan Tilt Zoom camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.475571753497086, 4.818457427726254</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE, RIVER</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1933,10 +1995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3171,6 +3233,66 @@
       </c>
       <c r="F53" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="289">
   <si>
     <t>Category</t>
   </si>
@@ -968,6 +968,47 @@
   </si>
   <si>
     <t>LIVE, LANDSCAPE, RIVER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0PC9JDC-2Y</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.42254924107721, 39.82620067445773</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecca</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Mosque - Live broadcast || The Holy Quran Channel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, RELIGION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kt7hKHlArl8</t>
+  </si>
+  <si>
+    <t>Medina</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live broadcast || Sunnah Channel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.46893447433643, 39.61111417777757</t>
+  </si>
+  <si>
+    <t>LIVE, RELIGION, CITY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1995,10 +2036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3293,6 +3334,46 @@
       </c>
       <c r="F56" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="311">
   <si>
     <t>Category</t>
   </si>
@@ -1009,6 +1009,84 @@
   </si>
   <si>
     <t>LIVE, RELIGION, CITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZzlR_ghEl4</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgrade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.81483938338132, 20.46006802879772</t>
+  </si>
+  <si>
+    <t>Belgrade City - STREET VIEW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vHiGKfOlQA</t>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.65982186359907, 139.70016047183464</t>
+  </si>
+  <si>
+    <t>Live Cam - Shibuya Center Street's main arch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, DOWNTOWN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xy2sLEMEj5Y</t>
+  </si>
+  <si>
+    <t>Live Cam - Shibuya Center Street's Inokashira Street</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.660687297942914, 139.69913750342005</t>
+  </si>
+  <si>
+    <t>35.66041731555163, 139.69857482557396</t>
+  </si>
+  <si>
+    <t>EaRgJQ--2eE</t>
+  </si>
+  <si>
+    <t>Live Cam - Shibuya Center Street's McDonald's</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amami Airport by KYT Live</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.431279317564545, 129.70877982375436</t>
+  </si>
+  <si>
+    <t>Amami</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZCTdrUlC0zE</t>
+  </si>
+  <si>
+    <t>LIVE, AIRPORT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2036,10 +2114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3374,6 +3452,106 @@
       </c>
       <c r="F58" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\cam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07528FB1-09FE-4574-AE0E-DF55654B9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$64</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="313">
   <si>
     <t>Category</t>
   </si>
@@ -361,9 +365,6 @@
     <t>4qyZLflp-sI</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>GSSntsHgf-g</t>
   </si>
   <si>
@@ -592,59 +593,62 @@
     <t>Piedras Negras</t>
   </si>
   <si>
+    <t>-27.005150441765377, -48.63292964378517</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ª AVENIDA - VILA REAL - BALNEÁRIO CAMBORIÚ - SC - BC AO VIVO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balneário Camboriú</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>vz_sIkkAv7Y</t>
   </si>
   <si>
-    <t>Brazil</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>-27.005150441765377, -48.63292964378517</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5ª AVENIDA - VILA REAL - BALNEÁRIO CAMBORIÚ - SC - BC AO VIVO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balneário Camboriú</t>
+    <t>LIVE, SEA, BEACH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-26.9971687101983, -48.5908382934894</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRAIA DE LARANJEIRAS - BALNEÁRIO CAMBORIU - SC - RESTAURANTE CASA DO CAMARÃO - BC AO VIVO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>StAk5P7B4Go</t>
   </si>
   <si>
-    <t>LIVE, SEA, BEACH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRAIA DE LARANJEIRAS - BALNEÁRIO CAMBORIU - SC - RESTAURANTE CASA DO CAMARÃO - BC AO VIVO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>-26.9971687101983, -48.5908382934894</t>
+    <t>LIVE, SHOPPING, MARKET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.082030630801781, 125.6236221942979</t>
+  </si>
+  <si>
+    <t>Agdao Farmers Market, Davao City Cam 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Davao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>mPqGLVpYN5Q</t>
   </si>
   <si>
-    <t>Philippines</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Davao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.082030630801781, 125.6236221942979</t>
-  </si>
-  <si>
-    <t>LIVE, SHOPPING, MARKET</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agdao Farmers Market, Davao City Cam 1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>7.081855910707648, 125.62407457207543</t>
   </si>
   <si>
     <t>PTZ Live Camera in Philippines, Construction &amp; Market</t>
@@ -654,61 +658,82 @@
     <t>t45_gP7I82I</t>
   </si>
   <si>
-    <t>7.081855910707648, 125.62407457207543</t>
+    <t>LIVE, BIRD, NATURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13.256655478925458, -72.17352170709896</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Live Hummingbird Cam in Peru</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>av.pucara</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Peru</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-13.256655478925458, -72.17352170709896</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, BIRD, NATURE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>av.pucara</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Ej_bvcIlByY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>-13.256811544682915, -72.1737790667959</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live Hummingbird Feeder Cam in Peru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>pXe8MpU7uzk</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Live Hummingbird Feeder Cam in Peru</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>-13.256811544682915, -72.1737790667959</t>
+    <t>LIVE, CITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.85621973585378, -5.815691135936153</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larne, Northern Ireland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larne</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>gIT99L3TQ9s</t>
   </si>
   <si>
-    <t>Northern Ireland</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Larne</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.85621973585378, -5.815691135936153</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, CITY</t>
+    <t>LIVE, CITY, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.437358306894886, 24.75017667351407</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/7 Live Stream 4K - Digital</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tallinn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -716,34 +741,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Tallinn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Estonia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>24/7 Live Stream 4K - Digital</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Larne, Northern Ireland</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>59.437358306894886, 24.75017667351407</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, CITY, TRAFFIC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, CITY, TRAFFIC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>41.69335426530158, 44.801504831142886</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -764,6 +761,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>LIVE, ANIMAL, NATURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>-0.26932767037566735, 29.014477227098208</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -784,7 +785,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LIVE, ANIMAL, NATURE</t>
+    <t>LIVE, NATURE, UNIVERSE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -808,10 +809,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LIVE, NATURE, UNIVERSE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LIVE, CITY, TRAFFIC, BRIDGE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -836,18 +833,37 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>LIVE, CITY, SEA, SHIP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.10994206708416, 131.88786535463603</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online Camera Vladivostok Center Веб-камера Владивосток Океанский пр-т</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>wULEcVypV4Q</t>
   </si>
   <si>
-    <t>Vladivostok</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.10994206708416, 131.88786535463603</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online Camera Vladivostok Center Веб-камера Владивосток Океанский пр-т</t>
+    <t>37.97718790981845, -0.6702841528155156</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playa del Cura</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrevieja</t>
+  </si>
+  <si>
+    <t>Spain</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -855,37 +871,34 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Spain</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.97718790981845, -0.6702841528155156</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torrevieja</t>
-  </si>
-  <si>
-    <t>Playa del Cura</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, CITY, SEA, SHIP</t>
+    <t>39.53702073445707, 2.4489938589458964</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE WEBCAM Playa Palmira</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peguera</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>WG6PqR9v5Uk</t>
   </si>
   <si>
-    <t>LIVE WEBCAM Playa Palmira</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.53702073445707, 2.4489938589458964</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peguera</t>
+    <t>25.108953838345435, 55.1394663849426</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairmont The Palm - The Palm Jumeirah</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dubai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -893,57 +906,61 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>UAE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.108953838345435, 55.1394663849426</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fairmont The Palm - The Palm Jumeirah</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dubai</t>
+    <t>22.625447377485727, 120.27414133578823</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄壽山情人觀景台 4K即時影像 | Kaohsiung Shoushan Lovers' Viewing Platform 4K Live Camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaohsiung</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>C03Itx8iSC0</t>
   </si>
   <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaohsiung</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>高雄壽山情人觀景台 4K即時影像 | Kaohsiung Shoushan Lovers' Viewing Platform 4K Live Camera</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.625447377485727, 120.27414133578823</t>
+    <t>LIVE, CITY, BUILDING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.033763020202137, 121.56503162459309</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taipei City panorama view - TAIPEI 101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taipei</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>z_fY1pj1VBw</t>
   </si>
   <si>
-    <t>Taipei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.033763020202137, 121.56503162459309</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taipei City panorama view - TAIPEI 101</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, CITY, BUILDING</t>
+    <t>LIVE, LANDSCAPE, RIVER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.475571753497086, 4.818457427726254</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebCam.NL | dezaanseschans.nl | live ultraHD Pan Tilt Zoom camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zaanse Schans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -951,134 +968,114 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Zaanse Schans</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Netherlands</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebCam.NL | dezaanseschans.nl | live ultraHD Pan Tilt Zoom camera</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.475571753497086, 4.818457427726254</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, LANDSCAPE, RIVER</t>
+    <t>LIVE, RELIGION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.42254924107721, 39.82620067445773</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Mosque - Live broadcast || The Holy Quran Channel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecca</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>G0PC9JDC-2Y</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.42254924107721, 39.82620067445773</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecca</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Great Mosque - Live broadcast || The Holy Quran Channel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, RELIGION</t>
+    <t>LIVE, RELIGION, CITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.46893447433643, 39.61111417777757</t>
+  </si>
+  <si>
+    <t>Live broadcast || Sunnah Channel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medina</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Kt7hKHlArl8</t>
   </si>
   <si>
-    <t>Medina</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Live broadcast || Sunnah Channel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.46893447433643, 39.61111417777757</t>
-  </si>
-  <si>
-    <t>LIVE, RELIGION, CITY</t>
+    <t>44.81483938338132, 20.46006802879772</t>
+  </si>
+  <si>
+    <t>Belgrade City - STREET VIEW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgrade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>HZzlR_ghEl4</t>
   </si>
   <si>
-    <t>Serbia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belgrade</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>44.81483938338132, 20.46006802879772</t>
-  </si>
-  <si>
-    <t>Belgrade City - STREET VIEW</t>
+    <t>LIVE, CITY, DOWNTOWN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.65982186359907, 139.70016047183464</t>
+  </si>
+  <si>
+    <t>Live Cam - Shibuya Center Street's main arch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>vHiGKfOlQA</t>
   </si>
   <si>
-    <t>Japan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35.65982186359907, 139.70016047183464</t>
-  </si>
-  <si>
-    <t>Live Cam - Shibuya Center Street's main arch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, CITY, DOWNTOWN</t>
+    <t>35.660687297942914, 139.69913750342005</t>
+  </si>
+  <si>
+    <t>Live Cam - Shibuya Center Street's Inokashira Street</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Xy2sLEMEj5Y</t>
   </si>
   <si>
-    <t>Live Cam - Shibuya Center Street's Inokashira Street</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokyo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35.660687297942914, 139.69913750342005</t>
-  </si>
-  <si>
     <t>35.66041731555163, 139.69857482557396</t>
   </si>
   <si>
+    <t>Live Cam - Shibuya Center Street's McDonald's</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>EaRgJQ--2eE</t>
   </si>
   <si>
-    <t>Live Cam - Shibuya Center Street's McDonald's</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>28.431279317564545, 129.70877982375436</t>
   </si>
   <si>
     <t>Amami Airport by KYT Live</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>28.431279317564545, 129.70877982375436</t>
-  </si>
-  <si>
     <t>Amami</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1086,22 +1083,33 @@
     <t>ZCTdrUlC0zE</t>
   </si>
   <si>
-    <t>LIVE, AIRPORT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>CjhDe-aAh1U</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>27.71491351026221, 85.2903884422623</t>
+  </si>
+  <si>
+    <t>LIVE, TEMPLE, NATURE</t>
+  </si>
+  <si>
+    <t>स्वयम्भू महाचैत्य (Swoyambhu Mahachaitya) VIEW LIVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1109,7 +1117,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1117,7 +1125,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1126,7 +1134,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1135,7 +1143,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1144,7 +1152,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1152,7 +1160,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1160,7 +1168,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1168,7 +1176,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1176,7 +1184,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1185,7 +1193,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1194,7 +1202,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1202,7 +1210,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1211,7 +1219,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1219,7 +1227,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1228,7 +1236,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1237,7 +1245,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1245,14 +1253,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1261,7 +1269,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1732,7 +1740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,22 +1753,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,26 +2117,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,11 +2155,8 @@
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -2173,12 +2175,8 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="b">
-        <f>IsYouTubeVideoValid(F2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2197,12 +2195,8 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G41" si="0">IsYouTubeVideoValid(F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2221,12 +2215,8 @@
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -2245,12 +2235,8 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2269,12 +2255,8 @@
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2293,12 +2275,8 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2317,12 +2295,8 @@
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2341,12 +2315,8 @@
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2365,12 +2335,8 @@
       <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -2389,12 +2355,8 @@
       <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2413,12 +2375,8 @@
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -2437,12 +2395,8 @@
       <c r="F13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -2461,12 +2415,8 @@
       <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -2485,12 +2435,8 @@
       <c r="F15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -2509,12 +2455,8 @@
       <c r="F16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -2533,12 +2475,8 @@
       <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2557,12 +2495,8 @@
       <c r="F18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -2581,12 +2515,8 @@
       <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -2605,12 +2535,8 @@
       <c r="F20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -2629,12 +2555,8 @@
       <c r="F21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
@@ -2653,910 +2575,848 @@
       <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
         <v>133</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="D33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
         <v>157</v>
       </c>
-      <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
         <v>163</v>
       </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" t="s">
         <v>174</v>
       </c>
-      <c r="B36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="F38" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="E39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" t="s">
         <v>193</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" t="s">
-        <v>189</v>
-      </c>
-      <c r="G40" s="3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="F42" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="F43" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
         <v>211</v>
       </c>
-      <c r="B44" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="F45" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
         <v>218</v>
       </c>
-      <c r="B45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B55" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57" t="s">
-        <v>280</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B58" t="s">
-        <v>287</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F58" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D59" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="B60" t="s">
         <v>293</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F59" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="C60" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" t="s">
         <v>298</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C61" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="F61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" t="s">
         <v>301</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="C62" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B61" t="s">
-        <v>302</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="E62" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F62" t="s">
         <v>303</v>
       </c>
-      <c r="C62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F62" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="D63" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
         <v>310</v>
       </c>
-      <c r="B63" t="s">
-        <v>307</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C64" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F63" t="s">
-        <v>309</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F45 F48 F50:F1048576">
+  <conditionalFormatting sqref="F38:F45 F48 F50:F63">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07528FB1-09FE-4574-AE0E-DF55654B9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6518456D-12D6-4915-B926-ED13C42DA87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="343">
   <si>
     <t>Category</t>
   </si>
@@ -1096,6 +1096,96 @@
   </si>
   <si>
     <t>स्वयम्भू महाचैत्य (Swoyambhu Mahachaitya) VIEW LIVE</t>
+  </si>
+  <si>
+    <t>I3EaBIN4bqA</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>LA Venlo</t>
+  </si>
+  <si>
+    <t>51.39296088725938, 6.109590715141834</t>
+  </si>
+  <si>
+    <t>LIVE, AIRPORT</t>
+  </si>
+  <si>
+    <t>LIVE, MACHINES, EQUIPMENTS</t>
+  </si>
+  <si>
+    <t>qhFgy074QOM</t>
+  </si>
+  <si>
+    <t>51.875938048514854, 5.98933917674264</t>
+  </si>
+  <si>
+    <t>Gendt</t>
+  </si>
+  <si>
+    <t>HD PTZ camera camping Waalstrand</t>
+  </si>
+  <si>
+    <t>Smitma.com | live PTZ camera</t>
+  </si>
+  <si>
+    <t>LIVE, REIVER, NATURE, BOAT</t>
+  </si>
+  <si>
+    <t>52.557515354866354, 4.6059043007249025</t>
+  </si>
+  <si>
+    <t>Dza97PVdGgI</t>
+  </si>
+  <si>
+    <t>Castricum</t>
+  </si>
+  <si>
+    <t>52.5579086818405, 4.606226107874305</t>
+  </si>
+  <si>
+    <t>Fsy_w6c06_E</t>
+  </si>
+  <si>
+    <t>Live FULL HD PTZ camera Castricum aan Zee-1</t>
+  </si>
+  <si>
+    <t>Live FULL HD PTZ camera Castricum aan Zee-2</t>
+  </si>
+  <si>
+    <t>BajTwDshTgg</t>
+  </si>
+  <si>
+    <t>53.29451668908995, 5.062863722905832</t>
+  </si>
+  <si>
+    <t>hotelletjedeveerman.nl | live ultraHD PTZ camera</t>
+  </si>
+  <si>
+    <t>Vlieland</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH, CITY</t>
+  </si>
+  <si>
+    <t>OXfVcE-3uq4</t>
+  </si>
+  <si>
+    <t>Schiedam</t>
+  </si>
+  <si>
+    <t>hermesdvs.nl | live FULL HD camera</t>
+  </si>
+  <si>
+    <t>51.9186112055863, 4.371379260432926</t>
+  </si>
+  <si>
+    <t>LIVE, SPORTS, FOOTBALL</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1903,32 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2119,11 +2234,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3378,7 +3493,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s">
         <v>304</v>
@@ -3397,6 +3512,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="B64" t="s">
         <v>310</v>
       </c>
@@ -3411,21 +3529,147 @@
       </c>
       <c r="F64" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" t="s">
+        <v>320</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F70" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F38:F45 F48 F50:F63">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F49">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F66">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6518456D-12D6-4915-B926-ED13C42DA87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4CA00F-C9F5-4363-A209-14776BEFFD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="362">
   <si>
     <t>Category</t>
   </si>
@@ -1186,6 +1186,63 @@
   </si>
   <si>
     <t>LIVE, SPORTS, FOOTBALL</t>
+  </si>
+  <si>
+    <t>-sMrYcR9LZE</t>
+  </si>
+  <si>
+    <t>47.37518962548425, 12.560394675656003</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Saalbach-Hinterglemm</t>
+  </si>
+  <si>
+    <t>Residenzhochalm.com | Live HD camera</t>
+  </si>
+  <si>
+    <t>LIVE, NATURE, MOUNTAIN</t>
+  </si>
+  <si>
+    <t>3gTHiUWrCAE</t>
+  </si>
+  <si>
+    <t>52.38251026176207, 4.905911791105159</t>
+  </si>
+  <si>
+    <t>Sixhaven.NL | live camera - Yacht dock</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, YACHT</t>
+  </si>
+  <si>
+    <t>53.304154030165535, 5.049623740908551</t>
+  </si>
+  <si>
+    <t>www.badhuys.com | live HD camera</t>
+  </si>
+  <si>
+    <t>34tOlrk7z4M</t>
+  </si>
+  <si>
+    <t>52.043704547697146, 4.640519355251902</t>
+  </si>
+  <si>
+    <t>Tennis BE Fair | HD Pan Tilt Zoom camera</t>
+  </si>
+  <si>
+    <t>Waddinxveen</t>
+  </si>
+  <si>
+    <t>H9Kruj_mHp8</t>
+  </si>
+  <si>
+    <t>LIVE, SPORTS, TENNIS</t>
   </si>
 </sst>
 </file>
@@ -2234,11 +2291,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3632,7 +3689,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B70" t="s">
@@ -3649,6 +3706,86 @@
       </c>
       <c r="F70" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3809,10 @@
   <conditionalFormatting sqref="F66">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E71" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{8EC8DCAD-921C-41AC-8401-B5BBED6FB6AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4CA00F-C9F5-4363-A209-14776BEFFD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F62971-7CCA-4321-8664-67973EE04B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="394">
   <si>
     <t>Category</t>
   </si>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Newyork</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Times Square 1515 Broadway</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Las Vegas</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LIVE, BILLBOARD, TRAFFIC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1243,6 +1235,108 @@
   </si>
   <si>
     <t>LIVE, SPORTS, TENNIS</t>
+  </si>
+  <si>
+    <t>Cp4RRAEgpeU</t>
+  </si>
+  <si>
+    <t>Rovaniemi</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Live @ Santa Claus Village</t>
+  </si>
+  <si>
+    <t>66.54362701868001, 25.847198962870912</t>
+  </si>
+  <si>
+    <t>LIVE, VILLAGE, X-MAS</t>
+  </si>
+  <si>
+    <t>EE06S6rnTy4</t>
+  </si>
+  <si>
+    <t>Sloppy Joe's Bar, at the Corner of Duval and Greene St since 1937</t>
+  </si>
+  <si>
+    <t>24.558994620831466, -81.80512999989134</t>
+  </si>
+  <si>
+    <t>LIVE, BAR, STREET</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>36.619696513742234, -121.90350311162969</t>
+  </si>
+  <si>
+    <t>Cabrillo Beach</t>
+  </si>
+  <si>
+    <t>we3tKZxUIDw</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>OMlf71t2oV0</t>
+  </si>
+  <si>
+    <t>Live Jelly Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>36.61831822637323, -121.90170818974342</t>
+  </si>
+  <si>
+    <t>LIVE, AQUARIUM</t>
+  </si>
+  <si>
+    <t>Live Aviary Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>36.6188330450493, -121.9018223936828</t>
+  </si>
+  <si>
+    <t>Live Moon Jelly Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>73k27SEQVTU</t>
+  </si>
+  <si>
+    <t>cUoet3dmRU4</t>
+  </si>
+  <si>
+    <t>36.618215262228645, -121.90194911312166</t>
+  </si>
+  <si>
+    <t>Live African Penguin Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>36.618728589906354, -121.90200928991446</t>
+  </si>
+  <si>
+    <t>Live Shark Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>tEtg5Kg3voQ</t>
+  </si>
+  <si>
+    <t>gfe7xNLFY50</t>
+  </si>
+  <si>
+    <t>36.61843022973071, -121.90125400031434</t>
   </si>
 </sst>
 </file>
@@ -2291,11 +2385,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2313,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2333,7 +2427,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>46</v>
@@ -2353,7 +2447,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -2373,7 +2467,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -2393,7 +2487,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2413,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -2433,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -2453,7 +2547,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -2473,7 +2567,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
@@ -2493,7 +2587,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2513,7 +2607,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
@@ -2533,7 +2627,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>47</v>
@@ -2550,16 +2644,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>50</v>
@@ -2570,802 +2664,802 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="F38" t="s">
         <v>181</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="D39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
         <v>185</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" t="s">
         <v>191</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" t="s">
         <v>194</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" t="s">
         <v>209</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="F48" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="F49" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="E50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" t="s">
         <v>243</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="F51" t="s">
         <v>248</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F51" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" t="s">
         <v>252</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F52" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F53" t="s">
         <v>257</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F53" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3373,419 +3467,579 @@
         <v>42</v>
       </c>
       <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" t="s">
         <v>262</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F54" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" t="s">
         <v>267</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="F56" t="s">
         <v>273</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F56" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" t="s">
         <v>279</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F57" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="E58" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" t="s">
         <v>284</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" t="s">
         <v>289</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F59" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="F60" t="s">
         <v>295</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F60" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" t="s">
         <v>298</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
         <v>301</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F62" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" t="s">
         <v>305</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F63" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="D64" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>322</v>
-      </c>
       <c r="D66" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>327</v>
-      </c>
       <c r="E67" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F68" t="s">
         <v>327</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F68" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="E69" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F70" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>346</v>
-      </c>
       <c r="E71" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F71" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>352</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B73" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" t="s">
         <v>354</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F73" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" t="s">
+        <v>355</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E75" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F75" t="s">
         <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F76" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F77" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B78" t="s">
+        <v>380</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F79" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B80" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F82" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F62971-7CCA-4321-8664-67973EE04B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECADDE5E-B0FA-4C92-A08D-BE338DDB4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="409">
   <si>
     <t>Category</t>
   </si>
@@ -1337,6 +1337,51 @@
   </si>
   <si>
     <t>36.61843022973071, -121.90125400031434</t>
+  </si>
+  <si>
+    <t>36.61818880625526, -121.90155004951903</t>
+  </si>
+  <si>
+    <t>abbR-Ttd-cA</t>
+  </si>
+  <si>
+    <t>Live Sea Otter Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>Live Kelp Forest Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>w3LjpFhySTg</t>
+  </si>
+  <si>
+    <t>36.61853302540104, -121.90200628992626</t>
+  </si>
+  <si>
+    <t>zM2d_2k9Nj0</t>
+  </si>
+  <si>
+    <t>Live Open Sea Cam - Monterey Bay Aquarium</t>
+  </si>
+  <si>
+    <t>36.61750418269601, -121.90111105097645</t>
+  </si>
+  <si>
+    <t>Z5ROgEcAWVA</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>-36.821446551229776, -73.046832180092</t>
+  </si>
+  <si>
+    <t>Concepción Centro - Ultra HD LIVE</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, TRAFFIC</t>
   </si>
 </sst>
 </file>
@@ -2385,11 +2430,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4040,6 +4085,86 @@
       </c>
       <c r="F82" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B83" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F85" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F86" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECADDE5E-B0FA-4C92-A08D-BE338DDB4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D575F94-800B-42A8-B4E7-B2AA2B303BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="413">
   <si>
     <t>Category</t>
   </si>
@@ -1382,6 +1382,18 @@
   </si>
   <si>
     <t>LIVE, CITY, TRAFFIC</t>
+  </si>
+  <si>
+    <t>bmSBriUdJzc</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
+  </si>
+  <si>
+    <t>Playa Acapulco</t>
+  </si>
+  <si>
+    <t>-33.01330799002186, -71.55553066972728</t>
   </si>
 </sst>
 </file>
@@ -2430,11 +2442,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4165,6 +4177,26 @@
       </c>
       <c r="F86" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F87" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D575F94-800B-42A8-B4E7-B2AA2B303BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F160E6-1189-4A3A-A40D-B410FBE6114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="417">
   <si>
     <t>Category</t>
   </si>
@@ -1390,10 +1390,22 @@
     <t>Viña del Mar</t>
   </si>
   <si>
-    <t>Playa Acapulco</t>
-  </si>
-  <si>
     <t>-33.01330799002186, -71.55553066972728</t>
+  </si>
+  <si>
+    <t>WAL7kBTXMvM</t>
+  </si>
+  <si>
+    <t>-33.01656803200213, -71.55930945437895</t>
+  </si>
+  <si>
+    <t>Playa Acapulco - LIVE</t>
+  </si>
+  <si>
+    <t>Av. Perú - LIVE</t>
+  </si>
+  <si>
+    <t>LIVE, SEA</t>
   </si>
 </sst>
 </file>
@@ -2442,11 +2454,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4184,10 +4196,10 @@
         <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>410</v>
@@ -4197,6 +4209,26 @@
       </c>
       <c r="F87" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B88" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F88" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F160E6-1189-4A3A-A40D-B410FBE6114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFB073-2D47-483A-9702-C610D28DB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="420">
   <si>
     <t>Category</t>
   </si>
@@ -1406,6 +1406,15 @@
   </si>
   <si>
     <t>LIVE, SEA</t>
+  </si>
+  <si>
+    <t>-pOL_tHU8eU</t>
+  </si>
+  <si>
+    <t>Mori Point, Pacifica CA 4K Live</t>
+  </si>
+  <si>
+    <t>37.63074688977068, -122.49440746774192</t>
   </si>
 </sst>
 </file>
@@ -2132,24 +2141,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2176,6 +2167,24 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2454,7 +2463,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
@@ -3738,13 +3747,13 @@
       <c r="B64" t="s">
         <v>308</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="5" t="s">
         <v>162</v>
       </c>
       <c r="F64" t="s">
@@ -3752,19 +3761,19 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B65" t="s">
         <v>314</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F65" t="s">
@@ -3772,19 +3781,19 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B66" t="s">
         <v>318</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F66" t="s">
@@ -3798,13 +3807,13 @@
       <c r="B67" t="s">
         <v>323</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F67" t="s">
@@ -3818,13 +3827,13 @@
       <c r="B68" t="s">
         <v>326</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F68" t="s">
@@ -3838,13 +3847,13 @@
       <c r="B69" t="s">
         <v>331</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F69" t="s">
@@ -3858,13 +3867,13 @@
       <c r="B70" t="s">
         <v>339</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F70" t="s">
@@ -3878,13 +3887,13 @@
       <c r="B71" t="s">
         <v>342</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="5" t="s">
         <v>343</v>
       </c>
       <c r="F71" t="s">
@@ -3892,19 +3901,19 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="5" t="s">
         <v>351</v>
       </c>
       <c r="B72" t="s">
         <v>348</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F72" t="s">
@@ -3912,19 +3921,19 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B73" t="s">
         <v>352</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F73" t="s">
@@ -3938,13 +3947,13 @@
       <c r="B74" t="s">
         <v>355</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F74" t="s">
@@ -3952,19 +3961,19 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="5" t="s">
         <v>365</v>
       </c>
       <c r="B75" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="5" t="s">
         <v>362</v>
       </c>
       <c r="F75" t="s">
@@ -3972,19 +3981,19 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="5" t="s">
         <v>369</v>
       </c>
       <c r="B76" t="s">
         <v>368</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F76" t="s">
@@ -3992,19 +4001,19 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B77" t="s">
         <v>371</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F77" t="s">
@@ -4012,19 +4021,19 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B78" t="s">
         <v>380</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F78" t="s">
@@ -4032,19 +4041,19 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B79" t="s">
         <v>383</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F79" t="s">
@@ -4052,19 +4061,19 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B80" t="s">
         <v>387</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F80" t="s">
@@ -4072,19 +4081,19 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B81" t="s">
         <v>389</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F81" t="s">
@@ -4092,19 +4101,19 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B82" t="s">
         <v>393</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F82" t="s">
@@ -4112,19 +4121,19 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B83" t="s">
         <v>394</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F83" t="s">
@@ -4132,19 +4141,19 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B84" t="s">
         <v>399</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F84" t="s">
@@ -4152,19 +4161,19 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B85" t="s">
         <v>402</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="5" t="s">
         <v>370</v>
       </c>
       <c r="F85" t="s">
@@ -4172,19 +4181,19 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B86" t="s">
         <v>405</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="5" t="s">
         <v>404</v>
       </c>
       <c r="F86" t="s">
@@ -4192,19 +4201,19 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B87" t="s">
         <v>411</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="5" t="s">
         <v>404</v>
       </c>
       <c r="F87" t="s">
@@ -4212,42 +4221,62 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B88" t="s">
         <v>413</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="5" t="s">
         <v>404</v>
       </c>
       <c r="F88" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B89" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F38:F45 F48 F50:F63">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFB073-2D47-483A-9702-C610D28DB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$64</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="424">
   <si>
     <t>Category</t>
   </si>
@@ -1415,20 +1414,35 @@
   </si>
   <si>
     <t>37.63074688977068, -122.49440746774192</t>
+  </si>
+  <si>
+    <t>15.21426359540567, 145.71576906988687</t>
+  </si>
+  <si>
+    <t>zFGugdfc8k4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saipan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saipan Beach</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1436,7 +1450,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1444,7 +1458,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1453,7 +1467,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1462,7 +1476,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1471,7 +1485,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1479,7 +1493,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1487,7 +1501,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1495,7 +1509,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1503,7 +1517,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1512,7 +1526,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1521,7 +1535,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1529,7 +1543,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1538,7 +1552,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1546,7 +1560,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1555,7 +1569,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1564,7 +1578,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1572,14 +1586,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1588,7 +1602,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2072,7 +2086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2461,26 +2475,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2540,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -2580,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2600,7 +2614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2620,7 +2634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2640,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2660,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2680,7 +2694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -2740,7 +2754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -2760,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -2780,7 +2794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -2800,7 +2814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -2820,7 +2834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -2840,7 +2854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -2860,7 +2874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
@@ -2900,7 +2914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +2934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -2940,7 +2954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>118</v>
       </c>
@@ -2980,7 +2994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>130</v>
       </c>
@@ -3020,7 +3034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3040,7 +3054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
@@ -3060,7 +3074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>136</v>
       </c>
@@ -3080,7 +3094,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
@@ -3100,7 +3114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>136</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>154</v>
       </c>
@@ -3140,7 +3154,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>160</v>
       </c>
@@ -3160,7 +3174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
@@ -3180,7 +3194,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>171</v>
       </c>
@@ -3200,7 +3214,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>136</v>
       </c>
@@ -3220,7 +3234,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>136</v>
       </c>
@@ -3240,7 +3254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>182</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>186</v>
       </c>
@@ -3280,7 +3294,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>136</v>
       </c>
@@ -3300,7 +3314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>195</v>
       </c>
@@ -3320,7 +3334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>195</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>204</v>
       </c>
@@ -3360,7 +3374,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>210</v>
       </c>
@@ -3380,7 +3394,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>210</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>221</v>
       </c>
@@ -3420,7 +3434,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>227</v>
       </c>
@@ -3440,7 +3454,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>233</v>
       </c>
@@ -3460,7 +3474,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>239</v>
       </c>
@@ -3480,7 +3494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>182</v>
       </c>
@@ -3500,7 +3514,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>182</v>
       </c>
@@ -3520,7 +3534,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>182</v>
       </c>
@@ -3540,7 +3554,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>42</v>
       </c>
@@ -3560,7 +3574,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>263</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>268</v>
       </c>
@@ -3600,7 +3614,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>274</v>
       </c>
@@ -3620,7 +3634,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>280</v>
       </c>
@@ -3640,7 +3654,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>210</v>
       </c>
@@ -3660,7 +3674,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>290</v>
       </c>
@@ -3680,7 +3694,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>290</v>
       </c>
@@ -3700,7 +3714,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>290</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>315</v>
       </c>
@@ -3740,7 +3754,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>309</v>
       </c>
@@ -3760,7 +3774,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>316</v>
       </c>
@@ -3780,7 +3794,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>322</v>
       </c>
@@ -3800,7 +3814,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>182</v>
       </c>
@@ -3820,7 +3834,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>334</v>
       </c>
@@ -3840,7 +3854,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>335</v>
       </c>
@@ -3860,7 +3874,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>340</v>
       </c>
@@ -3880,7 +3894,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>346</v>
       </c>
@@ -3900,7 +3914,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>351</v>
       </c>
@@ -3920,7 +3934,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>334</v>
       </c>
@@ -3940,7 +3954,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>359</v>
       </c>
@@ -3960,7 +3974,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>365</v>
       </c>
@@ -3980,7 +3994,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>369</v>
       </c>
@@ -4000,7 +4014,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>334</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>381</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>381</v>
       </c>
@@ -4060,7 +4074,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>381</v>
       </c>
@@ -4080,7 +4094,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>381</v>
       </c>
@@ -4100,7 +4114,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>381</v>
       </c>
@@ -4120,7 +4134,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>381</v>
       </c>
@@ -4140,7 +4154,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>381</v>
       </c>
@@ -4160,7 +4174,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>381</v>
       </c>
@@ -4180,7 +4194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>408</v>
       </c>
@@ -4200,7 +4214,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>334</v>
       </c>
@@ -4220,7 +4234,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>416</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>416</v>
       </c>
@@ -4260,8 +4274,28 @@
         <v>417</v>
       </c>
     </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E64"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
@@ -4282,7 +4316,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E71" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{8EC8DCAD-921C-41AC-8401-B5BBED6FB6AA}"/>
+    <hyperlink ref="E71" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="472">
   <si>
     <t>Category</t>
   </si>
@@ -1428,6 +1428,189 @@
   </si>
   <si>
     <t>Saipan Beach</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>z-kjpAVKvyo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.958621372903764, -90.06567923736655</t>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Orleans Street Livecam - Cat's Meow Karaoket Bar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, STREET, BAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.9586802229426, -90.06561961335794</t>
+  </si>
+  <si>
+    <t>New Orleans Street Livecam - Cat's Meow Karaoket Bar side street</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wovTJTNeXOY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQAUwQMcF1w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.876963417804596, -84.82273619952602</t>
+  </si>
+  <si>
+    <t>MI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snowman Cam - Gaylord</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, NATURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4TIpitPIsPA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.09099242443237, -115.1833256863575</t>
+  </si>
+  <si>
+    <t>Allegiant Stadium - Las Vegas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SPORTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.94255211730226, -74.06997138139903</t>
+  </si>
+  <si>
+    <t>FpkJ6hwJmic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seaside Heights Beach - New Jersey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH, STREET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.3975530767516, -104.5226255453168</t>
+  </si>
+  <si>
+    <t>Roswell Veterans Memorial Park</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>__S1lZ6t1qg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, PARK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.0843142839674, -94.58514321558341</t>
+  </si>
+  <si>
+    <t>MO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U6usVpMhbBQ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, PARK, MEUSIUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>National WWI Museum and Memorial - Union Station Kansas City</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.33130162149437, -105.66909519851339</t>
+  </si>
+  <si>
+    <t>Gqx4xRP45BE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.34552043835235, -6.264302600659704</t>
+  </si>
+  <si>
+    <t>u4UZ4UvZXrg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dublin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruidoso Street view LIVE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dublin Street view LIVE - THE TEMPLE BAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.878895017269215, -87.63591551535912</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE view from WILLIS TOWER - CHICAGO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, SEALINE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sQxL8t0gtu8</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2099,6 +2282,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2477,11 +2663,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4292,6 +4478,206 @@
       </c>
       <c r="F90" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B91" t="s">
+        <v>425</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B92" t="s">
+        <v>429</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B93" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" t="s">
+        <v>435</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B94" t="s">
+        <v>438</v>
+      </c>
+      <c r="C94" t="s">
+        <v>439</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B95" t="s">
+        <v>442</v>
+      </c>
+      <c r="C95" t="s">
+        <v>444</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B96" t="s">
+        <v>447</v>
+      </c>
+      <c r="C96" t="s">
+        <v>448</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B97" t="s">
+        <v>452</v>
+      </c>
+      <c r="C97" t="s">
+        <v>457</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>458</v>
+      </c>
+      <c r="C98" t="s">
+        <v>465</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B99" t="s">
+        <v>461</v>
+      </c>
+      <c r="C99" t="s">
+        <v>466</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" t="s">
+        <v>467</v>
+      </c>
+      <c r="C100" t="s">
+        <v>469</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="497">
   <si>
     <t>Category</t>
   </si>
@@ -1611,6 +1611,104 @@
   </si>
   <si>
     <t>sQxL8t0gtu8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niagara Falls LIVE cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3D3dEpR3bs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.07874367416282, -79.07640884559792</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, FALLS, NATURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.75329199050426, -86.19049486445296</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scottsville Main St. LIVE cam - Public Square</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ycgIh5VaT8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, INTERSECTION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.646257410562747, -81.87505644424542</t>
+  </si>
+  <si>
+    <t>LIVE view of Caloosahatchee Bridge - Fort Myers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gNCBhgGZgD4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, RIVER, BRIDGE, PARK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.917641551137145, 3.2080365553481216</t>
+  </si>
+  <si>
+    <t>Girona</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tamariu Beach LIVE VIEW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld87T3g_nyg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-22.9812765058252-43.1881488515289</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copacabana Beach</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwQyNMjsG3k</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2663,11 +2761,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4678,6 +4776,106 @@
       </c>
       <c r="F100" s="9" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B101" t="s">
+        <v>476</v>
+      </c>
+      <c r="C101" t="s">
+        <v>472</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B102" t="s">
+        <v>479</v>
+      </c>
+      <c r="C102" t="s">
+        <v>480</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B103" t="s">
+        <v>483</v>
+      </c>
+      <c r="C103" t="s">
+        <v>484</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104" t="s">
+        <v>488</v>
+      </c>
+      <c r="C104" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C105" t="s">
+        <v>494</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="526">
   <si>
     <t>Category</t>
   </si>
@@ -1552,10 +1552,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LIVE, PARK, MEUSIUM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>National WWI Museum and Memorial - Union Station Kansas City</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1709,6 +1705,120 @@
   </si>
   <si>
     <t>bwQyNMjsG3k</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.72010333058109, -73.99700690404272</t>
+  </si>
+  <si>
+    <t>LIVE, STREET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mullberry Street LIVE view - Manhattan Newyork</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJSdhfsrnMo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.71160616520376, -74.0130706069676</t>
+  </si>
+  <si>
+    <t>9/11 Memorial &amp; Museum - LIVE VIEW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, MUSEUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, PARK, MUSEUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yzit2MCJ9gw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.75580793169127, -73.97615436769227</t>
+  </si>
+  <si>
+    <t>TsgoxkRFit0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newyork Skyline view from SUMMIT One Vanderbilt - LIVE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BUILDING, CITY, SKYLINE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.01918705983887, -63.062785641607974</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little Bay Beach - LIVE VIEW - Philipsburg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FQEBUvzNGps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.776633974531883, 35.233856468787934</t>
+  </si>
+  <si>
+    <t>y4k2lXk1MBw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, RELIGIONAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Wall Plaza - LIVE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.21227622315983, -77.430270729006</t>
+  </si>
+  <si>
+    <t>NY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critter Cam LIVE - Webster city</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z7uhTakjbJI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, NATURE, ANIMALS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2761,19 +2871,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.125" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -4700,13 +4810,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="B97" t="s">
         <v>452</v>
       </c>
       <c r="C97" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>453</v>
@@ -4720,13 +4830,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B98" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>449</v>
@@ -4735,7 +4845,7 @@
         <v>454</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,139 +4853,259 @@
         <v>428</v>
       </c>
       <c r="B99" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" t="s">
+        <v>465</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="C99" t="s">
-        <v>466</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B100" t="s">
+        <v>466</v>
+      </c>
+      <c r="C100" t="s">
+        <v>468</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="C100" t="s">
-        <v>469</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>454</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B101" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C101" t="s">
+        <v>471</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B102" t="s">
+        <v>478</v>
+      </c>
+      <c r="C102" t="s">
         <v>479</v>
       </c>
-      <c r="C102" t="s">
-        <v>480</v>
-      </c>
       <c r="D102" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B103" t="s">
+        <v>482</v>
+      </c>
+      <c r="C103" t="s">
         <v>483</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B104" t="s">
+        <v>487</v>
+      </c>
+      <c r="C104" t="s">
+        <v>489</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="C104" t="s">
-        <v>490</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>247</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="C105" t="s">
         <v>493</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>180</v>
       </c>
       <c r="F105" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B106" t="s">
         <v>496</v>
+      </c>
+      <c r="C106" t="s">
+        <v>498</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B107" t="s">
+        <v>500</v>
+      </c>
+      <c r="C107" t="s">
+        <v>501</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B108" t="s">
+        <v>505</v>
+      </c>
+      <c r="C108" t="s">
+        <v>507</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>509</v>
+      </c>
+      <c r="C109" t="s">
+        <v>511</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B110" t="s">
+        <v>514</v>
+      </c>
+      <c r="C110" t="s">
+        <v>519</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B111" t="s">
+        <v>520</v>
+      </c>
+      <c r="C111" t="s">
+        <v>523</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1692,10 +1692,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-22.9812765058252-43.1881488515289</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Copacabana Beach</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1819,6 +1815,10 @@
   </si>
   <si>
     <t>LIVE, NATURE, ANIMALS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-22.9812765058252, -43.1881488515289</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2874,8 +2874,8 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B97" t="s">
         <v>452</v>
@@ -4973,30 +4973,30 @@
         <v>491</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C105" t="s">
         <v>492</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>180</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B106" t="s">
+        <v>495</v>
+      </c>
+      <c r="C106" t="s">
         <v>497</v>
-      </c>
-      <c r="B106" t="s">
-        <v>496</v>
-      </c>
-      <c r="C106" t="s">
-        <v>498</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>477</v>
@@ -5005,18 +5005,18 @@
         <v>50</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B107" t="s">
+        <v>499</v>
+      </c>
+      <c r="C107" t="s">
         <v>500</v>
-      </c>
-      <c r="C107" t="s">
-        <v>501</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>477</v>
@@ -5025,18 +5025,18 @@
         <v>50</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B108" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C108" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>477</v>
@@ -5045,67 +5045,67 @@
         <v>50</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B109" t="s">
+        <v>508</v>
+      </c>
+      <c r="C109" t="s">
         <v>510</v>
       </c>
-      <c r="B109" t="s">
-        <v>509</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>272</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B110" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" t="s">
         <v>518</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="C110" t="s">
-        <v>519</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B111" t="s">
+        <v>519</v>
+      </c>
+      <c r="C111" t="s">
+        <v>522</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F111" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\cam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8870A929-FF54-4D08-B677-04545E422182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$62</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="539">
   <si>
     <t>Category</t>
   </si>
@@ -554,21 +555,6 @@
     <t>Khumjung</t>
   </si>
   <si>
-    <t>qc6D_8ldCQs</t>
-  </si>
-  <si>
-    <t>Lukla</t>
-  </si>
-  <si>
-    <t>LUKLA AIRPORT LIVE FROM HIMALAYA LODGE</t>
-  </si>
-  <si>
-    <t>27.687254751592487, 86.73240885152107</t>
-  </si>
-  <si>
-    <t>LIVE, MOUNTAIN, AIRPORT</t>
-  </si>
-  <si>
     <t>0Aktv-_xUXs</t>
   </si>
   <si>
@@ -1037,9 +1023,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>vHiGKfOlQA</t>
-  </si>
-  <si>
     <t>35.660687297942914, 139.69913750342005</t>
   </si>
   <si>
@@ -1074,21 +1057,6 @@
     <t>ZCTdrUlC0zE</t>
   </si>
   <si>
-    <t>CjhDe-aAh1U</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>27.71491351026221, 85.2903884422623</t>
-  </si>
-  <si>
-    <t>LIVE, TEMPLE, NATURE</t>
-  </si>
-  <si>
-    <t>स्वयम्भू महाचैत्य (Swoyambhu Mahachaitya) VIEW LIVE</t>
-  </si>
-  <si>
     <t>I3EaBIN4bqA</t>
   </si>
   <si>
@@ -1820,20 +1788,92 @@
   <si>
     <t>-22.9812765058252, -43.1881488515289</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-vHiGKfOlQA</t>
+  </si>
+  <si>
+    <t>rnXIjl_Rzy4</t>
+  </si>
+  <si>
+    <t>40.75886529250297, -73.98500758067637</t>
+  </si>
+  <si>
+    <t>Times Square - George M. Cohan Statue LIVE view</t>
+  </si>
+  <si>
+    <t>LIVE, SQUARE, STATUE, TRAFFIC</t>
+  </si>
+  <si>
+    <t>BqQq4G1hHAk</t>
+  </si>
+  <si>
+    <t>41.78728488401285, -87.75224780427043</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Chicago Midway International Airport - LIVE view</t>
+  </si>
+  <si>
+    <t>B8R_VNo7WVo</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>57.04948892706981, -135.33219537348972</t>
+  </si>
+  <si>
+    <t>Sitka Historical Society &amp; Museum - LIVE VIEW</t>
+  </si>
+  <si>
+    <t>LIVE, MUSEUM, SEA</t>
+  </si>
+  <si>
+    <t>18.254048874829934, -78.36336069071048</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Negril</t>
+  </si>
+  <si>
+    <t>d_xXRgfgXMk</t>
+  </si>
+  <si>
+    <t>b5tSwIRhkAs</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>18.466346534347945, -64.52423952452831</t>
+  </si>
+  <si>
+    <t>Rick's Café - LIVE VIEW</t>
+  </si>
+  <si>
+    <t>Scrub Island Marina &amp; Fuel Station - LIVE VIEW</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, YACHT, BOAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1841,7 +1881,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1849,7 +1889,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1858,7 +1898,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1867,7 +1907,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1876,7 +1916,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1884,7 +1924,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1892,7 +1932,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1900,7 +1940,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1908,7 +1948,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1917,7 +1957,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1926,7 +1966,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1934,7 +1974,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1943,7 +1983,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1951,7 +1991,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1960,7 +2000,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1969,7 +2009,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1977,14 +2017,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1993,7 +2033,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2464,7 +2504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2477,7 +2517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2490,9 +2530,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2869,26 +2906,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.125" customWidth="1"/>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -2928,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2948,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2968,7 +3005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -2988,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -3008,7 +3045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -3028,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -3048,7 +3085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -3068,7 +3105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -3088,7 +3125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -3108,7 +3145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -3128,7 +3165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -3139,7 +3176,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>50</v>
@@ -3148,7 +3185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -3159,7 +3196,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>50</v>
@@ -3168,7 +3205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3179,7 +3216,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>50</v>
@@ -3188,7 +3225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -3199,7 +3236,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>50</v>
@@ -3208,7 +3245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3256,7 @@
         <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
@@ -3228,7 +3265,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -3239,7 +3276,7 @@
         <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>50</v>
@@ -3248,7 +3285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -3259,7 +3296,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>50</v>
@@ -3268,7 +3305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -3288,7 +3325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
@@ -3308,7 +3345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -3328,7 +3365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -3348,7 +3385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
@@ -3368,7 +3405,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>118</v>
       </c>
@@ -3388,7 +3425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -3408,7 +3445,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>130</v>
       </c>
@@ -3428,7 +3465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3448,7 +3485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
@@ -3468,7 +3505,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
         <v>136</v>
       </c>
@@ -3488,7 +3525,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
@@ -3508,7 +3545,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
         <v>136</v>
       </c>
@@ -3528,7 +3565,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
         <v>154</v>
       </c>
@@ -3548,7 +3585,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
         <v>160</v>
       </c>
@@ -3568,7 +3605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
@@ -3588,89 +3625,89 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="F37" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="B40" t="s">
         <v>187</v>
@@ -3679,38 +3716,38 @@
         <v>188</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="5" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F40" t="s">
+      <c r="B41" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>196</v>
@@ -3719,58 +3756,58 @@
         <v>197</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="5" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="B43" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="B45" t="s">
         <v>211</v>
@@ -3788,109 +3825,109 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
         <v>239</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
         <v>244</v>
@@ -3902,35 +3939,35 @@
         <v>246</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" t="s">
         <v>247</v>
       </c>
-      <c r="F51" t="s">
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="F52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>253</v>
@@ -3948,27 +3985,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F54" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
         <v>263</v>
       </c>
@@ -3982,273 +4019,273 @@
         <v>266</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" t="s">
-        <v>275</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="F57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
         <v>280</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="F58" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E60" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B60" t="s">
-        <v>291</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="F60" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="5" t="s">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" t="s">
         <v>293</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F60" t="s">
+      <c r="D61" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="D62" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="E62" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F62" t="s">
         <v>299</v>
       </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" t="s">
         <v>300</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F62" t="s">
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" t="s">
-        <v>302</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B64" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="F64" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" t="s">
         <v>316</v>
       </c>
-      <c r="B65" t="s">
-        <v>314</v>
-      </c>
-      <c r="C65" s="5" t="s">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F65" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B66" t="s">
-        <v>318</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="E67" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F67" t="s">
         <v>319</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F66" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="5" t="s">
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" t="s">
         <v>328</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="C68" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F68" t="s">
         <v>325</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F67" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B68" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F68" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
         <v>335</v>
       </c>
@@ -4256,881 +4293,941 @@
         <v>331</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>333</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F69" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>338</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F70" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B71" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B72" t="s">
-        <v>348</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F72" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
+        <v>353</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="F73" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>356</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="B75" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="E75" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F75" t="s">
         <v>362</v>
       </c>
-      <c r="F75" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B76" t="s">
         <v>369</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F76" t="s">
         <v>367</v>
       </c>
-      <c r="D76" s="5" t="s">
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F77" t="s">
         <v>375</v>
       </c>
-      <c r="E76" s="5" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F76" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B77" t="s">
-        <v>371</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="B78" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F78" t="s">
         <v>374</v>
       </c>
-      <c r="E77" s="5" t="s">
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F77" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="B79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F79" t="s">
         <v>381</v>
       </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F80" t="s">
         <v>380</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E78" s="5" t="s">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>383</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F81" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F79" t="s">
+      <c r="B82" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="D82" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" t="s">
         <v>387</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E80" s="5" t="s">
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F80" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
+        <v>391</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F83" t="s">
         <v>389</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F81" t="s">
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F84" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B85" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F82" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B83" t="s">
-        <v>394</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F83" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="F85" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F84" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="E86" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F86" t="s">
         <v>401</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F85" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87" t="s">
         <v>408</v>
       </c>
-      <c r="B86" t="s">
-        <v>405</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F86" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="E88" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F88" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" t="s">
         <v>414</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F87" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D89" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F89" t="s">
         <v>413</v>
       </c>
-      <c r="C88" s="5" t="s">
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" t="s">
+        <v>418</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F88" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B89" t="s">
-        <v>419</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="E90" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F90" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B91" t="s">
+        <v>422</v>
+      </c>
+      <c r="C91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F91" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B92" t="s">
+        <v>427</v>
+      </c>
+      <c r="C92" t="s">
+        <v>428</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F92" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B93" t="s">
+        <v>431</v>
+      </c>
+      <c r="C93" t="s">
+        <v>433</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F93" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B94" t="s">
+        <v>436</v>
+      </c>
+      <c r="C94" t="s">
+        <v>437</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F94" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B95" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95" t="s">
+        <v>445</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F95" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>453</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B90" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F90" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B91" t="s">
-        <v>425</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F91" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B92" t="s">
-        <v>429</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B93" t="s">
-        <v>433</v>
-      </c>
-      <c r="C93" t="s">
-        <v>435</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B94" t="s">
-        <v>438</v>
-      </c>
-      <c r="C94" t="s">
-        <v>439</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B95" t="s">
-        <v>442</v>
-      </c>
-      <c r="C95" t="s">
-        <v>444</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F95" s="9" t="s">
+      <c r="B97" t="s">
+        <v>449</v>
+      </c>
+      <c r="C97" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F97" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B98" t="s">
+        <v>455</v>
+      </c>
+      <c r="C98" t="s">
+        <v>457</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B96" t="s">
-        <v>447</v>
-      </c>
-      <c r="C96" t="s">
-        <v>448</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="B97" t="s">
-        <v>452</v>
-      </c>
-      <c r="C97" t="s">
-        <v>456</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+      <c r="F98" t="s">
         <v>459</v>
       </c>
-      <c r="B98" t="s">
-        <v>457</v>
-      </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B99" t="s">
         <v>464</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>460</v>
       </c>
-      <c r="C99" t="s">
-        <v>465</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>469</v>
+    <row r="100" spans="1:6">
+      <c r="A100" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C100" t="s">
         <v>468</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+      <c r="D100" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B101" t="s">
+        <v>471</v>
+      </c>
+      <c r="C101" t="s">
+        <v>472</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B102" t="s">
         <v>476</v>
       </c>
-      <c r="B101" t="s">
-        <v>475</v>
-      </c>
-      <c r="C101" t="s">
-        <v>471</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+      <c r="C102" t="s">
+        <v>478</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C103" t="s">
         <v>481</v>
       </c>
-      <c r="B102" t="s">
-        <v>478</v>
-      </c>
-      <c r="C102" t="s">
-        <v>479</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E102" s="8" t="s">
+      <c r="D103" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B104" t="s">
+        <v>484</v>
+      </c>
+      <c r="C104" t="s">
+        <v>486</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B103" t="s">
-        <v>482</v>
-      </c>
-      <c r="C103" t="s">
-        <v>483</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="E103" s="8" t="s">
+      <c r="F104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C105" t="s">
+        <v>489</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B104" t="s">
-        <v>487</v>
-      </c>
-      <c r="C104" t="s">
-        <v>489</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="F105" t="s">
         <v>492</v>
       </c>
-      <c r="D105" s="8" t="s">
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B106" t="s">
         <v>493</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F105" s="9" t="s">
+      <c r="C106" t="s">
+        <v>495</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B106" t="s">
-        <v>495</v>
-      </c>
-      <c r="C106" t="s">
+    <row r="107" spans="1:6">
+      <c r="A107" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B107" t="s">
         <v>497</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" t="s">
         <v>501</v>
       </c>
-      <c r="B107" t="s">
-        <v>499</v>
-      </c>
-      <c r="C107" t="s">
-        <v>500</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F107" s="9" t="s">
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B108" t="s">
+        <v>502</v>
+      </c>
+      <c r="C108" t="s">
+        <v>507</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F108" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B108" t="s">
-        <v>504</v>
-      </c>
-      <c r="C108" t="s">
-        <v>506</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>509</v>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="B109" t="s">
         <v>508</v>
       </c>
       <c r="C109" t="s">
+        <v>511</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B110" t="s">
         <v>517</v>
-      </c>
-      <c r="B110" t="s">
-        <v>513</v>
       </c>
       <c r="C110" t="s">
         <v>518</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" t="s">
         <v>516</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" t="s">
+        <v>521</v>
+      </c>
+      <c r="C111" t="s">
+        <v>523</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F111" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B112" t="s">
+        <v>526</v>
+      </c>
+      <c r="C112" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F112" t="s">
         <v>524</v>
       </c>
-      <c r="B111" t="s">
-        <v>519</v>
-      </c>
-      <c r="C111" t="s">
-        <v>522</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>523</v>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B113" t="s">
+        <v>529</v>
+      </c>
+      <c r="C113" t="s">
+        <v>536</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F113" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B114" t="s">
+        <v>535</v>
+      </c>
+      <c r="C114" t="s">
+        <v>537</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E64"/>
+  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F45 F48 F50:F63">
+  <conditionalFormatting sqref="F37:F44 F47 F49:F62">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F45">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F46">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F48">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F64">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E71" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607"/>
+    <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8870A929-FF54-4D08-B677-04545E422182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19A4F8-B68D-41CE-B9D4-C196915A2CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="559">
   <si>
     <t>Category</t>
   </si>
@@ -1859,7 +1859,67 @@
     <t>Scrub Island Marina &amp; Fuel Station - LIVE VIEW</t>
   </si>
   <si>
-    <t>LIVE, SEA, YACHT, BOAT</t>
+    <t>32.63442059363827, -16.94030289079917</t>
+  </si>
+  <si>
+    <t>MgMWOQIgIBY</t>
+  </si>
+  <si>
+    <t>Funchal</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Ponta Gorda Beach / Ponta Gorda Lido - Madeira Island LIVE</t>
+  </si>
+  <si>
+    <t>32.63553254138804, -16.93237230830321</t>
+  </si>
+  <si>
+    <t>P75AbPYu71s</t>
+  </si>
+  <si>
+    <t>Complexo Balnear do Lido - Madeira Island LIVE</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, SWIM</t>
+  </si>
+  <si>
+    <t>32.86792124316876, -17.163600340312662</t>
+  </si>
+  <si>
+    <t>MM5SHt0-yF0</t>
+  </si>
+  <si>
+    <t>Porto Moniz</t>
+  </si>
+  <si>
+    <t>Onda Solar Tours - Madeira Island LIVE</t>
+  </si>
+  <si>
+    <t>32.6476162160912, -16.910870158585727</t>
+  </si>
+  <si>
+    <t>Avenida Arriaga - Madeira Island LIVE</t>
+  </si>
+  <si>
+    <t>UeSDix8lFbQ</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, STREET</t>
+  </si>
+  <si>
+    <t>Marina do Funchal / CR7 Museum</t>
+  </si>
+  <si>
+    <t>DaeczsvWhxw</t>
+  </si>
+  <si>
+    <t>32.64556466408569, -16.910223384310072</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, YACHT, BOAT, MARINA</t>
   </si>
 </sst>
 </file>
@@ -2908,11 +2968,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5187,7 +5247,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s">
         <v>535</v>
@@ -5203,6 +5263,106 @@
       </c>
       <c r="F114" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B115" t="s">
+        <v>538</v>
+      </c>
+      <c r="C115" t="s">
+        <v>542</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F115" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B116" t="s">
+        <v>543</v>
+      </c>
+      <c r="C116" t="s">
+        <v>545</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F116" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B117" t="s">
+        <v>547</v>
+      </c>
+      <c r="C117" t="s">
+        <v>550</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F117" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B118" t="s">
+        <v>551</v>
+      </c>
+      <c r="C118" t="s">
+        <v>552</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F118" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B119" t="s">
+        <v>557</v>
+      </c>
+      <c r="C119" t="s">
+        <v>555</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F119" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19A4F8-B68D-41CE-B9D4-C196915A2CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6355E0-57A9-49E6-8964-183733CD0868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="564">
   <si>
     <t>Category</t>
   </si>
@@ -1910,9 +1910,6 @@
     <t>LIVE, TRAFFIC, STREET</t>
   </si>
   <si>
-    <t>Marina do Funchal / CR7 Museum</t>
-  </si>
-  <si>
     <t>DaeczsvWhxw</t>
   </si>
   <si>
@@ -1920,6 +1917,24 @@
   </si>
   <si>
     <t>LIVE, SEA, YACHT, BOAT, MARINA</t>
+  </si>
+  <si>
+    <t>g0DyhfvwrUA</t>
+  </si>
+  <si>
+    <t>Marina do Funchal / CR7 Museum - Madeira Island LIVE</t>
+  </si>
+  <si>
+    <t>Forum Machico - Madeira Island LIVE</t>
+  </si>
+  <si>
+    <t>Machico</t>
+  </si>
+  <si>
+    <t>32.716635066061805, -16.76524547209625</t>
+  </si>
+  <si>
+    <t>LIVE. PARK</t>
   </si>
 </sst>
 </file>
@@ -2968,11 +2983,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5247,7 +5262,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B114" t="s">
         <v>535</v>
@@ -5347,13 +5362,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B119" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C119" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>540</v>
@@ -5362,7 +5377,27 @@
         <v>541</v>
       </c>
       <c r="F119" t="s">
-        <v>556</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B120" t="s">
+        <v>562</v>
+      </c>
+      <c r="C120" t="s">
+        <v>560</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F120" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6355E0-57A9-49E6-8964-183733CD0868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$124</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="638">
   <si>
     <t>Category</t>
   </si>
@@ -34,15 +33,9 @@
     <t>q6L90G9Ae84</t>
   </si>
   <si>
-    <t>Namsan Tower Hannam UN Village</t>
-  </si>
-  <si>
     <t>dbrTAsxhdiE</t>
   </si>
   <si>
-    <t>Ban-po Bridge, Han river</t>
-  </si>
-  <si>
     <t>wkInKAoXN50</t>
   </si>
   <si>
@@ -52,9 +45,6 @@
     <t>aRmpaq9sbLA</t>
   </si>
   <si>
-    <t>Gangbyeonbuk-ro and Han River</t>
-  </si>
-  <si>
     <t>r4APQYCkVpE</t>
   </si>
   <si>
@@ -173,10 +163,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DDP (Dongdaemun Design Plaza)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Châtel SKI resort</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1935,20 +1921,315 @@
   </si>
   <si>
     <t>LIVE. PARK</t>
+  </si>
+  <si>
+    <t>LIVE, RIVER, BRIDGE, PARK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.537277403330826, 126.92503136628551</t>
+  </si>
+  <si>
+    <t>Seogang Bridge 서강대교 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIGEF4QMr7E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, LAKE, PARK, BUILDING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.51142180897414, 127.10514399078306</t>
+  </si>
+  <si>
+    <t>Seokchon Lake 석촌호수 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QI_Z3ZHMkLM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SPARE, SEA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.07675608471335, 129.56878978301873</t>
+  </si>
+  <si>
+    <t>Homigot Sunrise Square 호비곶광장 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pohang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eQ4xEwSdcO8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bAjFVgLZjmM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.51231698448427, 127.10281341642322</t>
+  </si>
+  <si>
+    <t>LotteWorld Tower 롯데타워 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ban-po Bridge 반포대교, Han river</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDP (Dongdaemun Design Plaza) 동대문 디자인 플라자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namsan Tower Hannam UN Village 남산, 유엔빌리지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangbyeonbuk-ro and Han River 강변북로와 한강</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_u5x8FOeF8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suwon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwanggyo Lake Park 광교호수공원 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.28043299421091, 127.06258379235464</t>
+  </si>
+  <si>
+    <t>SwJru2hGX-4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapo Bridge 마포대교 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.53836578127095, 126.93650784370082</t>
+  </si>
+  <si>
+    <t>LIVE, RIVER, TRAFFIC, BRIDGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.520539171189334, 127.09461847675665</t>
+  </si>
+  <si>
+    <t>UdQUQp116Bk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamsil Bridge 잠실대교 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl87UIF0VqI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.576574469458315, 126.97688607645433</t>
+  </si>
+  <si>
+    <t>Gyeongbokgung Palace 경복궁 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, PALACE, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J_BEFOWIU8w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul Station Square 서울역 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.5551012542144, 126.97191773221019</t>
+  </si>
+  <si>
+    <t>LIVE, SQUARE, STATION, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wFjCalcbs5I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Songjeong Beach 송정 해수욕장 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.178620920676195, 129.19941496639237</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pJR2CsAB2tA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwanghwamun Boulevard 광화문대로 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.570192411005756, 126.97712103546927</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, BUILDING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QhkAgZL3VKQ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotte World 롯데월드 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.508723569745506, 127.10016431867811</t>
+  </si>
+  <si>
+    <t>LIVE, AMUSEMENT PARK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.376194544033105, 127.38805783229225</t>
+  </si>
+  <si>
+    <t>YyuGNOS76VY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daejeon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expo Science Park Hanbit Square 대전 엑스포과학공원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, SQUARE, SCIENCE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.14886963959393, 129.12578366597413</t>
+  </si>
+  <si>
+    <t>67m7FWmZaqA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangandaegyo Bridge 광안대교 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BRIDGE, SEA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.1908702832177, 128.6035715566635</t>
+  </si>
+  <si>
+    <t>5RtlOqnSo-U</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sokcho</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sokcho Beach Ferris wheel, Gangwondo 속초해수욕장 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.79492310295925, 128.91937411058407</t>
+  </si>
+  <si>
+    <t>-6PH6Imvkak</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangneung</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangmoon Beach 강릉 강문해변 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BEACH, SEA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.497733434728346, 126.89339278575866</t>
+  </si>
+  <si>
+    <t>oMqQL0Xig8I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subway Line-2 Daelim Station 지하철 2호선 대림역</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, METRO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1956,7 +2237,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1964,7 +2245,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1973,7 +2254,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1982,7 +2263,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1991,7 +2272,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1999,7 +2280,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2007,7 +2288,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2015,7 +2296,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2023,7 +2304,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2032,7 +2313,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2041,7 +2322,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2049,7 +2330,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2058,7 +2339,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2066,7 +2347,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2075,7 +2356,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2084,7 +2365,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2092,14 +2373,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2108,7 +2389,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2579,7 +2860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2592,7 +2873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2605,6 +2886,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,7 +2936,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2981,2448 +3283,2791 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.125" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>580</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F72" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C76" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F76" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B77" t="s">
+        <v>368</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="B78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" t="s">
+        <v>374</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F79" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F80" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F81" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B84" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F85" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B86" t="s">
+        <v>398</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F86" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B87" t="s">
+        <v>404</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B88" t="s">
+        <v>405</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F88" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B89" t="s">
+        <v>410</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F89" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B90" t="s">
+        <v>414</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F90" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C91" t="s">
+        <v>420</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" t="s">
+        <v>423</v>
+      </c>
+      <c r="C92" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B93" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" t="s">
+        <v>429</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F93" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B94" t="s">
+        <v>432</v>
+      </c>
+      <c r="C94" t="s">
+        <v>433</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F94" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B95" t="s">
+        <v>437</v>
+      </c>
+      <c r="C95" t="s">
+        <v>441</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B96" t="s">
+        <v>442</v>
+      </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" t="s">
+        <v>450</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F97" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B98" t="s">
+        <v>451</v>
+      </c>
+      <c r="C98" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F98" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" t="s">
+        <v>456</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F99" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" t="s">
+        <v>463</v>
+      </c>
+      <c r="C100" t="s">
+        <v>464</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B101" t="s">
+        <v>467</v>
+      </c>
+      <c r="C101" t="s">
+        <v>468</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" t="s">
+        <v>472</v>
+      </c>
+      <c r="C102" t="s">
+        <v>474</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F102" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C103" t="s">
+        <v>477</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B104" t="s">
+        <v>480</v>
+      </c>
+      <c r="C104" t="s">
+        <v>482</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B105" t="s">
+        <v>484</v>
+      </c>
+      <c r="C105" t="s">
+        <v>485</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B106" t="s">
+        <v>489</v>
+      </c>
+      <c r="C106" t="s">
+        <v>491</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B107" t="s">
+        <v>493</v>
+      </c>
+      <c r="C107" t="s">
+        <v>495</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B108" t="s">
+        <v>498</v>
+      </c>
+      <c r="C108" t="s">
+        <v>503</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B109" t="s">
+        <v>504</v>
+      </c>
+      <c r="C109" t="s">
+        <v>507</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F109" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B110" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" t="s">
+        <v>514</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B111" t="s">
+        <v>517</v>
+      </c>
+      <c r="C111" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F111" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B112" t="s">
+        <v>522</v>
+      </c>
+      <c r="C112" t="s">
+        <v>523</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F112" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B113" t="s">
+        <v>525</v>
+      </c>
+      <c r="C113" t="s">
+        <v>532</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F113" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B114" t="s">
+        <v>531</v>
+      </c>
+      <c r="C114" t="s">
+        <v>533</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B55" t="s">
-        <v>264</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B56" t="s">
-        <v>270</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F56" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B59" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" t="s">
-        <v>290</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B61" t="s">
-        <v>293</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B62" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F62" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B63" t="s">
-        <v>303</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B64" t="s">
-        <v>307</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F64" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B65" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B66" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F66" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B67" t="s">
-        <v>320</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B68" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F68" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B69" t="s">
-        <v>331</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F69" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" t="s">
-        <v>337</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F70" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B71" t="s">
-        <v>341</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F71" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B72" t="s">
-        <v>344</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F72" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B73" t="s">
-        <v>353</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F73" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F74" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B75" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F75" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B76" t="s">
-        <v>369</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F76" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B77" t="s">
-        <v>372</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F77" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B78" t="s">
-        <v>376</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F78" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B79" t="s">
-        <v>378</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F79" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B80" t="s">
-        <v>382</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F80" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B81" t="s">
-        <v>383</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F81" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B82" t="s">
-        <v>388</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F82" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B83" t="s">
-        <v>391</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F83" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B84" t="s">
-        <v>394</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F84" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B85" t="s">
-        <v>400</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F85" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" t="s">
-        <v>402</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="F114" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B115" t="s">
+        <v>534</v>
+      </c>
+      <c r="C115" t="s">
+        <v>538</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F115" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B116" t="s">
+        <v>539</v>
+      </c>
+      <c r="C116" t="s">
+        <v>541</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F116" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B87" t="s">
-        <v>408</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B88" t="s">
-        <v>409</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F88" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B89" t="s">
-        <v>414</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F89" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B90" t="s">
-        <v>418</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F90" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B91" t="s">
-        <v>422</v>
-      </c>
-      <c r="C91" t="s">
-        <v>424</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F91" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B92" t="s">
-        <v>427</v>
-      </c>
-      <c r="C92" t="s">
-        <v>428</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F92" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B93" t="s">
-        <v>431</v>
-      </c>
-      <c r="C93" t="s">
-        <v>433</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F93" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B94" t="s">
-        <v>436</v>
-      </c>
-      <c r="C94" t="s">
-        <v>437</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F94" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B95" t="s">
-        <v>441</v>
-      </c>
-      <c r="C95" t="s">
-        <v>445</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F95" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B96" t="s">
-        <v>446</v>
-      </c>
-      <c r="C96" t="s">
-        <v>453</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F96" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B97" t="s">
-        <v>449</v>
-      </c>
-      <c r="C97" t="s">
-        <v>454</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="F97" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B98" t="s">
-        <v>455</v>
-      </c>
-      <c r="C98" t="s">
-        <v>457</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F98" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B99" t="s">
-        <v>464</v>
-      </c>
-      <c r="C99" t="s">
-        <v>460</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F99" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B100" t="s">
-        <v>467</v>
-      </c>
-      <c r="C100" t="s">
-        <v>468</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F100" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B101" t="s">
-        <v>471</v>
-      </c>
-      <c r="C101" t="s">
-        <v>472</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B102" t="s">
-        <v>476</v>
-      </c>
-      <c r="C102" t="s">
-        <v>478</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F102" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C103" t="s">
-        <v>481</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F103" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B104" t="s">
-        <v>484</v>
-      </c>
-      <c r="C104" t="s">
-        <v>486</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B105" t="s">
-        <v>488</v>
-      </c>
-      <c r="C105" t="s">
-        <v>489</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F105" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B106" t="s">
-        <v>493</v>
-      </c>
-      <c r="C106" t="s">
-        <v>495</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B107" t="s">
-        <v>497</v>
-      </c>
-      <c r="C107" t="s">
-        <v>499</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F107" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B108" t="s">
-        <v>502</v>
-      </c>
-      <c r="C108" t="s">
-        <v>507</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="F108" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B109" t="s">
-        <v>508</v>
-      </c>
-      <c r="C109" t="s">
-        <v>511</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="F109" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B110" t="s">
-        <v>517</v>
-      </c>
-      <c r="C110" t="s">
-        <v>518</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B111" t="s">
-        <v>521</v>
-      </c>
-      <c r="C111" t="s">
-        <v>523</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="F111" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="B112" t="s">
-        <v>526</v>
-      </c>
-      <c r="C112" t="s">
-        <v>527</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="F112" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B113" t="s">
-        <v>529</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B117" t="s">
+        <v>543</v>
+      </c>
+      <c r="C117" t="s">
+        <v>546</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F117" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B118" t="s">
+        <v>547</v>
+      </c>
+      <c r="C118" t="s">
+        <v>548</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="F113" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="8" t="s">
+      <c r="E118" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F118" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B119" t="s">
+        <v>552</v>
+      </c>
+      <c r="C119" t="s">
+        <v>555</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F119" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B120" t="s">
+        <v>558</v>
+      </c>
+      <c r="C120" t="s">
+        <v>556</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B114" t="s">
-        <v>535</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="E120" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F114" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B115" t="s">
-        <v>538</v>
-      </c>
-      <c r="C115" t="s">
-        <v>542</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F115" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B116" t="s">
-        <v>543</v>
-      </c>
-      <c r="C116" t="s">
-        <v>545</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F116" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B117" t="s">
-        <v>547</v>
-      </c>
-      <c r="C117" t="s">
-        <v>550</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F117" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="8" t="s">
+      <c r="F120" t="s">
         <v>554</v>
       </c>
-      <c r="B118" t="s">
-        <v>551</v>
-      </c>
-      <c r="C118" t="s">
-        <v>552</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F118" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B119" t="s">
-        <v>556</v>
-      </c>
-      <c r="C119" t="s">
-        <v>559</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F119" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="8" t="s">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B121" t="s">
+        <v>561</v>
+      </c>
+      <c r="C121" t="s">
+        <v>562</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B120" t="s">
-        <v>562</v>
-      </c>
-      <c r="C120" t="s">
-        <v>560</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="F120" t="s">
-        <v>558</v>
+      <c r="E121" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B122" t="s">
+        <v>567</v>
+      </c>
+      <c r="C122" t="s">
+        <v>568</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B123" t="s">
+        <v>571</v>
+      </c>
+      <c r="C123" t="s">
+        <v>572</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B124" t="s">
+        <v>577</v>
+      </c>
+      <c r="C124" t="s">
+        <v>578</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B125" t="s">
+        <v>586</v>
+      </c>
+      <c r="C125" t="s">
+        <v>585</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B126" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" t="s">
+        <v>588</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B127" t="s">
+        <v>591</v>
+      </c>
+      <c r="C127" t="s">
+        <v>593</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B128" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" t="s">
+        <v>596</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B129" t="s">
+        <v>600</v>
+      </c>
+      <c r="C129" t="s">
+        <v>599</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B130" t="s">
+        <v>605</v>
+      </c>
+      <c r="C130" t="s">
+        <v>604</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B131" t="s">
+        <v>609</v>
+      </c>
+      <c r="C131" t="s">
+        <v>608</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B132" t="s">
+        <v>613</v>
+      </c>
+      <c r="C132" t="s">
+        <v>612</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B133" t="s">
+        <v>615</v>
+      </c>
+      <c r="C133" t="s">
+        <v>618</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B134" t="s">
+        <v>620</v>
+      </c>
+      <c r="C134" t="s">
+        <v>623</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B135" t="s">
+        <v>625</v>
+      </c>
+      <c r="C135" t="s">
+        <v>628</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F135" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B136" t="s">
+        <v>629</v>
+      </c>
+      <c r="C136" t="s">
+        <v>632</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B137" t="s">
+        <v>634</v>
+      </c>
+      <c r="C137" t="s">
+        <v>636</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F137" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E124"/>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="F1:F120 F124:F1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F44 F47 F49:F62">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F46">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F48">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F121:F123">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="668">
   <si>
     <t>Category</t>
   </si>
@@ -2161,10 +2161,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Gwangandaegyo Bridge 광안대교 - Live cam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LIVE, BRIDGE, SEA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2215,6 +2211,124 @@
   </si>
   <si>
     <t>LIVE, TRAFFIC, METRO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfWN3Ps9A5Q</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangandaegyo Bridge 광안대교 1 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangandaegyo Bridge 광안대교 2 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.14468344523574, 129.12314344740332</t>
+  </si>
+  <si>
+    <t>B9qPf0uAJrU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.65432604662162, 127.06059579501661</t>
+  </si>
+  <si>
+    <t>Nowon Station Intersection 노원역 사거리 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, INTERSECTION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.63565577897776, 127.06018769531724</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fFXB0Pki7A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nowon Hancheon Bridge 노원 한내교 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BRIDGE, TRAFFIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.65544180636688, 127.07216055193798</t>
+  </si>
+  <si>
+    <t>PsfeTFJE230</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nowon Danghyun Stream 노원 당현천 - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, BRIDGE, STREAM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF1vS8DdBIk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sapporo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.05676414943596, 141.34578730378848</t>
+  </si>
+  <si>
+    <t>Tanukikoji 8-Chom - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, STREET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>asQvNZWyuq8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.02385446082937, 141.32235148961922</t>
+  </si>
+  <si>
+    <t>Mt. Moiwa - Liva cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVE, CITY, MOUNTAIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoa08FUE768</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeju</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All of Jeju beaches - Live cam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.377788795084925, 126.56378052416305</t>
+  </si>
+  <si>
+    <t>LIVE, BEACH, SEA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3285,11 +3399,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5964,13 +6078,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B134" t="s">
         <v>620</v>
       </c>
       <c r="C134" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>622</v>
@@ -5984,53 +6098,53 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B135" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C135" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>564</v>
       </c>
       <c r="F135" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B136" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C136" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>564</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B137" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C137" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>563</v>
@@ -6039,7 +6153,147 @@
         <v>564</v>
       </c>
       <c r="F137" t="s">
-        <v>635</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B138" t="s">
+        <v>640</v>
+      </c>
+      <c r="C138" t="s">
+        <v>639</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F138" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B139" t="s">
+        <v>642</v>
+      </c>
+      <c r="C139" t="s">
+        <v>643</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F139" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B140" t="s">
+        <v>645</v>
+      </c>
+      <c r="C140" t="s">
+        <v>647</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F140" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B141" t="s">
+        <v>649</v>
+      </c>
+      <c r="C141" t="s">
+        <v>651</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B142" t="s">
+        <v>656</v>
+      </c>
+      <c r="C142" t="s">
+        <v>657</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B143" t="s">
+        <v>660</v>
+      </c>
+      <c r="C143" t="s">
+        <v>661</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B144" t="s">
+        <v>666</v>
+      </c>
+      <c r="C144" t="s">
+        <v>665</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeonghoon.lee\Documents\새 폴더\cam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C185E-B76F-463B-BF04-73F155421814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$124</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="758">
   <si>
     <t>Category</t>
   </si>
@@ -2229,21 +2230,6 @@
     <t>35.14468344523574, 129.12314344740332</t>
   </si>
   <si>
-    <t>B9qPf0uAJrU</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.65432604662162, 127.06059579501661</t>
-  </si>
-  <si>
-    <t>Nowon Station Intersection 노원역 사거리 - Live cam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, TRAFFIC, INTERSECTION</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>37.63565577897776, 127.06018769531724</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2260,21 +2246,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>37.65544180636688, 127.07216055193798</t>
-  </si>
-  <si>
-    <t>PsfeTFJE230</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nowon Danghyun Stream 노원 당현천 - Live cam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE, BRIDGE, STREAM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>CF1vS8DdBIk</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2330,20 +2301,314 @@
   <si>
     <t>LIVE, BEACH, SEA</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MApnQlsX5AQ</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>64.18236549932894, -51.68440204607786</t>
+  </si>
+  <si>
+    <t>65.61231827563452, -37.618434115988435</t>
+  </si>
+  <si>
+    <t>Nuuk International Airport South</t>
+  </si>
+  <si>
+    <t>Tasiilaq Heliport</t>
+  </si>
+  <si>
+    <t>hfF9bhaBuvw</t>
+  </si>
+  <si>
+    <t>69.24061198844099, -51.066523082435126</t>
+  </si>
+  <si>
+    <t>Ilulissat Airport</t>
+  </si>
+  <si>
+    <t>Narsaq Heliport</t>
+  </si>
+  <si>
+    <t>60.91731432525771, -46.05999428643278</t>
+  </si>
+  <si>
+    <t>4YdNNvajwjI</t>
+  </si>
+  <si>
+    <t>H-pAdjY5MVY</t>
+  </si>
+  <si>
+    <t>KWJD89He7v0</t>
+  </si>
+  <si>
+    <t>Kangerlussuaq Airport</t>
+  </si>
+  <si>
+    <t>67.01653335367843, -50.69163815240553</t>
+  </si>
+  <si>
+    <t>Nuuk International Airport North</t>
+  </si>
+  <si>
+    <t>IZhDwv4dz0g</t>
+  </si>
+  <si>
+    <t>64.19147855845142, -51.67859893553718</t>
+  </si>
+  <si>
+    <t>AoBiMUrWuq8</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Hongkong</t>
+  </si>
+  <si>
+    <t>陪您休閒上班看風景 LIVE</t>
+  </si>
+  <si>
+    <t>22.285299807103396, 114.18469806889172</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, MARINA, BUILDING</t>
+  </si>
+  <si>
+    <t>ffUznsd-pxU</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>22.153103778937346, 113.55927117404595</t>
+  </si>
+  <si>
+    <t>氹仔龍環葡韻 Casas Esparteiro Garden</t>
+  </si>
+  <si>
+    <t>LIVE, GARDEN, BUILDING</t>
+  </si>
+  <si>
+    <t>ctYalRx7kY4</t>
+  </si>
+  <si>
+    <t>澳門議事亭前地 Senado Square</t>
+  </si>
+  <si>
+    <t>22.193669990086683, 113.53991362453246</t>
+  </si>
+  <si>
+    <t>LIVE, SQUARE</t>
+  </si>
+  <si>
+    <t>M_W3ppj-Umg</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Vatican Media Live</t>
+  </si>
+  <si>
+    <t>41.90219002805269, 12.456893626717477</t>
+  </si>
+  <si>
+    <t>LIVE, RELIGION</t>
+  </si>
+  <si>
+    <t>IhWWW2l-pP0</t>
+  </si>
+  <si>
+    <t>Sydny</t>
+  </si>
+  <si>
+    <t>-33.85607698703841, 151.21245174147808</t>
+  </si>
+  <si>
+    <t>Opera House and Sydney Harbour Bridge</t>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE, BRIDGE, BUILDING</t>
+  </si>
+  <si>
+    <t>Paq5n_Y30Hk</t>
+  </si>
+  <si>
+    <t>Sydney Harbour 180 degree panning view</t>
+  </si>
+  <si>
+    <t>-33.853632721726385, 151.21189552788124</t>
+  </si>
+  <si>
+    <t>l_8DrACHpwY</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>-37.822412794662675, 144.95971397593937</t>
+  </si>
+  <si>
+    <t>MELBOURNE Live from Platinum Apartments</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, SKYLINE, BUILDING</t>
+  </si>
+  <si>
+    <t>EabbsMllaIc</t>
+  </si>
+  <si>
+    <t>Townsville</t>
+  </si>
+  <si>
+    <t>-19.26185249581959, 146.83602881399682</t>
+  </si>
+  <si>
+    <t>Truck Queue at port</t>
+  </si>
+  <si>
+    <t>LIVE, TRUCK</t>
+  </si>
+  <si>
+    <t>Byxe6MlCnBw</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Wyndham Harbour Web Camera - Live View</t>
+  </si>
+  <si>
+    <t>-37.96657016267344, 144.70844322975475</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, MARINA</t>
+  </si>
+  <si>
+    <t>-37.14665666880422, 146.44688500378825</t>
+  </si>
+  <si>
+    <t>0OtVlfDj2w8</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN, SKI</t>
+  </si>
+  <si>
+    <t>YTswOT7V-M4</t>
+  </si>
+  <si>
+    <t>-37.14328562723716, 146.44551458175107</t>
+  </si>
+  <si>
+    <t>WMx2m-O6eug</t>
+  </si>
+  <si>
+    <t>Bourke Street Ski - Mount Buller</t>
+  </si>
+  <si>
+    <t>Shakey Knees Live - Mount Buller</t>
+  </si>
+  <si>
+    <t>Skyline Terrain Park Live - Mount Buller</t>
+  </si>
+  <si>
+    <t>-37.14469501530341, 146.42817675385666</t>
+  </si>
+  <si>
+    <t>ZwQgvfjzl70</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>14.475498754634637, -90.88062796135465</t>
+  </si>
+  <si>
+    <t>Crelosa Volcán De Fuego GT - VOLCANO</t>
+  </si>
+  <si>
+    <t>Alotenango</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN, VOLCANO</t>
+  </si>
+  <si>
+    <t>-24.861544953206646, 30.83589257873812</t>
+  </si>
+  <si>
+    <t>LIVE, FALLS, NATURE</t>
+  </si>
+  <si>
+    <t>Graskop</t>
+  </si>
+  <si>
+    <t>9viZIxuonrI</t>
+  </si>
+  <si>
+    <t>JltYXNvOMCg</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Swakopmund</t>
+  </si>
+  <si>
+    <t>Swakopmund Airport (FYSM) - Towards Runway 024</t>
+  </si>
+  <si>
+    <t>-22.65688196393816, 14.565184851070338</t>
+  </si>
+  <si>
+    <t>h7yL-ltAb_M</t>
+  </si>
+  <si>
+    <t>-22.578369008170572, 17.083213506885723</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Snyman Circle - Live stream</t>
+  </si>
+  <si>
+    <t>Lisbon Falls - Live stream</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, CIRCLE</t>
+  </si>
+  <si>
+    <t>-22.680764372608834, 14.519936479619732</t>
+  </si>
+  <si>
+    <t>xr2SpPeAMdg</t>
+  </si>
+  <si>
+    <t>Swakopmund Jetty - Live stream</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, JETTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
+    <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2351,7 +2616,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2359,7 +2624,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -2368,7 +2633,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2377,7 +2642,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2386,7 +2651,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2394,7 +2659,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2402,7 +2667,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2410,7 +2675,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2418,7 +2683,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2427,7 +2692,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2436,7 +2701,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2444,7 +2709,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2453,7 +2718,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2461,7 +2726,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2470,7 +2735,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2479,7 +2744,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2487,14 +2752,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2503,7 +2768,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2974,7 +3239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2987,7 +3252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -3000,9 +3265,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3397,26 +3659,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.125" customWidth="1"/>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -3456,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -3476,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3496,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3516,7 +3778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +3798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -3556,7 +3818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -3576,7 +3838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -3596,7 +3858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -3616,7 +3878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -3636,7 +3898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3656,7 +3918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -3676,7 +3938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -3696,7 +3958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3716,7 +3978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -3736,7 +3998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -3756,7 +4018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -3776,7 +4038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
@@ -3796,7 +4058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -3816,7 +4078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
@@ -3836,7 +4098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -3856,7 +4118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>102</v>
       </c>
@@ -3876,7 +4138,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -3896,7 +4158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -3916,7 +4178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>119</v>
       </c>
@@ -3936,7 +4198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>126</v>
       </c>
@@ -3956,7 +4218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>132</v>
       </c>
@@ -3976,7 +4238,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>137</v>
       </c>
@@ -3996,7 +4258,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -4016,7 +4278,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>132</v>
       </c>
@@ -4036,7 +4298,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
         <v>132</v>
       </c>
@@ -4056,7 +4318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
         <v>150</v>
       </c>
@@ -4076,7 +4338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
         <v>156</v>
       </c>
@@ -4096,7 +4358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>161</v>
       </c>
@@ -4116,7 +4378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
         <v>132</v>
       </c>
@@ -4136,7 +4398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>132</v>
       </c>
@@ -4156,7 +4418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
         <v>173</v>
       </c>
@@ -4176,7 +4438,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
         <v>177</v>
       </c>
@@ -4196,7 +4458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
         <v>132</v>
       </c>
@@ -4216,7 +4478,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
         <v>186</v>
       </c>
@@ -4236,7 +4498,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
         <v>186</v>
       </c>
@@ -4256,7 +4518,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
         <v>195</v>
       </c>
@@ -4276,7 +4538,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
         <v>201</v>
       </c>
@@ -4296,7 +4558,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
         <v>201</v>
       </c>
@@ -4316,7 +4578,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
         <v>212</v>
       </c>
@@ -4336,7 +4598,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
         <v>218</v>
       </c>
@@ -4356,7 +4618,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
         <v>224</v>
       </c>
@@ -4376,7 +4638,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>230</v>
       </c>
@@ -4396,7 +4658,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>173</v>
       </c>
@@ -4416,7 +4678,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>173</v>
       </c>
@@ -4436,7 +4698,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
         <v>173</v>
       </c>
@@ -4456,7 +4718,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -4476,7 +4738,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
         <v>254</v>
       </c>
@@ -4496,7 +4758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
         <v>259</v>
       </c>
@@ -4516,7 +4778,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
         <v>265</v>
       </c>
@@ -4536,7 +4798,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
         <v>271</v>
       </c>
@@ -4556,7 +4818,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
         <v>201</v>
       </c>
@@ -4576,7 +4838,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
         <v>281</v>
       </c>
@@ -4596,7 +4858,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
         <v>281</v>
       </c>
@@ -4616,7 +4878,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
         <v>281</v>
       </c>
@@ -4636,7 +4898,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
         <v>300</v>
       </c>
@@ -4656,7 +4918,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
         <v>301</v>
       </c>
@@ -4676,7 +4938,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
         <v>307</v>
       </c>
@@ -4696,7 +4958,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
         <v>173</v>
       </c>
@@ -4716,7 +4978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
         <v>319</v>
       </c>
@@ -4736,7 +4998,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
         <v>320</v>
       </c>
@@ -4756,7 +5018,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
         <v>325</v>
       </c>
@@ -4776,7 +5038,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
         <v>331</v>
       </c>
@@ -4796,7 +5058,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
         <v>336</v>
       </c>
@@ -4816,7 +5078,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
         <v>319</v>
       </c>
@@ -4836,7 +5098,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
         <v>344</v>
       </c>
@@ -4856,7 +5118,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
         <v>350</v>
       </c>
@@ -4876,7 +5138,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
         <v>354</v>
       </c>
@@ -4896,7 +5158,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
         <v>319</v>
       </c>
@@ -4916,7 +5178,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
         <v>366</v>
       </c>
@@ -4936,7 +5198,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
         <v>366</v>
       </c>
@@ -4956,7 +5218,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
         <v>366</v>
       </c>
@@ -4976,7 +5238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
         <v>366</v>
       </c>
@@ -4996,7 +5258,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
         <v>366</v>
       </c>
@@ -5016,7 +5278,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
         <v>366</v>
       </c>
@@ -5036,7 +5298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
         <v>366</v>
       </c>
@@ -5056,7 +5318,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
         <v>366</v>
       </c>
@@ -5076,7 +5338,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
         <v>393</v>
       </c>
@@ -5096,7 +5358,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="5" t="s">
         <v>319</v>
       </c>
@@ -5116,7 +5378,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
         <v>401</v>
       </c>
@@ -5136,7 +5398,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="5" t="s">
         <v>401</v>
       </c>
@@ -5156,7 +5418,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
         <v>319</v>
       </c>
@@ -5176,7 +5438,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="5" t="s">
         <v>413</v>
       </c>
@@ -5196,7 +5458,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
         <v>413</v>
       </c>
@@ -5216,7 +5478,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="5" t="s">
         <v>421</v>
       </c>
@@ -5236,7 +5498,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>426</v>
       </c>
@@ -5256,7 +5518,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="5" t="s">
         <v>431</v>
       </c>
@@ -5276,7 +5538,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="5" t="s">
         <v>436</v>
       </c>
@@ -5296,7 +5558,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
         <v>487</v>
       </c>
@@ -5316,7 +5578,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="5" t="s">
         <v>444</v>
       </c>
@@ -5336,7 +5598,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="5" t="s">
         <v>413</v>
       </c>
@@ -5356,7 +5618,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="5" t="s">
         <v>454</v>
       </c>
@@ -5376,7 +5638,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="5" t="s">
         <v>461</v>
       </c>
@@ -5396,7 +5658,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="5" t="s">
         <v>466</v>
       </c>
@@ -5416,7 +5678,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="5" t="s">
         <v>471</v>
       </c>
@@ -5436,7 +5698,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="5" t="s">
         <v>476</v>
       </c>
@@ -5456,7 +5718,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="5" t="s">
         <v>476</v>
       </c>
@@ -5476,7 +5738,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="5" t="s">
         <v>481</v>
       </c>
@@ -5496,7 +5758,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="5" t="s">
         <v>486</v>
       </c>
@@ -5516,7 +5778,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="5" t="s">
         <v>492</v>
       </c>
@@ -5536,7 +5798,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="5" t="s">
         <v>494</v>
       </c>
@@ -5556,7 +5818,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
         <v>502</v>
       </c>
@@ -5576,7 +5838,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
         <v>509</v>
       </c>
@@ -5596,8 +5858,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="5" t="s">
         <v>515</v>
       </c>
       <c r="B110" t="s">
@@ -5616,8 +5878,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
+    <row r="111" spans="1:6">
+      <c r="A111" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B111" t="s">
@@ -5626,18 +5888,18 @@
       <c r="C111" t="s">
         <v>519</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F111" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:6">
+      <c r="A112" s="5" t="s">
         <v>524</v>
       </c>
       <c r="B112" t="s">
@@ -5646,18 +5908,18 @@
       <c r="C112" t="s">
         <v>523</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F112" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:6">
+      <c r="A113" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B113" t="s">
@@ -5666,18 +5928,18 @@
       <c r="C113" t="s">
         <v>532</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="5" t="s">
         <v>526</v>
       </c>
       <c r="F113" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
+    <row r="114" spans="1:6">
+      <c r="A114" s="5" t="s">
         <v>553</v>
       </c>
       <c r="B114" t="s">
@@ -5686,18 +5948,18 @@
       <c r="C114" t="s">
         <v>533</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F114" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
+    <row r="115" spans="1:6">
+      <c r="A115" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B115" t="s">
@@ -5706,18 +5968,18 @@
       <c r="C115" t="s">
         <v>538</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="5" t="s">
         <v>537</v>
       </c>
       <c r="F115" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:6">
+      <c r="A116" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B116" t="s">
@@ -5726,18 +5988,18 @@
       <c r="C116" t="s">
         <v>541</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="5" t="s">
         <v>537</v>
       </c>
       <c r="F116" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+    <row r="117" spans="1:6">
+      <c r="A117" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B117" t="s">
@@ -5746,18 +6008,18 @@
       <c r="C117" t="s">
         <v>546</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="5" t="s">
         <v>537</v>
       </c>
       <c r="F117" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
+    <row r="118" spans="1:6">
+      <c r="A118" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B118" t="s">
@@ -5766,18 +6028,18 @@
       <c r="C118" t="s">
         <v>548</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="5" t="s">
         <v>537</v>
       </c>
       <c r="F118" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="1:6">
+      <c r="A119" s="5" t="s">
         <v>553</v>
       </c>
       <c r="B119" t="s">
@@ -5786,18 +6048,18 @@
       <c r="C119" t="s">
         <v>555</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="5" t="s">
         <v>537</v>
       </c>
       <c r="F119" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:6">
+      <c r="A120" s="5" t="s">
         <v>559</v>
       </c>
       <c r="B120" t="s">
@@ -5806,18 +6068,18 @@
       <c r="C120" t="s">
         <v>556</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="5" t="s">
         <v>537</v>
       </c>
       <c r="F120" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B121" t="s">
@@ -5826,18 +6088,18 @@
       <c r="C121" t="s">
         <v>562</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B122" t="s">
@@ -5846,18 +6108,18 @@
       <c r="C122" t="s">
         <v>568</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:6">
+      <c r="A123" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B123" t="s">
@@ -5866,18 +6128,18 @@
       <c r="C123" t="s">
         <v>572</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B124" t="s">
@@ -5886,18 +6148,18 @@
       <c r="C124" t="s">
         <v>578</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="1:6">
+      <c r="A125" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B125" t="s">
@@ -5906,18 +6168,18 @@
       <c r="C125" t="s">
         <v>585</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="5" t="s">
         <v>590</v>
       </c>
       <c r="B126" t="s">
@@ -5926,18 +6188,18 @@
       <c r="C126" t="s">
         <v>588</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" s="5" t="s">
         <v>590</v>
       </c>
       <c r="B127" t="s">
@@ -5946,18 +6208,18 @@
       <c r="C127" t="s">
         <v>593</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" s="5" t="s">
         <v>597</v>
       </c>
       <c r="B128" t="s">
@@ -5966,18 +6228,18 @@
       <c r="C128" t="s">
         <v>596</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="5" t="s">
         <v>601</v>
       </c>
       <c r="B129" t="s">
@@ -5986,18 +6248,18 @@
       <c r="C129" t="s">
         <v>599</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="5" t="s">
         <v>606</v>
       </c>
       <c r="B130" t="s">
@@ -6006,18 +6268,18 @@
       <c r="C130" t="s">
         <v>604</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
+    <row r="131" spans="1:6">
+      <c r="A131" s="5" t="s">
         <v>610</v>
       </c>
       <c r="B131" t="s">
@@ -6026,18 +6288,18 @@
       <c r="C131" t="s">
         <v>608</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+    <row r="132" spans="1:6">
+      <c r="A132" s="5" t="s">
         <v>614</v>
       </c>
       <c r="B132" t="s">
@@ -6046,18 +6308,18 @@
       <c r="C132" t="s">
         <v>612</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F132" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B133" t="s">
@@ -6066,18 +6328,18 @@
       <c r="C133" t="s">
         <v>618</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="8" t="s">
+    <row r="134" spans="1:6">
+      <c r="A134" s="5" t="s">
         <v>623</v>
       </c>
       <c r="B134" t="s">
@@ -6086,18 +6348,18 @@
       <c r="C134" t="s">
         <v>638</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
+    <row r="135" spans="1:6">
+      <c r="A135" s="5" t="s">
         <v>632</v>
       </c>
       <c r="B135" t="s">
@@ -6106,18 +6368,18 @@
       <c r="C135" t="s">
         <v>627</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="5" t="s">
         <v>564</v>
       </c>
       <c r="F135" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
+    <row r="136" spans="1:6">
+      <c r="A136" s="5" t="s">
         <v>632</v>
       </c>
       <c r="B136" t="s">
@@ -6126,18 +6388,18 @@
       <c r="C136" t="s">
         <v>631</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="5" t="s">
         <v>564</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
+    <row r="137" spans="1:6">
+      <c r="A137" s="5" t="s">
         <v>636</v>
       </c>
       <c r="B137" t="s">
@@ -6146,18 +6408,18 @@
       <c r="C137" t="s">
         <v>635</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="5" t="s">
         <v>564</v>
       </c>
       <c r="F137" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
+    <row r="138" spans="1:6">
+      <c r="A138" s="5" t="s">
         <v>623</v>
       </c>
       <c r="B138" t="s">
@@ -6166,138 +6428,555 @@
       <c r="C138" t="s">
         <v>639</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="5" t="s">
         <v>564</v>
       </c>
       <c r="F138" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
+    <row r="139" spans="1:6">
+      <c r="A139" s="5" t="s">
         <v>644</v>
       </c>
       <c r="B139" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C139" t="s">
         <v>643</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="5" t="s">
         <v>564</v>
       </c>
       <c r="F139" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B140" t="s">
         <v>648</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>649</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F140" t="s">
         <v>645</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B141" t="s">
+        <v>652</v>
+      </c>
+      <c r="C141" t="s">
+        <v>653</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E141" s="5" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B141" t="s">
-        <v>649</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="F141" t="s">
         <v>651</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B142" t="s">
         <v>658</v>
-      </c>
-      <c r="B142" t="s">
-        <v>656</v>
       </c>
       <c r="C142" t="s">
         <v>657</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F142" t="s">
         <v>655</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" t="s">
+        <v>663</v>
+      </c>
+      <c r="C143" t="s">
+        <v>665</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E143" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F143" t="s">
         <v>660</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" t="s">
+        <v>664</v>
+      </c>
+      <c r="C144" t="s">
+        <v>666</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E144" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+      <c r="F144" t="s">
         <v>667</v>
       </c>
-      <c r="B144" t="s">
-        <v>666</v>
-      </c>
-      <c r="C144" t="s">
-        <v>665</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>663</v>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" t="s">
+        <v>668</v>
+      </c>
+      <c r="C145" t="s">
+        <v>669</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F145" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" t="s">
+        <v>671</v>
+      </c>
+      <c r="C146" t="s">
+        <v>670</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F146" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>676</v>
+      </c>
+      <c r="C147" t="s">
+        <v>675</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F147" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148" t="s">
+        <v>679</v>
+      </c>
+      <c r="C148" t="s">
+        <v>677</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F148" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B149" t="s">
+        <v>684</v>
+      </c>
+      <c r="C149" t="s">
+        <v>683</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F149" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B150" t="s">
+        <v>688</v>
+      </c>
+      <c r="C150" t="s">
+        <v>689</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F150" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B151" t="s">
+        <v>693</v>
+      </c>
+      <c r="C151" t="s">
+        <v>692</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F151" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B152" t="s">
+        <v>698</v>
+      </c>
+      <c r="C152" t="s">
+        <v>697</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F152" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B153" t="s">
+        <v>702</v>
+      </c>
+      <c r="C153" t="s">
+        <v>703</v>
+      </c>
+      <c r="D153" t="s">
+        <v>701</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B154" t="s">
+        <v>707</v>
+      </c>
+      <c r="C154" t="s">
+        <v>706</v>
+      </c>
+      <c r="D154" t="s">
+        <v>701</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B155" t="s">
+        <v>710</v>
+      </c>
+      <c r="C155" t="s">
+        <v>711</v>
+      </c>
+      <c r="D155" t="s">
+        <v>709</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B156" t="s">
+        <v>715</v>
+      </c>
+      <c r="C156" t="s">
+        <v>716</v>
+      </c>
+      <c r="D156" t="s">
+        <v>714</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B157" t="s">
+        <v>721</v>
+      </c>
+      <c r="C157" t="s">
+        <v>720</v>
+      </c>
+      <c r="D157" t="s">
+        <v>719</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B158" t="s">
+        <v>723</v>
+      </c>
+      <c r="C158" t="s">
+        <v>729</v>
+      </c>
+      <c r="D158" t="s">
+        <v>719</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B159" t="s">
+        <v>727</v>
+      </c>
+      <c r="C159" t="s">
+        <v>730</v>
+      </c>
+      <c r="D159" t="s">
+        <v>719</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B160" t="s">
+        <v>732</v>
+      </c>
+      <c r="C160" t="s">
+        <v>731</v>
+      </c>
+      <c r="D160" t="s">
+        <v>719</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B161" t="s">
+        <v>735</v>
+      </c>
+      <c r="C161" t="s">
+        <v>736</v>
+      </c>
+      <c r="D161" t="s">
+        <v>737</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="F161" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B162" t="s">
+        <v>739</v>
+      </c>
+      <c r="C162" t="s">
+        <v>752</v>
+      </c>
+      <c r="D162" t="s">
+        <v>741</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F162" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B163" t="s">
+        <v>747</v>
+      </c>
+      <c r="C163" t="s">
+        <v>746</v>
+      </c>
+      <c r="D163" t="s">
+        <v>745</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F163" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B164" t="s">
+        <v>749</v>
+      </c>
+      <c r="C164" t="s">
+        <v>751</v>
+      </c>
+      <c r="D164" t="s">
+        <v>750</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F164" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B165" t="s">
+        <v>754</v>
+      </c>
+      <c r="C165" t="s">
+        <v>756</v>
+      </c>
+      <c r="D165" t="s">
+        <v>745</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F165" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E124"/>
+  <autoFilter ref="A1:E124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:F120 F124:F1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="3"/>
@@ -6321,7 +7000,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607"/>
+    <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C185E-B76F-463B-BF04-73F155421814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B51BD6-E0C0-4206-8E7F-C673B61EFD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="841">
   <si>
     <t>Category</t>
   </si>
@@ -2595,6 +2595,255 @@
   </si>
   <si>
     <t>LIVE, SEA, JETTY</t>
+  </si>
+  <si>
+    <t>emHRFQJ57ME</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>35.65949712432434, 139.7005525844087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【LIVE】渋谷・スクランブル交差点　ライブカメラ/Shibuya Scramble Crossing </t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>LIVE, INTERSECTION, TRAFFIC</t>
+  </si>
+  <si>
+    <t>c3L9OC7ffBc</t>
+  </si>
+  <si>
+    <t>35.66117279965592, 139.70078085481563</t>
+  </si>
+  <si>
+    <t>【LIVE】渋谷公園通り商店街大外ビル/Shibuya Koen Dori</t>
+  </si>
+  <si>
+    <t>Dgh9_TCj6po</t>
+  </si>
+  <si>
+    <t>35.66242879675234, 139.69926935502207</t>
+  </si>
+  <si>
+    <t>渋谷公園通り商店街WEBカメラANDS2/Shibuya PARCO</t>
+  </si>
+  <si>
+    <t>xRZxUgzE5Ig</t>
+  </si>
+  <si>
+    <t>35.699731617420824, 139.7713793818973</t>
+  </si>
+  <si>
+    <t>秋葉原ライブカメラ/Akihabara Electric Town</t>
+  </si>
+  <si>
+    <t>36.62424349315749, 138.58937348399286</t>
+  </si>
+  <si>
+    <t>「LIVECAMERA 」西の河原露天風呂入り口/Entrance to Sainokawara Open-Air Bath</t>
+  </si>
+  <si>
+    <t>Kusatsu</t>
+  </si>
+  <si>
+    <t>RJYYbPs8hjQ</t>
+  </si>
+  <si>
+    <t>LIVE, HOT SPRING, NATURE</t>
+  </si>
+  <si>
+    <t>36.623197461508084, 138.5969234257895</t>
+  </si>
+  <si>
+    <t>「LIVECAMERA」　草津温泉「湯畑」湯滝前/Kusatsu Onsen "Yubata" in front of the Yutaki waterfall</t>
+  </si>
+  <si>
+    <t>36.64282167494558, 138.5361732759843</t>
+  </si>
+  <si>
+    <t>HukImt03Im8</t>
+  </si>
+  <si>
+    <t>「LIVECAMERA 」草津温泉・白根山ライブカメラ（固定式）Kusatsu Onsen and Mt. Shirane</t>
+  </si>
+  <si>
+    <t>GrEEoEmmrKs</t>
+  </si>
+  <si>
+    <t>B_Sc1v1qR-g</t>
+  </si>
+  <si>
+    <t>36.62277982474277, 138.59665462086647</t>
+  </si>
+  <si>
+    <t>「LIVECAMERA」草津温泉「湯畑」/Kusatsu Onsen "Yubata"</t>
+  </si>
+  <si>
+    <t>iyn1BT5fKyw</t>
+  </si>
+  <si>
+    <t>42.91844984839073, 143.20141928071308</t>
+  </si>
+  <si>
+    <t>JR帯広駅ライブカメラ Live Camera in The JR Obihiro Station</t>
+  </si>
+  <si>
+    <t>Hokkaido</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, TRAIN</t>
+  </si>
+  <si>
+    <t>bt3MI1E6gmE</t>
+  </si>
+  <si>
+    <t>十勝大橋ライブカメラ Live Camera in Tokachi Big Bridge over the Tokachi river</t>
+  </si>
+  <si>
+    <t>42.93725541535633, 143.20201104761261</t>
+  </si>
+  <si>
+    <t>LIVE, BRIDGE, RIVER</t>
+  </si>
+  <si>
+    <t>D67XXD7Wj7M</t>
+  </si>
+  <si>
+    <t>とかち帯広空港ライブカメラ Live Camera in The Tokachi-Obihiro Airport</t>
+  </si>
+  <si>
+    <t>42.73249843320088, 143.213360001602</t>
+  </si>
+  <si>
+    <t>32.73882640745118, 129.8693793729916</t>
+  </si>
+  <si>
+    <t>長崎港ライブ/Nagasaki Port</t>
+  </si>
+  <si>
+    <t>W-rgkFv8azY</t>
+  </si>
+  <si>
+    <t>Nagasaki</t>
+  </si>
+  <si>
+    <t>LIVE, HARBOR</t>
+  </si>
+  <si>
+    <t>33.15316719244799, 129.7154454119257</t>
+  </si>
+  <si>
+    <t>佐世保港ライブ/Sasebo Port</t>
+  </si>
+  <si>
+    <t>tGaSspbB8wA</t>
+  </si>
+  <si>
+    <t>Q6xrfvPbYkk</t>
+  </si>
+  <si>
+    <t>長崎空港/Nagasaki Airport</t>
+  </si>
+  <si>
+    <t>32.91370711818897, 129.9213746967208</t>
+  </si>
+  <si>
+    <t>kmo17mb5LvI</t>
+  </si>
+  <si>
+    <t>35.65836972966938, 139.75876910863505</t>
+  </si>
+  <si>
+    <t>Tokyo Live Camera Ch1 [4K] Shiodome Rail Tracks</t>
+  </si>
+  <si>
+    <t>1gEVm66RjeY</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>京都 駅ビル大階段 イルミネーション/Kyoto Station Building Grand Staircase Illumination</t>
+  </si>
+  <si>
+    <t>34.98580870952155, 135.75754706633035</t>
+  </si>
+  <si>
+    <t>LIVE, STAIR</t>
+  </si>
+  <si>
+    <t>27XT7ILGPFU</t>
+  </si>
+  <si>
+    <t>Yokohama</t>
+  </si>
+  <si>
+    <t>ライブカメラ　みなとみらい、ベイブリッジ、横浜港：Yokohama Port Live Camera</t>
+  </si>
+  <si>
+    <t>35.45886324968412, 139.6401975671723</t>
+  </si>
+  <si>
+    <t>成田空港ライブカメラ　A滑走路(南側）＠朝日新聞成田支局 LIVE at Narita International airport</t>
+  </si>
+  <si>
+    <t>jWCdG6mTTkk</t>
+  </si>
+  <si>
+    <t>35.75876593408112, 140.38515935443235</t>
+  </si>
+  <si>
+    <t>35.7700753349848, 140.38592840816702</t>
+  </si>
+  <si>
+    <t>NARITA AIRPORT (さくらの山) からライブ配信中</t>
+  </si>
+  <si>
+    <t>6_Eg6eHc1-Y</t>
+  </si>
+  <si>
+    <t>34.79034992139876, 135.4347122086171</t>
+  </si>
+  <si>
+    <t>大阪空港ライブカメラ裏/Behind the live camera at Osaka Airport(ITM)</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>MPVW-vMigkI</t>
+  </si>
+  <si>
+    <t>K_FOP7_wGPE</t>
+  </si>
+  <si>
+    <t>The Windmill Bar - St. John, USVI</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>18.343834024719616, -64.77252232398253</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, ISLAND</t>
+  </si>
+  <si>
+    <t>Baobab Cam | Lamai | Koh Samui | Thailand | Live Beach Webcam</t>
+  </si>
+  <si>
+    <t>8gLq1Ss0PQM</t>
+  </si>
+  <si>
+    <t>9.45762182298826, 100.04246080987035</t>
+  </si>
+  <si>
+    <t>Koh Samui</t>
   </si>
 </sst>
 </file>
@@ -3661,18 +3910,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -6519,7 +6768,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B143" t="s">
@@ -6528,10 +6777,10 @@
       <c r="C143" t="s">
         <v>665</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="5" t="s">
         <v>661</v>
       </c>
       <c r="F143" t="s">
@@ -6539,7 +6788,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B144" t="s">
@@ -6548,10 +6797,10 @@
       <c r="C144" t="s">
         <v>666</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="5" t="s">
         <v>661</v>
       </c>
       <c r="F144" t="s">
@@ -6559,7 +6808,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B145" t="s">
@@ -6568,10 +6817,10 @@
       <c r="C145" t="s">
         <v>669</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="5" t="s">
         <v>661</v>
       </c>
       <c r="F145" t="s">
@@ -6579,7 +6828,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B146" t="s">
@@ -6588,10 +6837,10 @@
       <c r="C146" t="s">
         <v>670</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="5" t="s">
         <v>661</v>
       </c>
       <c r="F146" t="s">
@@ -6599,7 +6848,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B147" t="s">
@@ -6608,10 +6857,10 @@
       <c r="C147" t="s">
         <v>675</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="5" t="s">
         <v>661</v>
       </c>
       <c r="F147" t="s">
@@ -6619,7 +6868,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B148" t="s">
@@ -6628,10 +6877,10 @@
       <c r="C148" t="s">
         <v>677</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="5" t="s">
         <v>661</v>
       </c>
       <c r="F148" t="s">
@@ -6639,7 +6888,7 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="5" t="s">
         <v>685</v>
       </c>
       <c r="B149" t="s">
@@ -6648,10 +6897,10 @@
       <c r="C149" t="s">
         <v>683</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="5" t="s">
         <v>681</v>
       </c>
       <c r="F149" t="s">
@@ -6659,7 +6908,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="5" t="s">
         <v>690</v>
       </c>
       <c r="B150" t="s">
@@ -6668,10 +6917,10 @@
       <c r="C150" t="s">
         <v>689</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="5" t="s">
         <v>681</v>
       </c>
       <c r="F150" t="s">
@@ -6679,7 +6928,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="5" t="s">
         <v>694</v>
       </c>
       <c r="B151" t="s">
@@ -6688,10 +6937,10 @@
       <c r="C151" t="s">
         <v>692</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="5" t="s">
         <v>681</v>
       </c>
       <c r="F151" t="s">
@@ -6699,7 +6948,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="5" t="s">
         <v>699</v>
       </c>
       <c r="B152" t="s">
@@ -6708,7 +6957,7 @@
       <c r="C152" t="s">
         <v>697</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="5" t="s">
         <v>696</v>
       </c>
       <c r="F152" t="s">
@@ -6716,7 +6965,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="5" t="s">
         <v>704</v>
       </c>
       <c r="B153" t="s">
@@ -6728,7 +6977,7 @@
       <c r="D153" t="s">
         <v>701</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
@@ -6736,7 +6985,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="5" t="s">
         <v>704</v>
       </c>
       <c r="B154" t="s">
@@ -6748,7 +6997,7 @@
       <c r="D154" t="s">
         <v>701</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
@@ -6756,7 +7005,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="5" t="s">
         <v>712</v>
       </c>
       <c r="B155" t="s">
@@ -6768,7 +7017,7 @@
       <c r="D155" t="s">
         <v>709</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
@@ -6776,7 +7025,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="5" t="s">
         <v>717</v>
       </c>
       <c r="B156" t="s">
@@ -6788,7 +7037,7 @@
       <c r="D156" t="s">
         <v>714</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
@@ -6796,7 +7045,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="5" t="s">
         <v>722</v>
       </c>
       <c r="B157" t="s">
@@ -6808,7 +7057,7 @@
       <c r="D157" t="s">
         <v>719</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F157" t="s">
@@ -6816,7 +7065,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="5" t="s">
         <v>725</v>
       </c>
       <c r="B158" t="s">
@@ -6828,7 +7077,7 @@
       <c r="D158" t="s">
         <v>719</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
@@ -6836,7 +7085,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="5" t="s">
         <v>725</v>
       </c>
       <c r="B159" t="s">
@@ -6848,7 +7097,7 @@
       <c r="D159" t="s">
         <v>719</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
@@ -6856,7 +7105,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="5" t="s">
         <v>725</v>
       </c>
       <c r="B160" t="s">
@@ -6868,7 +7117,7 @@
       <c r="D160" t="s">
         <v>719</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F160" t="s">
@@ -6876,7 +7125,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="5" t="s">
         <v>738</v>
       </c>
       <c r="B161" t="s">
@@ -6888,7 +7137,7 @@
       <c r="D161" t="s">
         <v>737</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="5" t="s">
         <v>734</v>
       </c>
       <c r="F161" t="s">
@@ -6896,7 +7145,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="5" t="s">
         <v>740</v>
       </c>
       <c r="B162" t="s">
@@ -6908,7 +7157,7 @@
       <c r="D162" t="s">
         <v>741</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="5" t="s">
         <v>153</v>
       </c>
       <c r="F162" t="s">
@@ -6916,7 +7165,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B163" t="s">
@@ -6928,7 +7177,7 @@
       <c r="D163" t="s">
         <v>745</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="5" t="s">
         <v>744</v>
       </c>
       <c r="F163" t="s">
@@ -6936,7 +7185,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="5" t="s">
         <v>753</v>
       </c>
       <c r="B164" t="s">
@@ -6948,7 +7197,7 @@
       <c r="D164" t="s">
         <v>750</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="5" t="s">
         <v>744</v>
       </c>
       <c r="F164" t="s">
@@ -6956,7 +7205,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="5" t="s">
         <v>757</v>
       </c>
       <c r="B165" t="s">
@@ -6968,11 +7217,451 @@
       <c r="D165" t="s">
         <v>745</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="5" t="s">
         <v>744</v>
       </c>
       <c r="F165" t="s">
         <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B166" t="s">
+        <v>760</v>
+      </c>
+      <c r="C166" t="s">
+        <v>761</v>
+      </c>
+      <c r="D166" t="s">
+        <v>762</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F166" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B167" t="s">
+        <v>765</v>
+      </c>
+      <c r="C167" t="s">
+        <v>766</v>
+      </c>
+      <c r="D167" t="s">
+        <v>762</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F167" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B168" t="s">
+        <v>768</v>
+      </c>
+      <c r="C168" t="s">
+        <v>769</v>
+      </c>
+      <c r="D168" t="s">
+        <v>762</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F168" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B169" t="s">
+        <v>771</v>
+      </c>
+      <c r="C169" t="s">
+        <v>772</v>
+      </c>
+      <c r="D169" t="s">
+        <v>762</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F169" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B170" t="s">
+        <v>773</v>
+      </c>
+      <c r="C170" t="s">
+        <v>774</v>
+      </c>
+      <c r="D170" t="s">
+        <v>775</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F170" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B171" t="s">
+        <v>778</v>
+      </c>
+      <c r="C171" t="s">
+        <v>779</v>
+      </c>
+      <c r="D171" t="s">
+        <v>775</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F171" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B172" t="s">
+        <v>780</v>
+      </c>
+      <c r="C172" t="s">
+        <v>782</v>
+      </c>
+      <c r="D172" t="s">
+        <v>775</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F172" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B173" t="s">
+        <v>785</v>
+      </c>
+      <c r="C173" t="s">
+        <v>786</v>
+      </c>
+      <c r="D173" t="s">
+        <v>775</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F173" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B174" t="s">
+        <v>788</v>
+      </c>
+      <c r="C174" t="s">
+        <v>789</v>
+      </c>
+      <c r="D174" t="s">
+        <v>790</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F174" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B175" t="s">
+        <v>794</v>
+      </c>
+      <c r="C175" t="s">
+        <v>793</v>
+      </c>
+      <c r="D175" t="s">
+        <v>790</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F175" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" t="s">
+        <v>798</v>
+      </c>
+      <c r="C176" t="s">
+        <v>797</v>
+      </c>
+      <c r="D176" t="s">
+        <v>790</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F176" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B177" t="s">
+        <v>799</v>
+      </c>
+      <c r="C177" t="s">
+        <v>800</v>
+      </c>
+      <c r="D177" t="s">
+        <v>802</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F177" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B178" t="s">
+        <v>804</v>
+      </c>
+      <c r="C178" t="s">
+        <v>805</v>
+      </c>
+      <c r="D178" t="s">
+        <v>802</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F178" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B179" t="s">
+        <v>809</v>
+      </c>
+      <c r="C179" t="s">
+        <v>808</v>
+      </c>
+      <c r="D179" t="s">
+        <v>802</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F179" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B180" t="s">
+        <v>811</v>
+      </c>
+      <c r="C180" t="s">
+        <v>812</v>
+      </c>
+      <c r="D180" t="s">
+        <v>762</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F180" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B181" t="s">
+        <v>816</v>
+      </c>
+      <c r="C181" t="s">
+        <v>815</v>
+      </c>
+      <c r="D181" t="s">
+        <v>814</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F181" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B182" t="s">
+        <v>821</v>
+      </c>
+      <c r="C182" t="s">
+        <v>820</v>
+      </c>
+      <c r="D182" t="s">
+        <v>819</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F182" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B183" t="s">
+        <v>824</v>
+      </c>
+      <c r="C183" t="s">
+        <v>822</v>
+      </c>
+      <c r="D183" t="s">
+        <v>762</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F183" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" t="s">
+        <v>825</v>
+      </c>
+      <c r="C184" t="s">
+        <v>826</v>
+      </c>
+      <c r="D184" t="s">
+        <v>762</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F184" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B185" t="s">
+        <v>828</v>
+      </c>
+      <c r="C185" t="s">
+        <v>829</v>
+      </c>
+      <c r="D185" t="s">
+        <v>830</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F185" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B186" t="s">
+        <v>835</v>
+      </c>
+      <c r="C186" t="s">
+        <v>833</v>
+      </c>
+      <c r="D186" t="s">
+        <v>834</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F186" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" t="s">
+        <v>839</v>
+      </c>
+      <c r="C187" t="s">
+        <v>837</v>
+      </c>
+      <c r="D187" t="s">
+        <v>840</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F187" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B51BD6-E0C0-4206-8E7F-C673B61EFD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC1FF8-246C-4CDC-98D2-32A0B96DA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="855">
   <si>
     <t>Category</t>
   </si>
@@ -2844,6 +2844,48 @@
   </si>
   <si>
     <t>Koh Samui</t>
+  </si>
+  <si>
+    <t>mhJRzQsLZGg</t>
+  </si>
+  <si>
+    <t>Boca Chica</t>
+  </si>
+  <si>
+    <t>25.997965027972935, -97.15362067921285</t>
+  </si>
+  <si>
+    <t>Starbase Live: 24/7 Starship &amp; Super Heavy Development From SpaceX's Boca Chica Facility</t>
+  </si>
+  <si>
+    <t>McGregor Live: 24/7 SpaceX Engine Testing &amp; Development for Starship and Falcon 9 Rockets</t>
+  </si>
+  <si>
+    <t>25.998218131364812, -97.15473455872889</t>
+  </si>
+  <si>
+    <t>cOmmvhDQ2HM</t>
+  </si>
+  <si>
+    <t>Jm8wRjD3xVA</t>
+  </si>
+  <si>
+    <t>28.41183571965191, -80.62266083670346</t>
+  </si>
+  <si>
+    <t>Space Coast Live: 24/7 Views of NASA, SpaceX Falcon 9 Operations, and Starship Pad Construction</t>
+  </si>
+  <si>
+    <t>LIVE, STARSHIP, SpaceX, NASA</t>
+  </si>
+  <si>
+    <t>E1uVzfQG_Yo</t>
+  </si>
+  <si>
+    <t>28.60846957364487, -80.60139205363203</t>
+  </si>
+  <si>
+    <t>Launch Pad Live: Falcon 9 pad views / SpaceX Starship 24-7, Kennedy Space Center</t>
   </si>
 </sst>
 </file>
@@ -3910,11 +3952,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D188" sqref="D188"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7225,7 +7267,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="5" t="s">
         <v>763</v>
       </c>
       <c r="B166" t="s">
@@ -7237,7 +7279,7 @@
       <c r="D166" t="s">
         <v>762</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E166" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F166" t="s">
@@ -7245,7 +7287,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="5" t="s">
         <v>763</v>
       </c>
       <c r="B167" t="s">
@@ -7257,7 +7299,7 @@
       <c r="D167" t="s">
         <v>762</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F167" t="s">
@@ -7265,7 +7307,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="5" t="s">
         <v>763</v>
       </c>
       <c r="B168" t="s">
@@ -7277,7 +7319,7 @@
       <c r="D168" t="s">
         <v>762</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F168" t="s">
@@ -7285,7 +7327,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="5" t="s">
         <v>763</v>
       </c>
       <c r="B169" t="s">
@@ -7297,7 +7339,7 @@
       <c r="D169" t="s">
         <v>762</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F169" t="s">
@@ -7305,7 +7347,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="5" t="s">
         <v>777</v>
       </c>
       <c r="B170" t="s">
@@ -7317,7 +7359,7 @@
       <c r="D170" t="s">
         <v>775</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F170" t="s">
@@ -7325,7 +7367,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="5" t="s">
         <v>777</v>
       </c>
       <c r="B171" t="s">
@@ -7337,7 +7379,7 @@
       <c r="D171" t="s">
         <v>775</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F171" t="s">
@@ -7345,7 +7387,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="5" t="s">
         <v>777</v>
       </c>
       <c r="B172" t="s">
@@ -7357,7 +7399,7 @@
       <c r="D172" t="s">
         <v>775</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F172" t="s">
@@ -7365,7 +7407,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="5" t="s">
         <v>777</v>
       </c>
       <c r="B173" t="s">
@@ -7377,7 +7419,7 @@
       <c r="D173" t="s">
         <v>775</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F173" t="s">
@@ -7385,7 +7427,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="5" t="s">
         <v>791</v>
       </c>
       <c r="B174" t="s">
@@ -7397,7 +7439,7 @@
       <c r="D174" t="s">
         <v>790</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F174" t="s">
@@ -7405,7 +7447,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="5" t="s">
         <v>795</v>
       </c>
       <c r="B175" t="s">
@@ -7417,7 +7459,7 @@
       <c r="D175" t="s">
         <v>790</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F175" t="s">
@@ -7425,7 +7467,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B176" t="s">
@@ -7437,7 +7479,7 @@
       <c r="D176" t="s">
         <v>790</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F176" t="s">
@@ -7445,7 +7487,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="5" t="s">
         <v>803</v>
       </c>
       <c r="B177" t="s">
@@ -7457,7 +7499,7 @@
       <c r="D177" t="s">
         <v>802</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F177" t="s">
@@ -7465,7 +7507,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="5" t="s">
         <v>803</v>
       </c>
       <c r="B178" t="s">
@@ -7477,7 +7519,7 @@
       <c r="D178" t="s">
         <v>802</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F178" t="s">
@@ -7485,7 +7527,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B179" t="s">
@@ -7497,7 +7539,7 @@
       <c r="D179" t="s">
         <v>802</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F179" t="s">
@@ -7505,7 +7547,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="5" t="s">
         <v>791</v>
       </c>
       <c r="B180" t="s">
@@ -7517,7 +7559,7 @@
       <c r="D180" t="s">
         <v>762</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F180" t="s">
@@ -7525,7 +7567,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="5" t="s">
         <v>817</v>
       </c>
       <c r="B181" t="s">
@@ -7537,7 +7579,7 @@
       <c r="D181" t="s">
         <v>814</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F181" t="s">
@@ -7545,7 +7587,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="5" t="s">
         <v>803</v>
       </c>
       <c r="B182" t="s">
@@ -7557,7 +7599,7 @@
       <c r="D182" t="s">
         <v>819</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F182" t="s">
@@ -7565,7 +7607,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B183" t="s">
@@ -7577,7 +7619,7 @@
       <c r="D183" t="s">
         <v>762</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E183" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F183" t="s">
@@ -7585,7 +7627,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B184" t="s">
@@ -7597,7 +7639,7 @@
       <c r="D184" t="s">
         <v>762</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F184" t="s">
@@ -7605,7 +7647,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B185" t="s">
@@ -7617,7 +7659,7 @@
       <c r="D185" t="s">
         <v>830</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="E185" s="5" t="s">
         <v>759</v>
       </c>
       <c r="F185" t="s">
@@ -7625,7 +7667,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="5" t="s">
         <v>836</v>
       </c>
       <c r="B186" t="s">
@@ -7637,7 +7679,7 @@
       <c r="D186" t="s">
         <v>834</v>
       </c>
-      <c r="E186" s="8" t="s">
+      <c r="E186" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F186" t="s">
@@ -7645,7 +7687,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="5" t="s">
         <v>319</v>
       </c>
       <c r="B187" t="s">
@@ -7657,11 +7699,91 @@
       <c r="D187" t="s">
         <v>840</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F187" t="s">
         <v>838</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B188" t="s">
+        <v>843</v>
+      </c>
+      <c r="C188" t="s">
+        <v>844</v>
+      </c>
+      <c r="D188" t="s">
+        <v>842</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F188" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B189" t="s">
+        <v>846</v>
+      </c>
+      <c r="C189" t="s">
+        <v>845</v>
+      </c>
+      <c r="D189" t="s">
+        <v>842</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F189" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B190" t="s">
+        <v>849</v>
+      </c>
+      <c r="C190" t="s">
+        <v>850</v>
+      </c>
+      <c r="D190" t="s">
+        <v>842</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F190" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B191" t="s">
+        <v>853</v>
+      </c>
+      <c r="C191" t="s">
+        <v>854</v>
+      </c>
+      <c r="D191" t="s">
+        <v>360</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F191" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC1FF8-246C-4CDC-98D2-32A0B96DA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1D09A5-15EB-4352-9DCC-F02EF61EC492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="925">
   <si>
     <t>Category</t>
   </si>
@@ -2886,6 +2886,216 @@
   </si>
   <si>
     <t>Launch Pad Live: Falcon 9 pad views / SpaceX Starship 24-7, Kennedy Space Center</t>
+  </si>
+  <si>
+    <t>a_ll9NvZqaY</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>46.72217218093049, 14.180624878438088</t>
+  </si>
+  <si>
+    <t>Wetterpanorama Kärnten / Weather panorama Carinthia</t>
+  </si>
+  <si>
+    <t>Kärnten</t>
+  </si>
+  <si>
+    <t>LIVE, LANDSCAPE</t>
+  </si>
+  <si>
+    <t>xAQN-uKmE_0</t>
+  </si>
+  <si>
+    <t>32.75316856373114, 129.8690204781683</t>
+  </si>
+  <si>
+    <t>R長崎駅カメラ【LIVE】 / JR Nagasaki Station Camera</t>
+  </si>
+  <si>
+    <t>LIVE, TRAIN, STATION, BUILDING</t>
+  </si>
+  <si>
+    <t>32.741675599994934, 129.86411451305247</t>
+  </si>
+  <si>
+    <t>鍋冠山カメラ【LIVE】 / Nabekanmuriyama Camera</t>
+  </si>
+  <si>
+    <t>ECA5G89gogI</t>
+  </si>
+  <si>
+    <t>LIVE, HARBOR, PORT</t>
+  </si>
+  <si>
+    <t>32.746052468384676, 129.87577342260127</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, BRIDET</t>
+  </si>
+  <si>
+    <t>市役所カメラ【LIVE】 / NAGASAKI CITY VIEW</t>
+  </si>
+  <si>
+    <t>ZoETGE0w5w8</t>
+  </si>
+  <si>
+    <t>🌎 LIVE Yellowstone National Park | Old Faithful</t>
+  </si>
+  <si>
+    <t>SGO66WWTanQ</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>44.46048692972605, -110.82813910528331</t>
+  </si>
+  <si>
+    <t>LIVE, VOLCANO, HOT SPRING</t>
+  </si>
+  <si>
+    <t>QIt1FaDMnQc</t>
+  </si>
+  <si>
+    <t>Lucerne</t>
+  </si>
+  <si>
+    <t>Luzern live CAM</t>
+  </si>
+  <si>
+    <t>47.051499600492896, 8.30266802668369</t>
+  </si>
+  <si>
+    <t>LIVE, RIVER, BRIDGE, CITY</t>
+  </si>
+  <si>
+    <t>XIk9VlNGIg8</t>
+  </si>
+  <si>
+    <t>Grimentz Live Cam (HD)</t>
+  </si>
+  <si>
+    <t>46.17893103261997, 7.573244180408993</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN, NATURE</t>
+  </si>
+  <si>
+    <t>kHwmzef842g</t>
+  </si>
+  <si>
+    <t>Grimentz</t>
+  </si>
+  <si>
+    <t>47.379872326830956, 8.532459098128962</t>
+  </si>
+  <si>
+    <t>LIVE, RAIL, TRAIN, BUILDING</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Webcam train station Zürich</t>
+  </si>
+  <si>
+    <t>yDKJMdZTEXQ</t>
+  </si>
+  <si>
+    <t>46.09605518577692, 7.229078459079019</t>
+  </si>
+  <si>
+    <t>VERBIER | PLACE CENTRALE 📍</t>
+  </si>
+  <si>
+    <t>Verbier</t>
+  </si>
+  <si>
+    <t>LIVE, CHALET</t>
+  </si>
+  <si>
+    <t>ALZU0HGq-1c</t>
+  </si>
+  <si>
+    <t>46.47228020985505, 9.810151136776417</t>
+  </si>
+  <si>
+    <t>Live WebCam from Hotel Suvretta House</t>
+  </si>
+  <si>
+    <t>St. Moritz</t>
+  </si>
+  <si>
+    <t>Live Rhine Falls - Rheinfall Europes biggest waterfall</t>
+  </si>
+  <si>
+    <t>OzcnK2BVlGE</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN, LAKE, NATURE</t>
+  </si>
+  <si>
+    <t>47.67837453483181, 8.613829146613362</t>
+  </si>
+  <si>
+    <t>y3sMI1HtZfE</t>
+  </si>
+  <si>
+    <t>Schaffhausen</t>
+  </si>
+  <si>
+    <t>46.521213542443725, 6.6364395965959595</t>
+  </si>
+  <si>
+    <t>Lausanne, pont Bessières / Bessieres bridge</t>
+  </si>
+  <si>
+    <t>Bessières</t>
+  </si>
+  <si>
+    <t>LIVE, BRIDGE, CITY, TRAFFIC</t>
+  </si>
+  <si>
+    <t>V_p-xihG6IQ</t>
+  </si>
+  <si>
+    <t>46.0923362298973, 7.064761740762495</t>
+  </si>
+  <si>
+    <t>Martigny Bourg Valais webcam live</t>
+  </si>
+  <si>
+    <t>LIVE, CITY</t>
+  </si>
+  <si>
+    <t>Webcam Martigny</t>
+  </si>
+  <si>
+    <t>46.1010143715387, 7.072489894901283</t>
+  </si>
+  <si>
+    <t>Martigny</t>
+  </si>
+  <si>
+    <t>5GnrYc4ztEM</t>
+  </si>
+  <si>
+    <t>A view of the port of Bouveret, Valais, Switzerland. 360° camera</t>
+  </si>
+  <si>
+    <t>DmIi1aHfRiU</t>
+  </si>
+  <si>
+    <t>46.38624992044367, 6.85423513943598</t>
+  </si>
+  <si>
+    <t>LIVE, MARINA</t>
+  </si>
+  <si>
+    <t>Bouveret</t>
   </si>
 </sst>
 </file>
@@ -3952,11 +4162,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7707,7 +7917,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="5" t="s">
         <v>851</v>
       </c>
       <c r="B188" t="s">
@@ -7727,7 +7937,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="5" t="s">
         <v>851</v>
       </c>
       <c r="B189" t="s">
@@ -7747,7 +7957,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="5" t="s">
         <v>851</v>
       </c>
       <c r="B190" t="s">
@@ -7767,7 +7977,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="5" t="s">
         <v>851</v>
       </c>
       <c r="B191" t="s">
@@ -7784,6 +7994,306 @@
       </c>
       <c r="F191" t="s">
         <v>852</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="B192" t="s">
+        <v>857</v>
+      </c>
+      <c r="C192" t="s">
+        <v>858</v>
+      </c>
+      <c r="D192" t="s">
+        <v>859</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F192" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B193" t="s">
+        <v>862</v>
+      </c>
+      <c r="C193" t="s">
+        <v>863</v>
+      </c>
+      <c r="D193" t="s">
+        <v>802</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F193" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="B194" t="s">
+        <v>865</v>
+      </c>
+      <c r="C194" t="s">
+        <v>866</v>
+      </c>
+      <c r="D194" t="s">
+        <v>802</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F194" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="B195" t="s">
+        <v>869</v>
+      </c>
+      <c r="C195" t="s">
+        <v>871</v>
+      </c>
+      <c r="D195" t="s">
+        <v>802</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F195" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B196" t="s">
+        <v>876</v>
+      </c>
+      <c r="C196" t="s">
+        <v>873</v>
+      </c>
+      <c r="D196" t="s">
+        <v>875</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F196" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="B197" t="s">
+        <v>881</v>
+      </c>
+      <c r="C197" t="s">
+        <v>880</v>
+      </c>
+      <c r="D197" t="s">
+        <v>879</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F197" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B198" t="s">
+        <v>885</v>
+      </c>
+      <c r="C198" t="s">
+        <v>884</v>
+      </c>
+      <c r="D198" t="s">
+        <v>888</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F198" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B199" t="s">
+        <v>889</v>
+      </c>
+      <c r="C199" t="s">
+        <v>892</v>
+      </c>
+      <c r="D199" t="s">
+        <v>891</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F199" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B200" t="s">
+        <v>894</v>
+      </c>
+      <c r="C200" t="s">
+        <v>895</v>
+      </c>
+      <c r="D200" t="s">
+        <v>896</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F200" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B201" t="s">
+        <v>899</v>
+      </c>
+      <c r="C201" t="s">
+        <v>900</v>
+      </c>
+      <c r="D201" t="s">
+        <v>901</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F201" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B202" t="s">
+        <v>905</v>
+      </c>
+      <c r="C202" t="s">
+        <v>902</v>
+      </c>
+      <c r="D202" t="s">
+        <v>907</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F202" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B203" t="s">
+        <v>908</v>
+      </c>
+      <c r="C203" t="s">
+        <v>909</v>
+      </c>
+      <c r="D203" t="s">
+        <v>910</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F203" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B204" t="s">
+        <v>913</v>
+      </c>
+      <c r="C204" t="s">
+        <v>914</v>
+      </c>
+      <c r="D204" t="s">
+        <v>918</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F204" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B205" t="s">
+        <v>917</v>
+      </c>
+      <c r="C205" t="s">
+        <v>916</v>
+      </c>
+      <c r="D205" t="s">
+        <v>918</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F205" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B206" t="s">
+        <v>922</v>
+      </c>
+      <c r="C206" t="s">
+        <v>920</v>
+      </c>
+      <c r="D206" t="s">
+        <v>924</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F206" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1D09A5-15EB-4352-9DCC-F02EF61EC492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B1FB2-609A-4B1D-8474-AC6C8A95D6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <t>Port Départemental de la Santé</t>
   </si>
   <si>
-    <t>ckOgbO4T078</t>
-  </si>
-  <si>
-    <t>Notre Dame de Paris</t>
-  </si>
-  <si>
     <t>pOL0u6K4wLI</t>
   </si>
   <si>
@@ -152,10 +146,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LIVE, RIVER, CHURCH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LIVE, NATURE, CAMPING</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -302,9 +292,6 @@
     <t>43.703236, 7.312729</t>
   </si>
   <si>
-    <t>48.851854, 2.350839</t>
-  </si>
-  <si>
     <t>47.6173845, 2.5246807</t>
   </si>
   <si>
@@ -3096,6 +3083,18 @@
   </si>
   <si>
     <t>Bouveret</t>
+  </si>
+  <si>
+    <t>bQwalAKrfWE</t>
+  </si>
+  <si>
+    <t>Webcam Palais d’Iéna - Conseil Économique, Social et Environnemental - Vue Tour Eiffel / Eiffel Tower</t>
+  </si>
+  <si>
+    <t>48.86339645220547, 2.2920690441628913</t>
+  </si>
+  <si>
+    <t>LIVE, LANDMARK</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3763,9 +3762,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4165,8 +4161,8 @@
   <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4184,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -4201,19 +4197,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -4221,19 +4217,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -4241,19 +4237,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
@@ -4261,19 +4257,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>6</v>
@@ -4281,19 +4277,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>7</v>
@@ -4301,16 +4297,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -4321,16 +4317,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -4341,19 +4337,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
@@ -4361,3939 +4357,3939 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>924</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>923</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>922</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
         <v>168</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>178</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" t="s">
         <v>181</v>
-      </c>
-      <c r="F40" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>196</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" t="s">
         <v>230</v>
-      </c>
-      <c r="B49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" t="s">
         <v>235</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F51" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" t="s">
         <v>244</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F52" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" t="s">
         <v>249</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F53" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" t="s">
         <v>254</v>
-      </c>
-      <c r="B54" t="s">
-        <v>255</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F54" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B55" t="s">
+      <c r="F55" t="s">
         <v>260</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>266</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F56" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" t="s">
         <v>271</v>
-      </c>
-      <c r="B57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F57" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F58" t="s">
         <v>276</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F58" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B59" t="s">
-        <v>282</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B60" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="F60" t="s">
         <v>284</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F60" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B61" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="F61" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F69" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F73" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F74" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F75" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" t="s">
         <v>359</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F76" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F77" t="s">
         <v>367</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F77" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F78" t="s">
         <v>366</v>
-      </c>
-      <c r="B78" t="s">
-        <v>372</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F78" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B79" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F79" t="s">
         <v>373</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F79" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F81" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F82" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F83" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F84" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B85" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F85" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B86" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F86" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B87" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F88" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B89" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B90" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F90" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B91" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C91" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F91" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C92" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F92" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F93" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C94" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F94" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B95" t="s">
+        <v>433</v>
+      </c>
+      <c r="C95" t="s">
         <v>437</v>
       </c>
-      <c r="C95" t="s">
-        <v>441</v>
-      </c>
       <c r="D95" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F95" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B96" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E96" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F96" t="s">
         <v>439</v>
-      </c>
-      <c r="F96" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C97" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F97" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s">
+        <v>447</v>
+      </c>
+      <c r="C98" t="s">
+        <v>449</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F98" t="s">
         <v>451</v>
-      </c>
-      <c r="C98" t="s">
-        <v>453</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F98" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B99" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C99" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F99" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B100" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C100" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B101" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B102" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C102" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F102" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C103" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F103" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B104" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C104" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B105" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" t="s">
+        <v>481</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
         <v>484</v>
-      </c>
-      <c r="C105" t="s">
-        <v>485</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B106" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C106" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B107" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" t="s">
+        <v>491</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" t="s">
         <v>493</v>
-      </c>
-      <c r="C107" t="s">
-        <v>495</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F107" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B108" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C108" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F108" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B109" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" t="s">
+        <v>503</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F109" t="s">
         <v>504</v>
-      </c>
-      <c r="C109" t="s">
-        <v>507</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F109" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B110" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C110" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B111" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C111" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F111" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B112" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C112" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F112" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B113" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C113" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F113" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B114" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F114" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B115" t="s">
+        <v>530</v>
+      </c>
+      <c r="C115" t="s">
         <v>534</v>
       </c>
-      <c r="C115" t="s">
-        <v>538</v>
-      </c>
       <c r="D115" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F115" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B116" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C116" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D116" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F116" t="s">
         <v>536</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F116" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B117" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C117" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F117" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B118" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C118" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F118" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B119" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C119" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F119" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B120" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C120" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F120" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B121" t="s">
+        <v>557</v>
+      </c>
+      <c r="C121" t="s">
+        <v>558</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B121" t="s">
+      <c r="F121" t="s">
         <v>561</v>
-      </c>
-      <c r="C121" t="s">
-        <v>562</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="F121" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B122" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C122" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F122" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B123" t="s">
+        <v>567</v>
+      </c>
+      <c r="C123" t="s">
+        <v>568</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B123" t="s">
+      <c r="F123" t="s">
         <v>571</v>
-      </c>
-      <c r="C123" t="s">
-        <v>572</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="F123" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B124" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C124" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F124" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B125" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C125" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F125" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B126" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C126" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F126" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B127" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C127" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F127" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B128" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C128" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F128" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B129" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C129" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F129" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B130" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C130" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F130" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B131" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C131" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F131" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B132" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C132" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F132" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B133" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C133" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F133" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B134" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C134" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F134" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B135" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C135" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F135" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B136" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C136" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B137" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C137" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F137" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B138" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C138" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F138" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B139" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C139" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F139" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B140" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C140" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F140" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B141" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C141" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D141" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F141" t="s">
         <v>647</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="F141" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B142" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C142" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F142" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C143" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F143" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C144" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F144" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B145" t="s">
+        <v>664</v>
+      </c>
+      <c r="C145" t="s">
+        <v>665</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F145" t="s">
         <v>668</v>
-      </c>
-      <c r="C145" t="s">
-        <v>669</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="F145" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B146" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C146" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F146" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B147" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C147" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F147" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C148" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F148" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B149" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C149" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F149" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B150" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C150" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F150" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B151" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C151" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D151" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F151" t="s">
         <v>687</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="F151" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B152" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C152" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F152" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B153" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C153" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D153" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B154" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C154" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D154" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B155" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C155" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D155" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B156" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C156" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D156" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B157" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C157" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D157" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B158" t="s">
+        <v>719</v>
+      </c>
+      <c r="C158" t="s">
         <v>725</v>
       </c>
-      <c r="B158" t="s">
-        <v>723</v>
-      </c>
-      <c r="C158" t="s">
-        <v>729</v>
-      </c>
       <c r="D158" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B159" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C159" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D159" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B160" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D160" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F160" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B161" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C161" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D161" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F161" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="5" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B162" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C162" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D162" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F162" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B163" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C163" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D163" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F163" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B164" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C164" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D164" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F164" t="s">
         <v>744</v>
-      </c>
-      <c r="F164" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B165" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C165" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D165" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F165" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B166" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C166" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D166" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F166" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B167" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C167" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D167" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F167" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B168" t="s">
+        <v>764</v>
+      </c>
+      <c r="C168" t="s">
+        <v>765</v>
+      </c>
+      <c r="D168" t="s">
+        <v>758</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F168" t="s">
         <v>763</v>
-      </c>
-      <c r="B168" t="s">
-        <v>768</v>
-      </c>
-      <c r="C168" t="s">
-        <v>769</v>
-      </c>
-      <c r="D168" t="s">
-        <v>762</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F168" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B169" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C169" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D169" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F169" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B170" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C170" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D170" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F170" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B171" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C171" t="s">
+        <v>775</v>
+      </c>
+      <c r="D171" t="s">
+        <v>771</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F171" t="s">
         <v>779</v>
-      </c>
-      <c r="D171" t="s">
-        <v>775</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F171" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B172" t="s">
+        <v>776</v>
+      </c>
+      <c r="C172" t="s">
+        <v>778</v>
+      </c>
+      <c r="D172" t="s">
+        <v>771</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F172" t="s">
         <v>777</v>
-      </c>
-      <c r="B172" t="s">
-        <v>780</v>
-      </c>
-      <c r="C172" t="s">
-        <v>782</v>
-      </c>
-      <c r="D172" t="s">
-        <v>775</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F172" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B173" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C173" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D173" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F173" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B174" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C174" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D174" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F174" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B175" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C175" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D175" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F175" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B176" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C176" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D176" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F176" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B177" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C177" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D177" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F177" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B178" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C178" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D178" t="s">
+        <v>798</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F178" t="s">
         <v>802</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F178" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C179" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D179" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F179" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B180" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C180" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D180" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F180" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B181" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C181" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D181" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F181" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B182" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C182" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D182" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F182" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B183" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C183" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D183" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F183" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B184" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C184" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D184" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F184" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B185" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C185" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D185" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F185" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B186" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C186" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D186" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B187" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C187" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D187" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F187" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B188" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C188" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D188" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B189" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C189" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D189" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B190" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C190" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D190" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B191" t="s">
+        <v>849</v>
+      </c>
+      <c r="C191" t="s">
+        <v>850</v>
+      </c>
+      <c r="D191" t="s">
+        <v>356</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F191" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B192" t="s">
+        <v>853</v>
+      </c>
+      <c r="C192" t="s">
+        <v>854</v>
+      </c>
+      <c r="D192" t="s">
+        <v>855</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F192" t="s">
         <v>851</v>
       </c>
-      <c r="B191" t="s">
-        <v>853</v>
-      </c>
-      <c r="C191" t="s">
-        <v>854</v>
-      </c>
-      <c r="D191" t="s">
-        <v>360</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F191" t="s">
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B193" t="s">
+        <v>858</v>
+      </c>
+      <c r="C193" t="s">
+        <v>859</v>
+      </c>
+      <c r="D193" t="s">
+        <v>798</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F193" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B194" t="s">
+        <v>861</v>
+      </c>
+      <c r="C194" t="s">
+        <v>862</v>
+      </c>
+      <c r="D194" t="s">
+        <v>798</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F194" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B195" t="s">
+        <v>865</v>
+      </c>
+      <c r="C195" t="s">
+        <v>867</v>
+      </c>
+      <c r="D195" t="s">
+        <v>798</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F195" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B196" t="s">
+        <v>872</v>
+      </c>
+      <c r="C196" t="s">
+        <v>869</v>
+      </c>
+      <c r="D196" t="s">
+        <v>871</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F196" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B197" t="s">
+        <v>877</v>
+      </c>
+      <c r="C197" t="s">
+        <v>876</v>
+      </c>
+      <c r="D197" t="s">
+        <v>875</v>
+      </c>
+      <c r="E197" s="5" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="B192" t="s">
-        <v>857</v>
-      </c>
-      <c r="C192" t="s">
-        <v>858</v>
-      </c>
-      <c r="D192" t="s">
-        <v>859</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F192" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="B193" t="s">
-        <v>862</v>
-      </c>
-      <c r="C193" t="s">
-        <v>863</v>
-      </c>
-      <c r="D193" t="s">
-        <v>802</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F193" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="B194" t="s">
-        <v>865</v>
-      </c>
-      <c r="C194" t="s">
-        <v>866</v>
-      </c>
-      <c r="D194" t="s">
-        <v>802</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F194" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="B195" t="s">
-        <v>869</v>
-      </c>
-      <c r="C195" t="s">
-        <v>871</v>
-      </c>
-      <c r="D195" t="s">
-        <v>802</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F195" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="B196" t="s">
-        <v>876</v>
-      </c>
-      <c r="C196" t="s">
-        <v>873</v>
-      </c>
-      <c r="D196" t="s">
-        <v>875</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="F197" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="8" t="s">
+    <row r="198" spans="1:6">
+      <c r="A198" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>881</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>880</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
+        <v>884</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F198" t="s">
         <v>879</v>
       </c>
-      <c r="E197" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F197" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="8" t="s">
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>885</v>
       </c>
-      <c r="C198" t="s">
-        <v>884</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="C199" t="s">
         <v>888</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="D199" t="s">
+        <v>887</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F199" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="8" t="s">
+    <row r="200" spans="1:6">
+      <c r="A200" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B200" t="s">
         <v>890</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C200" t="s">
+        <v>891</v>
+      </c>
+      <c r="D200" t="s">
+        <v>892</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F200" t="s">
         <v>889</v>
       </c>
-      <c r="C199" t="s">
-        <v>892</v>
-      </c>
-      <c r="D199" t="s">
-        <v>891</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F199" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="8" t="s">
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B201" t="s">
+        <v>895</v>
+      </c>
+      <c r="C201" t="s">
+        <v>896</v>
+      </c>
+      <c r="D201" t="s">
         <v>897</v>
       </c>
-      <c r="B200" t="s">
+      <c r="E201" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F201" t="s">
         <v>894</v>
       </c>
-      <c r="C200" t="s">
-        <v>895</v>
-      </c>
-      <c r="D200" t="s">
-        <v>896</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F200" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="8" t="s">
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B202" t="s">
+        <v>901</v>
+      </c>
+      <c r="C202" t="s">
+        <v>898</v>
+      </c>
+      <c r="D202" t="s">
+        <v>903</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F202" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B203" t="s">
         <v>904</v>
       </c>
-      <c r="B201" t="s">
-        <v>899</v>
-      </c>
-      <c r="C201" t="s">
-        <v>900</v>
-      </c>
-      <c r="D201" t="s">
-        <v>901</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F201" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="C203" t="s">
         <v>905</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D203" t="s">
+        <v>906</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F203" t="s">
         <v>902</v>
       </c>
-      <c r="D202" t="s">
-        <v>907</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F202" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="8" t="s">
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
+        <v>909</v>
+      </c>
+      <c r="C204" t="s">
+        <v>910</v>
+      </c>
+      <c r="D204" t="s">
+        <v>914</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F204" t="s">
         <v>908</v>
       </c>
-      <c r="C203" t="s">
-        <v>909</v>
-      </c>
-      <c r="D203" t="s">
-        <v>910</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F203" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="8" t="s">
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B205" t="s">
+        <v>913</v>
+      </c>
+      <c r="C205" t="s">
+        <v>912</v>
+      </c>
+      <c r="D205" t="s">
+        <v>914</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F205" t="s">
         <v>915</v>
       </c>
-      <c r="B204" t="s">
-        <v>913</v>
-      </c>
-      <c r="C204" t="s">
-        <v>914</v>
-      </c>
-      <c r="D204" t="s">
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B206" t="s">
         <v>918</v>
       </c>
-      <c r="E204" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F204" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="C206" t="s">
+        <v>916</v>
+      </c>
+      <c r="D206" t="s">
+        <v>920</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F206" t="s">
         <v>917</v>
-      </c>
-      <c r="C205" t="s">
-        <v>916</v>
-      </c>
-      <c r="D205" t="s">
-        <v>918</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F205" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="B206" t="s">
-        <v>922</v>
-      </c>
-      <c r="C206" t="s">
-        <v>920</v>
-      </c>
-      <c r="D206" t="s">
-        <v>924</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F206" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B1FB2-609A-4B1D-8474-AC6C8A95D6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74522-C034-4957-BF6D-5793E58D332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="946">
   <si>
     <t>Category</t>
   </si>
@@ -2138,13 +2138,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>35.14886963959393, 129.12578366597413</t>
-  </si>
-  <si>
-    <t>67m7FWmZaqA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Busan</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2206,14 +2199,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Gwangandaegyo Bridge 광안대교 1 - Live cam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangandaegyo Bridge 광안대교 2 - Live cam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>35.14468344523574, 129.12314344740332</t>
   </si>
   <si>
@@ -3095,6 +3080,81 @@
   </si>
   <si>
     <t>LIVE, LANDMARK</t>
+  </si>
+  <si>
+    <t>Gwangandaegyo Bridge 광안대교 - Live cam</t>
+  </si>
+  <si>
+    <t>MG8aoZQuhzk</t>
+  </si>
+  <si>
+    <t>🔴 Tropical Murphy's Cam | Chaweng | Koh Samui | Thailand | Live Street Webcam | 1440p HD</t>
+  </si>
+  <si>
+    <t>9.528338050311207, 100.05999464076046</t>
+  </si>
+  <si>
+    <t>LIVE, PUB, TRAFFIC</t>
+  </si>
+  <si>
+    <t>DwKCna1mumk</t>
+  </si>
+  <si>
+    <t>🔴 Hush Bar | Soi Green Mango | Chaweng | Koh Samui | Thailand | Live Street Webcam | 1440p HD</t>
+  </si>
+  <si>
+    <t>9.532461905629654, 100.06348220695826</t>
+  </si>
+  <si>
+    <t>LIVE, PUB, STREET</t>
+  </si>
+  <si>
+    <t>yFgVmioYkys</t>
+  </si>
+  <si>
+    <t>🔴 Soi Green Mango Cam | Chaweng | Koh Samui | Thailand | Live Street Webcam | 1440p HD</t>
+  </si>
+  <si>
+    <t>9.532714382982038, 100.06344518660427</t>
+  </si>
+  <si>
+    <t>wP6hpWgPJ98</t>
+  </si>
+  <si>
+    <t>9.472751781449903, 100.06879296642954</t>
+  </si>
+  <si>
+    <t>Banyan Tree Samui Live Stream</t>
+  </si>
+  <si>
+    <t>LIVE, RESORT, SEA, MOUNTAIN</t>
+  </si>
+  <si>
+    <t>🔴 The Door beach club | Lamai | Koh Samui</t>
+  </si>
+  <si>
+    <t>seaFk0SVm5s</t>
+  </si>
+  <si>
+    <t>9.467111026190683, 100.0484131351612</t>
+  </si>
+  <si>
+    <t>13.749770130608908, 100.55655697637178</t>
+  </si>
+  <si>
+    <t>🔴LIVE: Petchaburi Road</t>
+  </si>
+  <si>
+    <t>a_bUVExv_Cg</t>
+  </si>
+  <si>
+    <t>GIky-GXIBVY</t>
+  </si>
+  <si>
+    <t>🔴 El Gaucho | Soi 11 | Sukhumvit Road</t>
+  </si>
+  <si>
+    <t>13.743400765622214, 100.55666453894038</t>
   </si>
 </sst>
 </file>
@@ -3739,7 +3799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3762,6 +3822,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4158,11 +4221,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4357,13 +4420,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -4372,7 +4435,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6837,122 +6900,122 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="5" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B134" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C134" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>560</v>
       </c>
       <c r="F134" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B135" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C135" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="F135" t="s">
-        <v>621</v>
+      <c r="F135" s="6" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B136" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C136" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>625</v>
+      <c r="F136" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B137" t="s">
         <v>632</v>
       </c>
-      <c r="B137" t="s">
-        <v>629</v>
-      </c>
       <c r="C137" t="s">
-        <v>631</v>
+        <v>921</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>560</v>
       </c>
       <c r="F137" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="5" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="B138" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C138" t="s">
         <v>635</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>560</v>
       </c>
       <c r="F138" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B139" t="s">
         <v>640</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>641</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F139" t="s">
         <v>637</v>
-      </c>
-      <c r="C139" t="s">
-        <v>639</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F139" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6966,30 +7029,30 @@
         <v>645</v>
       </c>
       <c r="D140" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F140" t="s">
         <v>643</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="F140" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B141" t="s">
         <v>650</v>
-      </c>
-      <c r="B141" t="s">
-        <v>648</v>
       </c>
       <c r="C141" t="s">
         <v>649</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>642</v>
+        <v>560</v>
       </c>
       <c r="F141" t="s">
         <v>647</v>
@@ -6997,22 +7060,22 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B142" t="s">
         <v>655</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>657</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E142" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="F142" t="s">
         <v>652</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F142" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7020,19 +7083,19 @@
         <v>296</v>
       </c>
       <c r="B143" t="s">
+        <v>656</v>
+      </c>
+      <c r="C143" t="s">
+        <v>658</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F143" t="s">
         <v>659</v>
-      </c>
-      <c r="C143" t="s">
-        <v>661</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="F143" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7043,16 +7106,16 @@
         <v>660</v>
       </c>
       <c r="C144" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F144" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7060,19 +7123,19 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C145" t="s">
+        <v>662</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F145" t="s">
         <v>665</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="F145" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7080,19 +7143,19 @@
         <v>296</v>
       </c>
       <c r="B146" t="s">
+        <v>668</v>
+      </c>
+      <c r="C146" t="s">
         <v>667</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F146" t="s">
         <v>666</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="F146" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7100,16 +7163,16 @@
         <v>296</v>
       </c>
       <c r="B147" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C147" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F147" t="s">
         <v>670</v>
@@ -7117,42 +7180,42 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="5" t="s">
-        <v>296</v>
+        <v>677</v>
       </c>
       <c r="B148" t="s">
+        <v>676</v>
+      </c>
+      <c r="C148" t="s">
         <v>675</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>657</v>
-      </c>
       <c r="F148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B149" t="s">
         <v>680</v>
       </c>
       <c r="C149" t="s">
+        <v>681</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="E149" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F149" t="s">
         <v>678</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F149" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7160,36 +7223,33 @@
         <v>686</v>
       </c>
       <c r="B150" t="s">
+        <v>685</v>
+      </c>
+      <c r="C150" t="s">
         <v>684</v>
       </c>
-      <c r="C150" t="s">
-        <v>685</v>
-      </c>
       <c r="D150" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F150" t="s">
         <v>683</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F150" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B151" t="s">
         <v>690</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>689</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="F151" t="s">
         <v>687</v>
@@ -7197,239 +7257,242 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B152" t="s">
         <v>694</v>
       </c>
       <c r="C152" t="s">
+        <v>695</v>
+      </c>
+      <c r="D152" t="s">
         <v>693</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
         <v>692</v>
-      </c>
-      <c r="F152" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B153" t="s">
+        <v>699</v>
+      </c>
+      <c r="C153" t="s">
         <v>698</v>
       </c>
-      <c r="C153" t="s">
-        <v>699</v>
-      </c>
       <c r="D153" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="5" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B154" t="s">
+        <v>702</v>
+      </c>
+      <c r="C154" t="s">
         <v>703</v>
       </c>
-      <c r="C154" t="s">
-        <v>702</v>
-      </c>
       <c r="D154" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B155" t="s">
+        <v>707</v>
+      </c>
+      <c r="C155" t="s">
         <v>708</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>706</v>
-      </c>
-      <c r="C155" t="s">
-        <v>707</v>
-      </c>
-      <c r="D155" t="s">
-        <v>705</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B156" t="s">
         <v>713</v>
-      </c>
-      <c r="B156" t="s">
-        <v>711</v>
       </c>
       <c r="C156" t="s">
         <v>712</v>
       </c>
       <c r="D156" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B157" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C157" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D157" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="5" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B158" t="s">
         <v>719</v>
       </c>
       <c r="C158" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D158" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="5" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B159" t="s">
+        <v>724</v>
+      </c>
+      <c r="C159" t="s">
         <v>723</v>
       </c>
-      <c r="C159" t="s">
-        <v>726</v>
-      </c>
       <c r="D159" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="5" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B160" t="s">
+        <v>727</v>
+      </c>
+      <c r="C160" t="s">
         <v>728</v>
       </c>
-      <c r="C160" t="s">
-        <v>727</v>
-      </c>
       <c r="D160" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>13</v>
+        <v>726</v>
       </c>
       <c r="F160" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B161" t="s">
         <v>731</v>
       </c>
       <c r="C161" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="D161" t="s">
         <v>733</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>730</v>
+        <v>149</v>
       </c>
       <c r="F161" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="5" t="s">
-        <v>736</v>
+        <v>296</v>
       </c>
       <c r="B162" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C162" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D162" t="s">
         <v>737</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>149</v>
+        <v>736</v>
       </c>
       <c r="F162" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="5" t="s">
-        <v>296</v>
+        <v>745</v>
       </c>
       <c r="B163" t="s">
+        <v>741</v>
+      </c>
+      <c r="C163" t="s">
         <v>743</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>742</v>
       </c>
-      <c r="D163" t="s">
-        <v>741</v>
-      </c>
       <c r="E163" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F163" t="s">
         <v>740</v>
-      </c>
-      <c r="F163" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7437,199 +7500,199 @@
         <v>749</v>
       </c>
       <c r="B164" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C164" t="s">
+        <v>748</v>
+      </c>
+      <c r="D164" t="s">
+        <v>737</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F164" t="s">
         <v>747</v>
-      </c>
-      <c r="D164" t="s">
-        <v>746</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F164" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B165" t="s">
+        <v>752</v>
+      </c>
+      <c r="C165" t="s">
         <v>753</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
+        <v>754</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F165" t="s">
         <v>750</v>
-      </c>
-      <c r="C165" t="s">
-        <v>752</v>
-      </c>
-      <c r="D165" t="s">
-        <v>741</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F165" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B166" t="s">
+        <v>757</v>
+      </c>
+      <c r="C166" t="s">
+        <v>758</v>
+      </c>
+      <c r="D166" t="s">
+        <v>754</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F166" t="s">
         <v>756</v>
-      </c>
-      <c r="C166" t="s">
-        <v>757</v>
-      </c>
-      <c r="D166" t="s">
-        <v>758</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F166" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B167" t="s">
+        <v>760</v>
+      </c>
+      <c r="C167" t="s">
+        <v>761</v>
+      </c>
+      <c r="D167" t="s">
+        <v>754</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F167" t="s">
         <v>759</v>
-      </c>
-      <c r="B167" t="s">
-        <v>761</v>
-      </c>
-      <c r="C167" t="s">
-        <v>762</v>
-      </c>
-      <c r="D167" t="s">
-        <v>758</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F167" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B168" t="s">
+        <v>763</v>
+      </c>
+      <c r="C168" t="s">
         <v>764</v>
       </c>
-      <c r="C168" t="s">
-        <v>765</v>
-      </c>
       <c r="D168" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F168" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="5" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B169" t="s">
+        <v>765</v>
+      </c>
+      <c r="C169" t="s">
+        <v>766</v>
+      </c>
+      <c r="D169" t="s">
         <v>767</v>
       </c>
-      <c r="C169" t="s">
+      <c r="E169" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F169" t="s">
         <v>768</v>
-      </c>
-      <c r="D169" t="s">
-        <v>758</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F169" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B170" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C170" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D170" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F170" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B171" t="s">
+        <v>772</v>
+      </c>
+      <c r="C171" t="s">
+        <v>774</v>
+      </c>
+      <c r="D171" t="s">
+        <v>767</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F171" t="s">
         <v>773</v>
-      </c>
-      <c r="B171" t="s">
-        <v>774</v>
-      </c>
-      <c r="C171" t="s">
-        <v>775</v>
-      </c>
-      <c r="D171" t="s">
-        <v>771</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F171" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B172" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C172" t="s">
         <v>778</v>
       </c>
       <c r="D172" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F172" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="5" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B173" t="s">
+        <v>780</v>
+      </c>
+      <c r="C173" t="s">
         <v>781</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>782</v>
       </c>
-      <c r="D173" t="s">
-        <v>771</v>
-      </c>
       <c r="E173" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F173" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7637,24 +7700,24 @@
         <v>787</v>
       </c>
       <c r="B174" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C174" t="s">
         <v>785</v>
       </c>
       <c r="D174" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F174" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="5" t="s">
-        <v>791</v>
+        <v>296</v>
       </c>
       <c r="B175" t="s">
         <v>790</v>
@@ -7663,10 +7726,10 @@
         <v>789</v>
       </c>
       <c r="D175" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F175" t="s">
         <v>788</v>
@@ -7674,142 +7737,142 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="5" t="s">
-        <v>296</v>
+        <v>795</v>
       </c>
       <c r="B176" t="s">
+        <v>791</v>
+      </c>
+      <c r="C176" t="s">
+        <v>792</v>
+      </c>
+      <c r="D176" t="s">
         <v>794</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F176" t="s">
         <v>793</v>
-      </c>
-      <c r="D176" t="s">
-        <v>786</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F176" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B177" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C177" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D177" t="s">
+        <v>794</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F177" t="s">
         <v>798</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F177" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B178" t="s">
+        <v>801</v>
+      </c>
+      <c r="C178" t="s">
+        <v>800</v>
+      </c>
+      <c r="D178" t="s">
+        <v>794</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F178" t="s">
         <v>799</v>
-      </c>
-      <c r="B178" t="s">
-        <v>800</v>
-      </c>
-      <c r="C178" t="s">
-        <v>801</v>
-      </c>
-      <c r="D178" t="s">
-        <v>798</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F178" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="5" t="s">
-        <v>296</v>
+        <v>783</v>
       </c>
       <c r="B179" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C179" t="s">
         <v>804</v>
       </c>
       <c r="D179" t="s">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F179" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="5" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="B180" t="s">
+        <v>808</v>
+      </c>
+      <c r="C180" t="s">
         <v>807</v>
       </c>
-      <c r="C180" t="s">
-        <v>808</v>
-      </c>
       <c r="D180" t="s">
-        <v>758</v>
+        <v>806</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F180" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B181" t="s">
         <v>813</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>812</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>811</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F181" t="s">
         <v>810</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F181" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="5" t="s">
-        <v>799</v>
+        <v>296</v>
       </c>
       <c r="B182" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C182" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D182" t="s">
+        <v>754</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F182" t="s">
         <v>815</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F182" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7817,16 +7880,16 @@
         <v>296</v>
       </c>
       <c r="B183" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C183" t="s">
         <v>818</v>
       </c>
       <c r="D183" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F183" t="s">
         <v>819</v>
@@ -7837,16 +7900,16 @@
         <v>296</v>
       </c>
       <c r="B184" t="s">
+        <v>820</v>
+      </c>
+      <c r="C184" t="s">
         <v>821</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>822</v>
       </c>
-      <c r="D184" t="s">
-        <v>758</v>
-      </c>
       <c r="E184" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F184" t="s">
         <v>823</v>
@@ -7854,10 +7917,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="5" t="s">
-        <v>296</v>
+        <v>828</v>
       </c>
       <c r="B185" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C185" t="s">
         <v>825</v>
@@ -7866,15 +7929,15 @@
         <v>826</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>755</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="5" t="s">
-        <v>832</v>
+        <v>315</v>
       </c>
       <c r="B186" t="s">
         <v>831</v>
@@ -7883,78 +7946,78 @@
         <v>829</v>
       </c>
       <c r="D186" t="s">
+        <v>832</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F186" t="s">
         <v>830</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F186" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="5" t="s">
-        <v>315</v>
+        <v>843</v>
       </c>
       <c r="B187" t="s">
         <v>835</v>
       </c>
       <c r="C187" t="s">
+        <v>836</v>
+      </c>
+      <c r="D187" t="s">
+        <v>834</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F187" t="s">
         <v>833</v>
-      </c>
-      <c r="D187" t="s">
-        <v>836</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F187" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B188" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C188" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D188" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B189" t="s">
+        <v>841</v>
+      </c>
+      <c r="C189" t="s">
         <v>842</v>
       </c>
-      <c r="C189" t="s">
-        <v>841</v>
-      </c>
       <c r="D189" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B190" t="s">
         <v>845</v>
@@ -7963,7 +8026,7 @@
         <v>846</v>
       </c>
       <c r="D190" t="s">
-        <v>838</v>
+        <v>356</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>351</v>
@@ -7974,7 +8037,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="5" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="B191" t="s">
         <v>849</v>
@@ -7983,13 +8046,13 @@
         <v>850</v>
       </c>
       <c r="D191" t="s">
-        <v>356</v>
+        <v>851</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="F191" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7997,19 +8060,19 @@
         <v>856</v>
       </c>
       <c r="B192" t="s">
+        <v>854</v>
+      </c>
+      <c r="C192" t="s">
+        <v>855</v>
+      </c>
+      <c r="D192" t="s">
+        <v>794</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F192" t="s">
         <v>853</v>
-      </c>
-      <c r="C192" t="s">
-        <v>854</v>
-      </c>
-      <c r="D192" t="s">
-        <v>855</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F192" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8017,76 +8080,76 @@
         <v>860</v>
       </c>
       <c r="B193" t="s">
+        <v>857</v>
+      </c>
+      <c r="C193" t="s">
         <v>858</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>794</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F193" t="s">
         <v>859</v>
-      </c>
-      <c r="D193" t="s">
-        <v>798</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F193" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B194" t="s">
         <v>861</v>
       </c>
       <c r="C194" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D194" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F194" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B195" t="s">
+        <v>868</v>
+      </c>
+      <c r="C195" t="s">
+        <v>865</v>
+      </c>
+      <c r="D195" t="s">
+        <v>867</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F195" t="s">
         <v>866</v>
-      </c>
-      <c r="B195" t="s">
-        <v>865</v>
-      </c>
-      <c r="C195" t="s">
-        <v>867</v>
-      </c>
-      <c r="D195" t="s">
-        <v>798</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F195" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B196" t="s">
         <v>873</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>872</v>
-      </c>
-      <c r="C196" t="s">
-        <v>869</v>
       </c>
       <c r="D196" t="s">
         <v>871</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>351</v>
+        <v>848</v>
       </c>
       <c r="F196" t="s">
         <v>870</v>
@@ -8103,13 +8166,13 @@
         <v>876</v>
       </c>
       <c r="D197" t="s">
+        <v>880</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F197" t="s">
         <v>875</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F197" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8120,13 +8183,13 @@
         <v>881</v>
       </c>
       <c r="C198" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D198" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F198" t="s">
         <v>879</v>
@@ -8134,82 +8197,82 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B199" t="s">
         <v>886</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
+        <v>887</v>
+      </c>
+      <c r="D199" t="s">
+        <v>888</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F199" t="s">
         <v>885</v>
-      </c>
-      <c r="C199" t="s">
-        <v>888</v>
-      </c>
-      <c r="D199" t="s">
-        <v>887</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F199" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B200" t="s">
+        <v>891</v>
+      </c>
+      <c r="C200" t="s">
+        <v>892</v>
+      </c>
+      <c r="D200" t="s">
         <v>893</v>
       </c>
-      <c r="B200" t="s">
+      <c r="E200" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F200" t="s">
         <v>890</v>
-      </c>
-      <c r="C200" t="s">
-        <v>891</v>
-      </c>
-      <c r="D200" t="s">
-        <v>892</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F200" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="5" t="s">
-        <v>900</v>
+        <v>732</v>
       </c>
       <c r="B201" t="s">
+        <v>897</v>
+      </c>
+      <c r="C201" t="s">
+        <v>894</v>
+      </c>
+      <c r="D201" t="s">
+        <v>899</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F201" t="s">
         <v>895</v>
-      </c>
-      <c r="C201" t="s">
-        <v>896</v>
-      </c>
-      <c r="D201" t="s">
-        <v>897</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F201" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="5" t="s">
-        <v>736</v>
+        <v>903</v>
       </c>
       <c r="B202" t="s">
+        <v>900</v>
+      </c>
+      <c r="C202" t="s">
         <v>901</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
+        <v>902</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F202" t="s">
         <v>898</v>
-      </c>
-      <c r="D202" t="s">
-        <v>903</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F202" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8217,79 +8280,199 @@
         <v>907</v>
       </c>
       <c r="B203" t="s">
+        <v>905</v>
+      </c>
+      <c r="C203" t="s">
+        <v>906</v>
+      </c>
+      <c r="D203" t="s">
+        <v>910</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F203" t="s">
         <v>904</v>
-      </c>
-      <c r="C203" t="s">
-        <v>905</v>
-      </c>
-      <c r="D203" t="s">
-        <v>906</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F203" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="5" t="s">
-        <v>911</v>
+        <v>64</v>
       </c>
       <c r="B204" t="s">
         <v>909</v>
       </c>
       <c r="C204" t="s">
+        <v>908</v>
+      </c>
+      <c r="D204" t="s">
         <v>910</v>
       </c>
-      <c r="D204" t="s">
-        <v>914</v>
-      </c>
       <c r="E204" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F204" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="5" t="s">
-        <v>64</v>
+        <v>915</v>
       </c>
       <c r="B205" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C205" t="s">
         <v>912</v>
       </c>
       <c r="D205" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F205" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="5" t="s">
-        <v>919</v>
+      <c r="A206" s="8" t="s">
+        <v>925</v>
       </c>
       <c r="B206" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C206" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="D206" t="s">
-        <v>920</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>852</v>
+        <v>832</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F206" t="s">
-        <v>917</v>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B207" t="s">
+        <v>928</v>
+      </c>
+      <c r="C207" t="s">
+        <v>927</v>
+      </c>
+      <c r="D207" t="s">
+        <v>832</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F207" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B208" t="s">
+        <v>932</v>
+      </c>
+      <c r="C208" t="s">
+        <v>931</v>
+      </c>
+      <c r="D208" t="s">
+        <v>832</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F208" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B209" t="s">
+        <v>934</v>
+      </c>
+      <c r="C209" t="s">
+        <v>935</v>
+      </c>
+      <c r="D209" t="s">
+        <v>832</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F209" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B210" t="s">
+        <v>939</v>
+      </c>
+      <c r="C210" t="s">
+        <v>937</v>
+      </c>
+      <c r="D210" t="s">
+        <v>832</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F210" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B211" t="s">
+        <v>940</v>
+      </c>
+      <c r="C211" t="s">
+        <v>941</v>
+      </c>
+      <c r="D211" t="s">
+        <v>130</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F211" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B212" t="s">
+        <v>945</v>
+      </c>
+      <c r="C212" t="s">
+        <v>944</v>
+      </c>
+      <c r="D212" t="s">
+        <v>130</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F212" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74522-C034-4957-BF6D-5793E58D332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6953569-C5E0-430F-A5A2-29714D2BCD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="959">
   <si>
     <t>Category</t>
   </si>
@@ -3155,6 +3155,45 @@
   </si>
   <si>
     <t>13.743400765622214, 100.55666453894038</t>
+  </si>
+  <si>
+    <t>KY4Yd5QR570</t>
+  </si>
+  <si>
+    <t>26.119447755690356, -80.10472547327616</t>
+  </si>
+  <si>
+    <t>LIVE, PUB, CLUB</t>
+  </si>
+  <si>
+    <t>yqx3qFTGVEY</t>
+  </si>
+  <si>
+    <t>Elbo Room Bar WebCam 1</t>
+  </si>
+  <si>
+    <t>26.119469408514355, -80.10463347190057</t>
+  </si>
+  <si>
+    <t>Elbo Room Bar WebCam 2</t>
+  </si>
+  <si>
+    <t>Elbo Room Bar WebCam 3</t>
+  </si>
+  <si>
+    <t>Elbo Room Bar WebCam 4</t>
+  </si>
+  <si>
+    <t>ZGnLVjkBEls</t>
+  </si>
+  <si>
+    <t>uoJRuZg3NME</t>
+  </si>
+  <si>
+    <t>26.119225568236672, -80.10454294734677</t>
+  </si>
+  <si>
+    <t>26.119456764955224, -80.1046965038119</t>
   </si>
 </sst>
 </file>
@@ -4221,11 +4260,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
+      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8473,6 +8512,86 @@
       </c>
       <c r="F212" t="s">
         <v>943</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B213" t="s">
+        <v>947</v>
+      </c>
+      <c r="C213" t="s">
+        <v>950</v>
+      </c>
+      <c r="D213" t="s">
+        <v>356</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F213" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B214" t="s">
+        <v>951</v>
+      </c>
+      <c r="C214" t="s">
+        <v>952</v>
+      </c>
+      <c r="D214" t="s">
+        <v>356</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F214" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B215" t="s">
+        <v>958</v>
+      </c>
+      <c r="C215" t="s">
+        <v>953</v>
+      </c>
+      <c r="D215" t="s">
+        <v>356</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F215" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B216" t="s">
+        <v>957</v>
+      </c>
+      <c r="C216" t="s">
+        <v>954</v>
+      </c>
+      <c r="D216" t="s">
+        <v>356</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F216" t="s">
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6953569-C5E0-430F-A5A2-29714D2BCD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37BDE3D-11E9-4824-9252-F4DBC89ECE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="971">
   <si>
     <t>Category</t>
   </si>
@@ -3194,6 +3194,42 @@
   </si>
   <si>
     <t>26.119456764955224, -80.1046965038119</t>
+  </si>
+  <si>
+    <t>7EEy1OEmGjc</t>
+  </si>
+  <si>
+    <t>13.214975102821438, 101.0569795387831</t>
+  </si>
+  <si>
+    <t>หมูเด้ง - Moo Deng Live 🔴</t>
+  </si>
+  <si>
+    <t>Chonburi</t>
+  </si>
+  <si>
+    <t>LIVE, ZOO</t>
+  </si>
+  <si>
+    <t>kzQdszcQ2HM</t>
+  </si>
+  <si>
+    <t>35.748233007275104, 139.56447498450478</t>
+  </si>
+  <si>
+    <t>【西武線ライブカメラ２】　西武池袋線保谷駅付近の電留線ライブ映像/Live footage of the electric storage line near Hoya Station on the Seibu Ikebukuro Line</t>
+  </si>
+  <si>
+    <t>LIVE, TRAIN, RAIL</t>
+  </si>
+  <si>
+    <t>35.74805277396905, 139.56531155077093</t>
+  </si>
+  <si>
+    <t>TfzJPS1rJmk</t>
+  </si>
+  <si>
+    <t>【西武線ライブカメラ】　西武池袋線保谷駅付近の踏切からライブ配信/Live broadcast from a railroad crossing near Hoya Station on the Seibu Ikebukuro Line</t>
   </si>
 </sst>
 </file>
@@ -4260,11 +4296,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
+      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8592,6 +8628,63 @@
       </c>
       <c r="F216" t="s">
         <v>956</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="B217" t="s">
+        <v>960</v>
+      </c>
+      <c r="C217" t="s">
+        <v>961</v>
+      </c>
+      <c r="D217" t="s">
+        <v>962</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F217" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="B218" t="s">
+        <v>965</v>
+      </c>
+      <c r="C218" t="s">
+        <v>966</v>
+      </c>
+      <c r="D218" t="s">
+        <v>754</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F218" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="B219" t="s">
+        <v>968</v>
+      </c>
+      <c r="C219" t="s">
+        <v>970</v>
+      </c>
+      <c r="D219" t="s">
+        <v>754</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F219" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37BDE3D-11E9-4824-9252-F4DBC89ECE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32513751-6C56-4138-AA40-04BDE9E3F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="987">
   <si>
     <t>Category</t>
   </si>
@@ -3230,6 +3230,54 @@
   </si>
   <si>
     <t>【西武線ライブカメラ】　西武池袋線保谷駅付近の踏切からライブ配信/Live broadcast from a railroad crossing near Hoya Station on the Seibu Ikebukuro Line</t>
+  </si>
+  <si>
+    <t>25.775024065903935, -80.17222971340303</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, PORT, CRUSE, TRAFFIC</t>
+  </si>
+  <si>
+    <t>LIVE - Port Miami Webcam with VHF Marine Radio Feed from PTZtv</t>
+  </si>
+  <si>
+    <t>25.792879308047315, -80.28243803922248</t>
+  </si>
+  <si>
+    <t>LIVE Miami Airport -- Watch runway 9/27 with tower radio traffic!</t>
+  </si>
+  <si>
+    <t>rDm2dFjRz3Q</t>
+  </si>
+  <si>
+    <t>DxZziUUr6CY</t>
+  </si>
+  <si>
+    <t>91PfFoqvuUk</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Taoyuan</t>
+  </si>
+  <si>
+    <t>25.065292854810945, 121.22902609240775</t>
+  </si>
+  <si>
+    <t>Taiwan Taoyuan International Airport (TPE/RCTP) Live Camera 24/7</t>
+  </si>
+  <si>
+    <t>25.0121745951993, 121.32839932553509</t>
+  </si>
+  <si>
+    <t>Hutoushan Environmental Park Live Cam 桃園虎頭山環保公園即時影像</t>
+  </si>
+  <si>
+    <t>tu_gsIkNt-w</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, LANDSCAPE</t>
   </si>
 </sst>
 </file>
@@ -4296,11 +4344,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8671,6 +8719,9 @@
       </c>
     </row>
     <row r="219" spans="1:6">
+      <c r="A219" s="8" t="s">
+        <v>967</v>
+      </c>
       <c r="B219" t="s">
         <v>968</v>
       </c>
@@ -8685,6 +8736,86 @@
       </c>
       <c r="F219" t="s">
         <v>969</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="B220" t="s">
+        <v>971</v>
+      </c>
+      <c r="C220" t="s">
+        <v>973</v>
+      </c>
+      <c r="D220" t="s">
+        <v>356</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F220" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B221" t="s">
+        <v>974</v>
+      </c>
+      <c r="C221" t="s">
+        <v>975</v>
+      </c>
+      <c r="D221" t="s">
+        <v>356</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F221" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B222" t="s">
+        <v>981</v>
+      </c>
+      <c r="C222" t="s">
+        <v>982</v>
+      </c>
+      <c r="D222" t="s">
+        <v>980</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="F222" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="B223" t="s">
+        <v>983</v>
+      </c>
+      <c r="C223" t="s">
+        <v>984</v>
+      </c>
+      <c r="D223" t="s">
+        <v>980</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="F223" t="s">
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32513751-6C56-4138-AA40-04BDE9E3F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630F52C-B6E8-4424-BE3A-8DD052A3A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1006">
   <si>
     <t>Category</t>
   </si>
@@ -3232,15 +3232,6 @@
     <t>【西武線ライブカメラ】　西武池袋線保谷駅付近の踏切からライブ配信/Live broadcast from a railroad crossing near Hoya Station on the Seibu Ikebukuro Line</t>
   </si>
   <si>
-    <t>25.775024065903935, -80.17222971340303</t>
-  </si>
-  <si>
-    <t>LIVE, CITY, PORT, CRUSE, TRAFFIC</t>
-  </si>
-  <si>
-    <t>LIVE - Port Miami Webcam with VHF Marine Radio Feed from PTZtv</t>
-  </si>
-  <si>
     <t>25.792879308047315, -80.28243803922248</t>
   </si>
   <si>
@@ -3250,9 +3241,6 @@
     <t>rDm2dFjRz3Q</t>
   </si>
   <si>
-    <t>DxZziUUr6CY</t>
-  </si>
-  <si>
     <t>91PfFoqvuUk</t>
   </si>
   <si>
@@ -3278,6 +3266,75 @@
   </si>
   <si>
     <t>LIVE, CITY, LANDSCAPE</t>
+  </si>
+  <si>
+    <t>-40.90038693968227, 176.2314227461835</t>
+  </si>
+  <si>
+    <t>Castlepoint Lighthouse Live Stream</t>
+  </si>
+  <si>
+    <t>0gmIZN1Ho74</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Castlepoint</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, LIGHTINGHOUSE</t>
+  </si>
+  <si>
+    <t>Orewa Beach Live Camera &amp; Surf Cam</t>
+  </si>
+  <si>
+    <t>g3GtZAJTKW8</t>
+  </si>
+  <si>
+    <t>-36.5873502823261, 174.69462228940313</t>
+  </si>
+  <si>
+    <t>Orewa</t>
+  </si>
+  <si>
+    <t>ArQ44GB1SY8</t>
+  </si>
+  <si>
+    <t>Wellington Harbour NZ 4K Live Stream</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>-41.28199565557239, 174.83285756112122</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, HARBOR</t>
+  </si>
+  <si>
+    <t>-36.83413651997723, 174.6919665857067</t>
+  </si>
+  <si>
+    <t>Hauraki Gulf Weather live stream</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>6VHnY6ixjLc</t>
+  </si>
+  <si>
+    <t>HrPzYZ2RoiU</t>
+  </si>
+  <si>
+    <t>-41.33005764277594, 174.8066420287673</t>
+  </si>
+  <si>
+    <t>Lyall Bay, Wellington Airport, Brooklyn wind turbine, Lyall Bay Surf Cam Live</t>
+  </si>
+  <si>
+    <t>LIVE, AIRPORT, BAY</t>
   </si>
 </sst>
 </file>
@@ -4344,11 +4401,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220:XFD220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8740,13 +8797,13 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="8" t="s">
-        <v>972</v>
+        <v>296</v>
       </c>
       <c r="B220" t="s">
         <v>971</v>
       </c>
       <c r="C220" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D220" t="s">
         <v>356</v>
@@ -8755,7 +8812,7 @@
         <v>351</v>
       </c>
       <c r="F220" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8763,44 +8820,44 @@
         <v>296</v>
       </c>
       <c r="B221" t="s">
+        <v>977</v>
+      </c>
+      <c r="C221" t="s">
+        <v>978</v>
+      </c>
+      <c r="D221" t="s">
+        <v>976</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="F221" t="s">
         <v>974</v>
-      </c>
-      <c r="C221" t="s">
-        <v>975</v>
-      </c>
-      <c r="D221" t="s">
-        <v>356</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F221" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="8" t="s">
-        <v>296</v>
+        <v>982</v>
       </c>
       <c r="B222" t="s">
+        <v>979</v>
+      </c>
+      <c r="C222" t="s">
+        <v>980</v>
+      </c>
+      <c r="D222" t="s">
+        <v>976</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="F222" t="s">
         <v>981</v>
-      </c>
-      <c r="C222" t="s">
-        <v>982</v>
-      </c>
-      <c r="D222" t="s">
-        <v>980</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="F222" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="8" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B223" t="s">
         <v>983</v>
@@ -8809,13 +8866,93 @@
         <v>984</v>
       </c>
       <c r="D223" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="F223" t="s">
         <v>985</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B224" t="s">
+        <v>991</v>
+      </c>
+      <c r="C224" t="s">
+        <v>989</v>
+      </c>
+      <c r="D224" t="s">
+        <v>992</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="F224" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="B225" t="s">
+        <v>996</v>
+      </c>
+      <c r="C225" t="s">
+        <v>994</v>
+      </c>
+      <c r="D225" t="s">
+        <v>995</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="F225" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="B226" t="s">
+        <v>998</v>
+      </c>
+      <c r="C226" t="s">
+        <v>999</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D227" t="s">
+        <v>995</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630F52C-B6E8-4424-BE3A-8DD052A3A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A5D08D-2DB3-4D93-89F4-91BD21FBB0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1014">
   <si>
     <t>Category</t>
   </si>
@@ -3335,6 +3335,30 @@
   </si>
   <si>
     <t>LIVE, AIRPORT, BAY</t>
+  </si>
+  <si>
+    <t>53.34377753679396, -6.209941196907409</t>
+  </si>
+  <si>
+    <t>Dublin Port City View: Live Ship Movements on the River Liffey</t>
+  </si>
+  <si>
+    <t>sO9DmOIP0xE</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Dublin Bay Live: Watch Ships Enter and Exit Dublin Port</t>
+  </si>
+  <si>
+    <t>53.34310119605498, -6.191333417213782</t>
+  </si>
+  <si>
+    <t>oxx7MqjhOpw</t>
   </si>
 </sst>
 </file>
@@ -4401,11 +4425,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220:XFD220"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8516,7 +8540,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="5" t="s">
         <v>925</v>
       </c>
       <c r="B206" t="s">
@@ -8528,7 +8552,7 @@
       <c r="D206" t="s">
         <v>832</v>
       </c>
-      <c r="E206" s="8" t="s">
+      <c r="E206" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F206" t="s">
@@ -8536,7 +8560,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="5" t="s">
         <v>929</v>
       </c>
       <c r="B207" t="s">
@@ -8548,7 +8572,7 @@
       <c r="D207" t="s">
         <v>832</v>
       </c>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F207" t="s">
@@ -8556,7 +8580,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="5" t="s">
         <v>929</v>
       </c>
       <c r="B208" t="s">
@@ -8568,7 +8592,7 @@
       <c r="D208" t="s">
         <v>832</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E208" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F208" t="s">
@@ -8576,7 +8600,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="5" t="s">
         <v>936</v>
       </c>
       <c r="B209" t="s">
@@ -8588,7 +8612,7 @@
       <c r="D209" t="s">
         <v>832</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F209" t="s">
@@ -8596,7 +8620,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B210" t="s">
@@ -8608,7 +8632,7 @@
       <c r="D210" t="s">
         <v>832</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F210" t="s">
@@ -8616,7 +8640,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B211" t="s">
@@ -8628,7 +8652,7 @@
       <c r="D211" t="s">
         <v>130</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="E211" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F211" t="s">
@@ -8636,7 +8660,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="5" t="s">
         <v>929</v>
       </c>
       <c r="B212" t="s">
@@ -8648,7 +8672,7 @@
       <c r="D212" t="s">
         <v>130</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F212" t="s">
@@ -8656,7 +8680,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="5" t="s">
         <v>948</v>
       </c>
       <c r="B213" t="s">
@@ -8676,7 +8700,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="5" t="s">
         <v>948</v>
       </c>
       <c r="B214" t="s">
@@ -8696,7 +8720,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="5" t="s">
         <v>948</v>
       </c>
       <c r="B215" t="s">
@@ -8716,7 +8740,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="5" t="s">
         <v>948</v>
       </c>
       <c r="B216" t="s">
@@ -8736,7 +8760,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="5" t="s">
         <v>963</v>
       </c>
       <c r="B217" t="s">
@@ -8748,7 +8772,7 @@
       <c r="D217" t="s">
         <v>962</v>
       </c>
-      <c r="E217" s="8" t="s">
+      <c r="E217" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F217" t="s">
@@ -8756,7 +8780,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="5" t="s">
         <v>967</v>
       </c>
       <c r="B218" t="s">
@@ -8776,7 +8800,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="5" t="s">
         <v>967</v>
       </c>
       <c r="B219" t="s">
@@ -8796,7 +8820,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B220" t="s">
@@ -8816,7 +8840,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B221" t="s">
@@ -8828,7 +8852,7 @@
       <c r="D221" t="s">
         <v>976</v>
       </c>
-      <c r="E221" s="8" t="s">
+      <c r="E221" s="5" t="s">
         <v>975</v>
       </c>
       <c r="F221" t="s">
@@ -8836,7 +8860,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="5" t="s">
         <v>982</v>
       </c>
       <c r="B222" t="s">
@@ -8848,7 +8872,7 @@
       <c r="D222" t="s">
         <v>976</v>
       </c>
-      <c r="E222" s="8" t="s">
+      <c r="E222" s="5" t="s">
         <v>975</v>
       </c>
       <c r="F222" t="s">
@@ -8856,7 +8880,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="5" t="s">
         <v>988</v>
       </c>
       <c r="B223" t="s">
@@ -8868,7 +8892,7 @@
       <c r="D223" t="s">
         <v>987</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="5" t="s">
         <v>986</v>
       </c>
       <c r="F223" t="s">
@@ -8876,7 +8900,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B224" t="s">
@@ -8888,7 +8912,7 @@
       <c r="D224" t="s">
         <v>992</v>
       </c>
-      <c r="E224" s="8" t="s">
+      <c r="E224" s="5" t="s">
         <v>986</v>
       </c>
       <c r="F224" t="s">
@@ -8896,7 +8920,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="5" t="s">
         <v>997</v>
       </c>
       <c r="B225" t="s">
@@ -8908,7 +8932,7 @@
       <c r="D225" t="s">
         <v>995</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="5" t="s">
         <v>986</v>
       </c>
       <c r="F225" t="s">
@@ -8916,7 +8940,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="5" t="s">
         <v>997</v>
       </c>
       <c r="B226" t="s">
@@ -8928,7 +8952,7 @@
       <c r="D226" t="s">
         <v>1000</v>
       </c>
-      <c r="E226" s="8" t="s">
+      <c r="E226" s="5" t="s">
         <v>986</v>
       </c>
       <c r="F226" t="s">
@@ -8936,7 +8960,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="B227" t="s">
@@ -8948,11 +8972,51 @@
       <c r="D227" t="s">
         <v>995</v>
       </c>
-      <c r="E227" s="8" t="s">
+      <c r="E227" s="5" t="s">
         <v>986</v>
       </c>
       <c r="F227" t="s">
         <v>1002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A5D08D-2DB3-4D93-89F4-91BD21FBB0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C725664-8099-499E-B7E0-EC3C69B67913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1024">
   <si>
     <t>Category</t>
   </si>
@@ -3359,6 +3359,36 @@
   </si>
   <si>
     <t>oxx7MqjhOpw</t>
+  </si>
+  <si>
+    <t>CvOB-Is_yYU</t>
+  </si>
+  <si>
+    <t>Port of Helsinki - South Harbour Live (Live Camera Axis Q6155-E)</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>60.16418180859401, 24.959608925070114</t>
+  </si>
+  <si>
+    <t>Port of Helsinki - West harbour - south cam</t>
+  </si>
+  <si>
+    <t>6hPWq2IG08M</t>
+  </si>
+  <si>
+    <t>60.1497202443619, 24.914443359739366</t>
+  </si>
+  <si>
+    <t>Port of Helsinki - West harbour - north cam</t>
+  </si>
+  <si>
+    <t>JnJhFYhIjFs</t>
+  </si>
+  <si>
+    <t>60.15402791777396, 24.918840108266455</t>
   </si>
 </sst>
 </file>
@@ -4425,11 +4455,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8992,7 +9022,7 @@
       <c r="D228" t="s">
         <v>1010</v>
       </c>
-      <c r="E228" s="8" t="s">
+      <c r="E228" s="5" t="s">
         <v>1009</v>
       </c>
       <c r="F228" t="s">
@@ -9012,11 +9042,71 @@
       <c r="D229" t="s">
         <v>1010</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="5" t="s">
         <v>1009</v>
       </c>
       <c r="F229" t="s">
         <v>1013</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C725664-8099-499E-B7E0-EC3C69B67913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5417B6-0DD2-4B59-97F7-2862AC7FAD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1035">
   <si>
     <t>Category</t>
   </si>
@@ -3389,6 +3389,39 @@
   </si>
   <si>
     <t>60.15402791777396, 24.918840108266455</t>
+  </si>
+  <si>
+    <t>【東京湾ライブカメラ】 LIVE Tokyo Bay, Traffic between ships and planes</t>
+  </si>
+  <si>
+    <t>qMDxy_qbdtE</t>
+  </si>
+  <si>
+    <t>35.630819822372594, 139.7704128344258</t>
+  </si>
+  <si>
+    <t>【有明ライブカメラ】 LIVE Scenery overlooking land</t>
+  </si>
+  <si>
+    <t>_ByNEL0Ton4</t>
+  </si>
+  <si>
+    <t>35.63151956157848, 139.78222536039993</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, HARBOR, BRIDGE</t>
+  </si>
+  <si>
+    <t>【お台場ライブカメラ】 Live Beach Cam - Obaiba Beach</t>
+  </si>
+  <si>
+    <t>35.63192580012683, 139.7764094005543</t>
+  </si>
+  <si>
+    <t>KsoxRtx01KE</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH, BUILDING</t>
   </si>
 </sst>
 </file>
@@ -4455,11 +4488,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9107,6 +9140,66 @@
       </c>
       <c r="F232" t="s">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D233" t="s">
+        <v>754</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D234" t="s">
+        <v>754</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D235" t="s">
+        <v>754</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5417B6-0DD2-4B59-97F7-2862AC7FAD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631C224E-6A44-4BF9-9A71-AA1D79DCA8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1060">
   <si>
     <t>Category</t>
   </si>
@@ -3422,6 +3422,81 @@
   </si>
   <si>
     <t>LIVE, SEA, BEACH, BUILDING</t>
+  </si>
+  <si>
+    <t>남산서울타워 파노라마 LIVE / Namsan Seoul Tower Panorama</t>
+  </si>
+  <si>
+    <t>CegCJLdx3aw</t>
+  </si>
+  <si>
+    <t>37.55131141702741, 126.98834538813063</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, BUILDING</t>
+  </si>
+  <si>
+    <t>6pKI_gV2ibQ</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>29.99230752240382, 78.19167894946095</t>
+  </si>
+  <si>
+    <t>लाइव दर्शन || गायत्री तीर्थ शांतिकुंज हरिद्वार / Gayatri Teerth Shantikunj Haridwar</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>🔴Live Darshan From Shree Kashi Vishwanath Temple Varanasi ( श्री काशी विश्वनाथ मंदिर से लाइव दर्शन )</t>
+  </si>
+  <si>
+    <t>jI_kv9h2sZM</t>
+  </si>
+  <si>
+    <t>25.310865117268058, 83.01067751835699</t>
+  </si>
+  <si>
+    <t>6ON11RBhWME</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>25.596062386202732, 85.22995712137404</t>
+  </si>
+  <si>
+    <t>🔴 Takht Sri Patna Sahib ( Live Darshan from Harmandir ) (गुरुद्वारा श्री हरिमंदर जी पटना साहिब) !!!</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>🔴 Thikana Mandir Shri GOVIND DEVJI, Jaipur LIVE DARSHAN</t>
+  </si>
+  <si>
+    <t>26.92885651857421, 75.82407006189108</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>_9jLnXrRDUw</t>
+  </si>
+  <si>
+    <t>🔴Live Darshan - Shree Mahakaleshwar Temple Ujjain (महाकालेश्वर मंदिर के लाइव दर्शन) !</t>
+  </si>
+  <si>
+    <t>eBikK8yBOtI</t>
+  </si>
+  <si>
+    <t>23.182902707115378, 75.76824133445302</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
   </si>
 </sst>
 </file>
@@ -4488,11 +4563,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
+      <selection pane="bottomLeft" activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9200,6 +9275,126 @@
       </c>
       <c r="F235" t="s">
         <v>1033</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D236" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1057</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631C224E-6A44-4BF9-9A71-AA1D79DCA8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123908F8-6AF1-4C14-A8EA-D17784D08CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1079">
   <si>
     <t>Category</t>
   </si>
@@ -3497,6 +3497,63 @@
   </si>
   <si>
     <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>12.085394745972502, -68.89842911649694</t>
+  </si>
+  <si>
+    <t>LionsDive Beach Resort | Mambo Beach | Curaçao</t>
+  </si>
+  <si>
+    <t>loHbMM9JfCs</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>0ImA9IcyQwA</t>
+  </si>
+  <si>
+    <t>11.98591047553957, -68.64469205447985</t>
+  </si>
+  <si>
+    <t>Klein Curaçao | Mermaid Boat Trips</t>
+  </si>
+  <si>
+    <t>Klein Curacao</t>
+  </si>
+  <si>
+    <t>Handelskade &amp; Brionplein | Curaçao</t>
+  </si>
+  <si>
+    <t>12.106351598725128, -68.93525653244262</t>
+  </si>
+  <si>
+    <t>28U-t3fA9ks</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BRDIGE</t>
+  </si>
+  <si>
+    <t>World famous Plane Beach ✈️ - Maho Beach SXM</t>
+  </si>
+  <si>
+    <t>18.03923594493922, -63.120373366239846</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Simpson Bay</t>
+  </si>
+  <si>
+    <t>LtzkkAeW_Qg</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, BEACH, AIRPORT</t>
   </si>
 </sst>
 </file>
@@ -4563,11 +4620,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F243" sqref="F243"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9395,6 +9452,86 @@
       </c>
       <c r="F241" t="s">
         <v>1057</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1077</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123908F8-6AF1-4C14-A8EA-D17784D08CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3516C80-A3A7-4069-9815-4860C427F84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3031,9 +3031,6 @@
     <t>LIVE, BRIDGE, CITY, TRAFFIC</t>
   </si>
   <si>
-    <t>V_p-xihG6IQ</t>
-  </si>
-  <si>
     <t>46.0923362298973, 7.064761740762495</t>
   </si>
   <si>
@@ -3554,6 +3551,9 @@
   </si>
   <si>
     <t>LIVE, SEA, BEACH, AIRPORT</t>
+  </si>
+  <si>
+    <t>O2giZp4ABh4</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4221,9 +4221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4623,8 +4620,8 @@
   <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4819,13 +4816,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -4834,7 +4831,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7365,7 +7362,7 @@
         <v>632</v>
       </c>
       <c r="C137" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>616</v>
@@ -8676,22 +8673,22 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B203" t="s">
+        <v>904</v>
+      </c>
+      <c r="C203" t="s">
         <v>905</v>
       </c>
-      <c r="C203" t="s">
-        <v>906</v>
-      </c>
       <c r="D203" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>848</v>
       </c>
       <c r="F203" t="s">
-        <v>904</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8699,50 +8696,50 @@
         <v>64</v>
       </c>
       <c r="B204" t="s">
+        <v>908</v>
+      </c>
+      <c r="C204" t="s">
+        <v>907</v>
+      </c>
+      <c r="D204" t="s">
         <v>909</v>
-      </c>
-      <c r="C204" t="s">
-        <v>908</v>
-      </c>
-      <c r="D204" t="s">
-        <v>910</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>848</v>
       </c>
       <c r="F204" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B205" t="s">
+        <v>913</v>
+      </c>
+      <c r="C205" t="s">
+        <v>911</v>
+      </c>
+      <c r="D205" t="s">
         <v>915</v>
-      </c>
-      <c r="B205" t="s">
-        <v>914</v>
-      </c>
-      <c r="C205" t="s">
-        <v>912</v>
-      </c>
-      <c r="D205" t="s">
-        <v>916</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>848</v>
       </c>
       <c r="F205" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B206" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C206" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D206" t="s">
         <v>832</v>
@@ -8751,18 +8748,18 @@
         <v>124</v>
       </c>
       <c r="F206" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B207" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C207" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D207" t="s">
         <v>832</v>
@@ -8771,18 +8768,18 @@
         <v>124</v>
       </c>
       <c r="F207" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B208" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C208" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D208" t="s">
         <v>832</v>
@@ -8791,18 +8788,18 @@
         <v>124</v>
       </c>
       <c r="F208" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B209" t="s">
+        <v>933</v>
+      </c>
+      <c r="C209" t="s">
         <v>934</v>
-      </c>
-      <c r="C209" t="s">
-        <v>935</v>
       </c>
       <c r="D209" t="s">
         <v>832</v>
@@ -8811,7 +8808,7 @@
         <v>124</v>
       </c>
       <c r="F209" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8819,10 +8816,10 @@
         <v>315</v>
       </c>
       <c r="B210" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C210" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D210" t="s">
         <v>832</v>
@@ -8831,7 +8828,7 @@
         <v>124</v>
       </c>
       <c r="F210" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8839,10 +8836,10 @@
         <v>146</v>
       </c>
       <c r="B211" t="s">
+        <v>939</v>
+      </c>
+      <c r="C211" t="s">
         <v>940</v>
-      </c>
-      <c r="C211" t="s">
-        <v>941</v>
       </c>
       <c r="D211" t="s">
         <v>130</v>
@@ -8851,18 +8848,18 @@
         <v>124</v>
       </c>
       <c r="F211" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B212" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C212" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D212" t="s">
         <v>130</v>
@@ -8871,18 +8868,18 @@
         <v>124</v>
       </c>
       <c r="F212" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B213" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C213" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D213" t="s">
         <v>356</v>
@@ -8891,18 +8888,18 @@
         <v>351</v>
       </c>
       <c r="F213" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B214" t="s">
+        <v>950</v>
+      </c>
+      <c r="C214" t="s">
         <v>951</v>
-      </c>
-      <c r="C214" t="s">
-        <v>952</v>
       </c>
       <c r="D214" t="s">
         <v>356</v>
@@ -8911,18 +8908,18 @@
         <v>351</v>
       </c>
       <c r="F214" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B215" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C215" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D215" t="s">
         <v>356</v>
@@ -8931,18 +8928,18 @@
         <v>351</v>
       </c>
       <c r="F215" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B216" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C216" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D216" t="s">
         <v>356</v>
@@ -8951,38 +8948,38 @@
         <v>351</v>
       </c>
       <c r="F216" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B217" t="s">
+        <v>959</v>
+      </c>
+      <c r="C217" t="s">
         <v>960</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>961</v>
-      </c>
-      <c r="D217" t="s">
-        <v>962</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F217" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B218" t="s">
+        <v>964</v>
+      </c>
+      <c r="C218" t="s">
         <v>965</v>
-      </c>
-      <c r="C218" t="s">
-        <v>966</v>
       </c>
       <c r="D218" t="s">
         <v>754</v>
@@ -8991,18 +8988,18 @@
         <v>751</v>
       </c>
       <c r="F218" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B219" t="s">
         <v>967</v>
       </c>
-      <c r="B219" t="s">
-        <v>968</v>
-      </c>
       <c r="C219" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D219" t="s">
         <v>754</v>
@@ -9011,7 +9008,7 @@
         <v>751</v>
       </c>
       <c r="F219" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -9019,10 +9016,10 @@
         <v>296</v>
       </c>
       <c r="B220" t="s">
+        <v>970</v>
+      </c>
+      <c r="C220" t="s">
         <v>971</v>
-      </c>
-      <c r="C220" t="s">
-        <v>972</v>
       </c>
       <c r="D220" t="s">
         <v>356</v>
@@ -9031,7 +9028,7 @@
         <v>351</v>
       </c>
       <c r="F220" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -9039,59 +9036,59 @@
         <v>296</v>
       </c>
       <c r="B221" t="s">
+        <v>976</v>
+      </c>
+      <c r="C221" t="s">
         <v>977</v>
       </c>
-      <c r="C221" t="s">
-        <v>978</v>
-      </c>
       <c r="D221" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F221" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B222" t="s">
+        <v>978</v>
+      </c>
+      <c r="C222" t="s">
         <v>979</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>975</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="F222" t="s">
         <v>980</v>
-      </c>
-      <c r="D222" t="s">
-        <v>976</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="F222" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B223" t="s">
+        <v>982</v>
+      </c>
+      <c r="C223" t="s">
         <v>983</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
+        <v>986</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F223" t="s">
         <v>984</v>
-      </c>
-      <c r="D223" t="s">
-        <v>987</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="F223" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -9099,159 +9096,159 @@
         <v>397</v>
       </c>
       <c r="B224" t="s">
+        <v>990</v>
+      </c>
+      <c r="C224" t="s">
+        <v>988</v>
+      </c>
+      <c r="D224" t="s">
         <v>991</v>
       </c>
-      <c r="C224" t="s">
+      <c r="E224" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F224" t="s">
         <v>989</v>
-      </c>
-      <c r="D224" t="s">
-        <v>992</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="F224" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B225" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C225" t="s">
+        <v>993</v>
+      </c>
+      <c r="D225" t="s">
         <v>994</v>
       </c>
-      <c r="D225" t="s">
-        <v>995</v>
-      </c>
       <c r="E225" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F225" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B226" t="s">
         <v>997</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>998</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>999</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F226" t="s">
         <v>1000</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B227" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C227" t="s">
         <v>1003</v>
       </c>
-      <c r="C227" t="s">
-        <v>1004</v>
-      </c>
       <c r="D227" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F227" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B228" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C228" t="s">
         <v>1006</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F228" t="s">
         <v>1007</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B229" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F229" t="s">
         <v>1012</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B230" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C230" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D230" t="s">
         <v>1015</v>
       </c>
-      <c r="D230" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E230" s="8" t="s">
+      <c r="E230" s="5" t="s">
         <v>343</v>
       </c>
       <c r="F230" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B231" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C231" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F231" t="s">
         <v>1018</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -9259,30 +9256,30 @@
         <v>128</v>
       </c>
       <c r="B232" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C232" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F232" t="s">
         <v>1021</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B233" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C233" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D233" t="s">
         <v>754</v>
@@ -9291,18 +9288,18 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B234" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C234" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D234" t="s">
         <v>754</v>
@@ -9311,18 +9308,18 @@
         <v>751</v>
       </c>
       <c r="F234" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="8" t="s">
-        <v>1034</v>
+      <c r="A235" s="5" t="s">
+        <v>1033</v>
       </c>
       <c r="B235" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C235" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D235" t="s">
         <v>754</v>
@@ -9331,207 +9328,207 @@
         <v>751</v>
       </c>
       <c r="F235" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="8" t="s">
-        <v>1038</v>
+      <c r="A236" s="5" t="s">
+        <v>1037</v>
       </c>
       <c r="B236" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C236" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D236" t="s">
         <v>22</v>
       </c>
-      <c r="E236" s="8" t="s">
+      <c r="E236" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F236" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="5" t="s">
         <v>691</v>
       </c>
       <c r="B237" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C237" t="s">
         <v>1041</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>1042</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C238" t="s">
         <v>1043</v>
       </c>
-      <c r="E237" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F237" t="s">
+      <c r="D238" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E238" s="5" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="8" t="s">
+      <c r="F238" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F239" t="s">
         <v>1046</v>
       </c>
-      <c r="C238" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D238" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E238" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="8" t="s">
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B239" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="B240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C240" t="s">
         <v>1051</v>
       </c>
-      <c r="E239" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="8" t="s">
+      <c r="D240" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B240" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F240" t="s">
+      <c r="B241" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C241" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="D241" t="s">
         <v>1058</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E241" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F241" t="s">
         <v>1056</v>
       </c>
-      <c r="D241" t="s">
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B242" t="s">
         <v>1059</v>
       </c>
-      <c r="E241" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="8" t="s">
+      <c r="C242" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B242" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="B243" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F243" t="s">
         <v>1064</v>
       </c>
-      <c r="E242" s="8" t="s">
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D244" t="s">
         <v>1063</v>
       </c>
-      <c r="F242" t="s">
+      <c r="E244" s="5" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D243" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E243" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="8" t="s">
+      <c r="F244" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C245" t="s">
         <v>1072</v>
       </c>
-      <c r="B244" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E244" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="D245" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E245" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="C245" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="F245" t="s">
         <v>1076</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1077</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3516C80-A3A7-4069-9815-4860C427F84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EFE279-91C7-4019-A721-A576D065D9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1094">
   <si>
     <t>Category</t>
   </si>
@@ -3554,6 +3554,51 @@
   </si>
   <si>
     <t>O2giZp4ABh4</t>
+  </si>
+  <si>
+    <t>Vista en vivo del Zócalo de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>PIpmNK3UFTk</t>
+  </si>
+  <si>
+    <t>19.432932065350858, -99.13328350835701</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>19.357720399326983, -99.2761157277356</t>
+  </si>
+  <si>
+    <t>ebNDsmPfvUc</t>
+  </si>
+  <si>
+    <t>Panorámica de Santa Fé en la Ciudad de México en vivo/Panoramic view of Santa Fe in Mexico City live</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, CITY, BUILDING</t>
+  </si>
+  <si>
+    <t>19.484402818518276, -99.11730175984827</t>
+  </si>
+  <si>
+    <t>Basílica de Guadalupe, Ciudad de México, en vivo</t>
+  </si>
+  <si>
+    <t>mgQ5bQBrulE</t>
+  </si>
+  <si>
+    <t>17.65854957893652, -101.60313493341054</t>
+  </si>
+  <si>
+    <t>Ixtapa Zihuatanejo, Guerrero En Vivo | Holiday Inn Resort Ixtapa</t>
+  </si>
+  <si>
+    <t>MzRbg_eSFro</t>
+  </si>
+  <si>
+    <t>Ixtapa Zihuatanejo</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4221,6 +4266,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4268,7 +4316,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4617,11 +4683,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9531,28 +9597,111 @@
         <v>1076</v>
       </c>
     </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1092</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:F120 F124:F1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F44 F47 F49:F62">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F46">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F48">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F121:F123">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121:F123">
+  <conditionalFormatting sqref="B248">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EFE279-91C7-4019-A721-A576D065D9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886258C-6C21-4D67-BE83-719F5B1CAEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1097">
   <si>
     <t>Category</t>
   </si>
@@ -3599,6 +3599,15 @@
   </si>
   <si>
     <t>Ixtapa Zihuatanejo</t>
+  </si>
+  <si>
+    <t>GRr7URifOA4</t>
+  </si>
+  <si>
+    <t>19.435869589674557, -99.14945551415542</t>
+  </si>
+  <si>
+    <t>Paseo de la Reforma en CDMX desde Hotel B Urban Xaman Reforma</t>
   </si>
 </sst>
 </file>
@@ -4683,11 +4692,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
+      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9675,6 +9684,26 @@
       </c>
       <c r="F249" t="s">
         <v>1092</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886258C-6C21-4D67-BE83-719F5B1CAEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CC05B4-8FA1-44A8-A397-73A8A8D66E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1120">
   <si>
     <t>Category</t>
   </si>
@@ -3608,6 +3608,75 @@
   </si>
   <si>
     <t>Paseo de la Reforma en CDMX desde Hotel B Urban Xaman Reforma</t>
+  </si>
+  <si>
+    <t>GC5RY3zipa4</t>
+  </si>
+  <si>
+    <t>31.670954411157933, -106.34064206750381</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, BORDER</t>
+  </si>
+  <si>
+    <t>Transmisión en vivo Puente Internacional Zaragoza (Sur) BORDER</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>0Pg3S6s76IE</t>
+  </si>
+  <si>
+    <t>Transmisión en vivo Puente Internacional Paso del Norte (Norte)</t>
+  </si>
+  <si>
+    <t>31.746326893361665, -106.48663096506293</t>
+  </si>
+  <si>
+    <t>31.745606549688638, -106.48635172174104</t>
+  </si>
+  <si>
+    <t>Transmisión en vivo Puente Internacional Paso del Norte (Sur)</t>
+  </si>
+  <si>
+    <t>IcvugJWPXz8</t>
+  </si>
+  <si>
+    <t>31.431021053324287, -106.15179344486819</t>
+  </si>
+  <si>
+    <t>Transmisión en vivo Puente Internacional Guadalupe (Sur)</t>
+  </si>
+  <si>
+    <t>0gT7jvaLCkg</t>
+  </si>
+  <si>
+    <t>RVXhhbkBGbI</t>
+  </si>
+  <si>
+    <t>Chamizal</t>
+  </si>
+  <si>
+    <t>Transmisión en vivo Puente Internacional Lerdo (Fila)</t>
+  </si>
+  <si>
+    <t>31.74581414672601, -106.48192250193762</t>
+  </si>
+  <si>
+    <t>n2masVeEo4A</t>
+  </si>
+  <si>
+    <t>20.47757950476707, -86.97687618789205</t>
+  </si>
+  <si>
+    <t>Cozumel</t>
+  </si>
+  <si>
+    <t>Cozumel, Quintana Roo En Vivo</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, HARBOR, CRUISE</t>
   </si>
 </sst>
 </file>
@@ -4692,11 +4761,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
+      <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9704,6 +9773,126 @@
       </c>
       <c r="F250" t="s">
         <v>1094</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1115</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CC05B4-8FA1-44A8-A397-73A8A8D66E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A959D4-CD6D-48C3-8AAD-7C8D4BAF333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1133">
   <si>
     <t>Category</t>
   </si>
@@ -3677,6 +3677,45 @@
   </si>
   <si>
     <t>LIVE, SEA, HARBOR, CRUISE</t>
+  </si>
+  <si>
+    <t>Webcam Live Firenze / Webcam Live Florence</t>
+  </si>
+  <si>
+    <t>43.773174863670526, 11.256909026787534</t>
+  </si>
+  <si>
+    <t>4eNyDCa1DBU</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>LIVE, RELIGION, CITY</t>
+  </si>
+  <si>
+    <t>35.13819550332635, -120.64351371491615</t>
+  </si>
+  <si>
+    <t>Pismo Beach Webcam - 805 Webcams - Vespera Hotel</t>
+  </si>
+  <si>
+    <t>y4F9Cl9CBes</t>
+  </si>
+  <si>
+    <t>LIVE, BEACH, SEA, PIER</t>
+  </si>
+  <si>
+    <t>35.1698894924024, -120.74700961065442</t>
+  </si>
+  <si>
+    <t>Flying Flags Avila Beach Webcam - 805 Webcams</t>
+  </si>
+  <si>
+    <t>cL99MxAVUCg</t>
   </si>
 </sst>
 </file>
@@ -4414,24 +4453,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -4465,6 +4486,24 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -4761,11 +4800,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F256"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9676,7 +9715,7 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="5" t="s">
         <v>686</v>
       </c>
       <c r="B246" t="s">
@@ -9688,7 +9727,7 @@
       <c r="D246" t="s">
         <v>1082</v>
       </c>
-      <c r="E246" s="8" t="s">
+      <c r="E246" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F246" t="s">
@@ -9696,7 +9735,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="5" t="s">
         <v>1086</v>
       </c>
       <c r="B247" t="s">
@@ -9708,7 +9747,7 @@
       <c r="D247" t="s">
         <v>1082</v>
       </c>
-      <c r="E247" s="8" t="s">
+      <c r="E247" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F247" t="s">
@@ -9728,7 +9767,7 @@
       <c r="D248" t="s">
         <v>1082</v>
       </c>
-      <c r="E248" s="8" t="s">
+      <c r="E248" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F248" t="s">
@@ -9748,7 +9787,7 @@
       <c r="D249" t="s">
         <v>1093</v>
       </c>
-      <c r="E249" s="8" t="s">
+      <c r="E249" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F249" t="s">
@@ -9756,7 +9795,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="5" t="s">
         <v>1086</v>
       </c>
       <c r="B250" t="s">
@@ -9768,7 +9807,7 @@
       <c r="D250" t="s">
         <v>1082</v>
       </c>
-      <c r="E250" s="8" t="s">
+      <c r="E250" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F250" t="s">
@@ -9776,7 +9815,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="B251" t="s">
@@ -9788,7 +9827,7 @@
       <c r="D251" t="s">
         <v>1101</v>
       </c>
-      <c r="E251" s="8" t="s">
+      <c r="E251" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F251" t="s">
@@ -9796,7 +9835,7 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="B252" t="s">
@@ -9808,7 +9847,7 @@
       <c r="D252" t="s">
         <v>1101</v>
       </c>
-      <c r="E252" s="8" t="s">
+      <c r="E252" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F252" t="s">
@@ -9816,7 +9855,7 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="B253" t="s">
@@ -9828,7 +9867,7 @@
       <c r="D253" t="s">
         <v>1101</v>
       </c>
-      <c r="E253" s="8" t="s">
+      <c r="E253" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F253" t="s">
@@ -9836,7 +9875,7 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="B254" t="s">
@@ -9848,7 +9887,7 @@
       <c r="D254" t="s">
         <v>1101</v>
       </c>
-      <c r="E254" s="8" t="s">
+      <c r="E254" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F254" t="s">
@@ -9856,7 +9895,7 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="B255" t="s">
@@ -9868,7 +9907,7 @@
       <c r="D255" t="s">
         <v>1112</v>
       </c>
-      <c r="E255" s="8" t="s">
+      <c r="E255" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F255" t="s">
@@ -9876,7 +9915,7 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="B256" t="s">
@@ -9888,39 +9927,99 @@
       <c r="D256" t="s">
         <v>1117</v>
       </c>
-      <c r="E256" s="8" t="s">
+      <c r="E256" s="5" t="s">
         <v>160</v>
       </c>
       <c r="F256" t="s">
         <v>1115</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D258" t="s">
+        <v>355</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D259" t="s">
+        <v>355</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="B248">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F120 F124:F1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F44 F47 F49:F62">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121:F123">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B248">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A959D4-CD6D-48C3-8AAD-7C8D4BAF333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7762692C-F65B-47E5-A7BA-373CE2A18FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1154">
   <si>
     <t>Category</t>
   </si>
@@ -3716,6 +3716,69 @@
   </si>
   <si>
     <t>cL99MxAVUCg</t>
+  </si>
+  <si>
+    <t>35.36988113515808, -120.86660169717162</t>
+  </si>
+  <si>
+    <t>Morro Bay Jetty Webcam - 805 Webcams in California</t>
+  </si>
+  <si>
+    <t>g1F2ktr4e10</t>
+  </si>
+  <si>
+    <t>LIVE, CHIMNEY, ROCK</t>
+  </si>
+  <si>
+    <t>Boston Common / Boylston St. Live Cam</t>
+  </si>
+  <si>
+    <t>4nYY5p6ClUU</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>42.352590061743065, -71.06684578819161</t>
+  </si>
+  <si>
+    <t>LIVE, STREET, PARK</t>
+  </si>
+  <si>
+    <t>(170) Boston and Maine Live - YouTube</t>
+  </si>
+  <si>
+    <t>York Harbor Beach</t>
+  </si>
+  <si>
+    <t>catvjIWNrZg</t>
+  </si>
+  <si>
+    <t>43.13209756110367, -70.63838259811487</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>43.159514229404174, -70.62047217223258</t>
+  </si>
+  <si>
+    <t>York Beach, Maine US - Anchorage Inn</t>
+  </si>
+  <si>
+    <t>bnUgt0gl-ds</t>
+  </si>
+  <si>
+    <t>42.12949635554303, -72.74572011287621</t>
+  </si>
+  <si>
+    <t>Westfield, Massachusetts USA - LIVE Railfan Cam</t>
+  </si>
+  <si>
+    <t>njLfO0eQ_Ug</t>
+  </si>
+  <si>
+    <t>LIVE, RAIL, TRAIN, BRIDGE</t>
   </si>
 </sst>
 </file>
@@ -3725,7 +3788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###.0000000;\-#,###.0000000;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3891,6 +3954,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4232,7 +4304,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4359,8 +4431,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4388,8 +4463,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4423,6 +4501,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -4800,11 +4879,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9934,7 +10013,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:7">
       <c r="A257" s="5" t="s">
         <v>1125</v>
       </c>
@@ -9954,7 +10033,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:7">
       <c r="A258" s="8" t="s">
         <v>1129</v>
       </c>
@@ -9973,8 +10052,11 @@
       <c r="F258" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" s="9" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="8" t="s">
         <v>1129</v>
       </c>
@@ -9992,6 +10074,124 @@
       </c>
       <c r="F259" t="s">
         <v>1132</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D260" t="s">
+        <v>355</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G262" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -10023,8 +10223,15 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E69" r:id="rId1" display="https://maps.google.com/?q=Hotel+Residenz+Hochalm+****+Kollingweg%20147,%20Saalbach%20Hinterglemm,%20Salzburg,%205754,%20Austria&amp;ll=47.37540254,12.56065607" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G260" r:id="rId2" display="https://www.youtube.com/@805Webcams/streams" xr:uid="{F7A59F2F-0F22-4006-BE8F-9E0DC42C4B24}"/>
+    <hyperlink ref="G259" r:id="rId3" display="https://www.youtube.com/@805Webcams/streams" xr:uid="{8C490C07-1761-40E4-B3FD-ECDA75158856}"/>
+    <hyperlink ref="G258" r:id="rId4" display="https://www.youtube.com/@805Webcams/streams" xr:uid="{DD18646D-44FF-40C1-A717-7AE32055339D}"/>
+    <hyperlink ref="G261" r:id="rId5" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{9EFC053E-279C-4766-90E8-166E81FCD265}"/>
+    <hyperlink ref="G262" r:id="rId6" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{68C91159-EB86-4AEC-8F03-68039197AAC7}"/>
+    <hyperlink ref="G263" r:id="rId7" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{609D070C-D4FF-48FE-8ECB-D240F265BAA5}"/>
+    <hyperlink ref="G264" r:id="rId8" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{6C238B70-6963-4ED2-BA1D-7654EF5E24C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7762692C-F65B-47E5-A7BA-373CE2A18FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE57999-7F3F-438D-B7F5-0A0085C4CC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1180">
   <si>
     <t>Category</t>
   </si>
@@ -3779,6 +3779,84 @@
   </si>
   <si>
     <t>LIVE, RAIL, TRAIN, BRIDGE</t>
+  </si>
+  <si>
+    <t>cSCXEW0tda8</t>
+  </si>
+  <si>
+    <t>Boston, MA Live Cam - City of Boston</t>
+  </si>
+  <si>
+    <t>42.36157044785626, -71.07530945189643</t>
+  </si>
+  <si>
+    <t>LIVE, CITY, BUILDING, METRO</t>
+  </si>
+  <si>
+    <t>wRBSMzhZL50</t>
+  </si>
+  <si>
+    <t>Boston Harbor, Massachusetts - Live</t>
+  </si>
+  <si>
+    <t>42.35796880969909, -71.04723638744522</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, CITY, BUILDING</t>
+  </si>
+  <si>
+    <t>P8t1nuM8BcY</t>
+  </si>
+  <si>
+    <t>45.59023541739565, -67.32878944964192</t>
+  </si>
+  <si>
+    <t>McAdam Railway Station - Live Cam</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>LIVE, RAIL, TRAIN, STATION</t>
+  </si>
+  <si>
+    <t>Loon Mountain, New Hampshire - The Mountain Club at Loon - Live Cam</t>
+  </si>
+  <si>
+    <t>44.056082290650515, -71.6275010341407</t>
+  </si>
+  <si>
+    <t>LIVE, MOUNTAIN, SKI, RESORT</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>2l-EzK0erOE</t>
+  </si>
+  <si>
+    <t>45.183980846203625, -69.23010764376563</t>
+  </si>
+  <si>
+    <t>Mayo Mill Dam at Dover-Foxcroft, Maine LIVE cam</t>
+  </si>
+  <si>
+    <t>JK9D1UPy6s0</t>
+  </si>
+  <si>
+    <t>LIVE, DAM, RIVER</t>
+  </si>
+  <si>
+    <t>43.08084130296787, 11.711669107435554</t>
+  </si>
+  <si>
+    <t>Tuscany, Italy Live Webcam - Podere Il Casale</t>
+  </si>
+  <si>
+    <t>vnDRqc0GCaI</t>
+  </si>
+  <si>
+    <t>Pienza</t>
   </si>
 </sst>
 </file>
@@ -4879,11 +4957,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10191,6 +10269,144 @@
         <v>1152</v>
       </c>
       <c r="G264" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G270" s="9" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -10230,8 +10446,14 @@
     <hyperlink ref="G262" r:id="rId6" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{68C91159-EB86-4AEC-8F03-68039197AAC7}"/>
     <hyperlink ref="G263" r:id="rId7" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{609D070C-D4FF-48FE-8ECB-D240F265BAA5}"/>
     <hyperlink ref="G264" r:id="rId8" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{6C238B70-6963-4ED2-BA1D-7654EF5E24C3}"/>
+    <hyperlink ref="G265" r:id="rId9" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{C5FA3153-8861-4ED8-8A8F-EEE950BD9615}"/>
+    <hyperlink ref="G266" r:id="rId10" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{702C4B70-FC4A-408B-A5EF-67FF3D9D486C}"/>
+    <hyperlink ref="G267" r:id="rId11" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{A520A8B3-C609-4607-BA40-F7E60E008F0D}"/>
+    <hyperlink ref="G268" r:id="rId12" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{BE78DC64-47B9-4F56-9543-6BB2234CCA00}"/>
+    <hyperlink ref="G269" r:id="rId13" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{20F9AD28-04F6-4A60-B42D-CF8CED62D2D6}"/>
+    <hyperlink ref="G270" r:id="rId14" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{5340498F-6C61-4D3F-9493-013A14EBB678}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE57999-7F3F-438D-B7F5-0A0085C4CC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA155DAA-15E5-44DC-B790-11F55AC17C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1197">
   <si>
     <t>Category</t>
   </si>
@@ -3857,6 +3857,57 @@
   </si>
   <si>
     <t>Pienza</t>
+  </si>
+  <si>
+    <t>9yT659mJKR4</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>-8.79943111333464, 115.11765597255722</t>
+  </si>
+  <si>
+    <t>Bali - Dream Land Beach, LIVE Webcam, BaliForum</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Lucky Fish Lounge, Bingin Beach</t>
+  </si>
+  <si>
+    <t>UUA2QTmTNaM</t>
+  </si>
+  <si>
+    <t>-8.80514003136993, 115.11360623416108</t>
+  </si>
+  <si>
+    <t>Jimbaran Beach, Live Webcam. BaliForum &amp; AKUSUKA Café</t>
+  </si>
+  <si>
+    <t>mvVoilECpoY</t>
+  </si>
+  <si>
+    <t>-8.780932571649334, 115.16380907469706</t>
+  </si>
+  <si>
+    <t>Jemeluk Amed, Live Webcam. BaliForum &amp; See you again Café</t>
+  </si>
+  <si>
+    <t>DQR8yF_FNwA</t>
+  </si>
+  <si>
+    <t>-8.337822661077277, 115.66009343901486</t>
+  </si>
+  <si>
+    <t>Tegallalang rice fields, Bali. Online webcam. BaliForum &amp; Rice terrace café</t>
+  </si>
+  <si>
+    <t>yRPflX87vj0</t>
+  </si>
+  <si>
+    <t>-8.433472622758597, 115.27892183636139</t>
   </si>
 </sst>
 </file>
@@ -4957,11 +5008,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10408,6 +10459,121 @@
       </c>
       <c r="G270" s="9" t="s">
         <v>1142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G274" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -10452,8 +10618,13 @@
     <hyperlink ref="G268" r:id="rId12" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{BE78DC64-47B9-4F56-9543-6BB2234CCA00}"/>
     <hyperlink ref="G269" r:id="rId13" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{20F9AD28-04F6-4A60-B42D-CF8CED62D2D6}"/>
     <hyperlink ref="G270" r:id="rId14" display="https://www.youtube.com/@BostonAndMaineLive/streams" xr:uid="{5340498F-6C61-4D3F-9493-013A14EBB678}"/>
+    <hyperlink ref="G271" r:id="rId15" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{1FC201F2-41C5-4FBB-8BD6-5C97CE5D0F44}"/>
+    <hyperlink ref="G272" r:id="rId16" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{0375AB04-1BA4-45BE-8A0E-0F14B894DF68}"/>
+    <hyperlink ref="G273" r:id="rId17" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{5C17B538-DB8B-4806-A7AD-D910C625B881}"/>
+    <hyperlink ref="G274" r:id="rId18" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{9EBC2B0C-C31A-40DC-97CC-1DD2C5A138A6}"/>
+    <hyperlink ref="G275" r:id="rId19" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{52E87B74-7B8D-4B74-8ECF-0922091D82A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA155DAA-15E5-44DC-B790-11F55AC17C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A2E5C-04E4-4C85-8517-4870E845E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1220">
   <si>
     <t>Category</t>
   </si>
@@ -3908,6 +3908,75 @@
   </si>
   <si>
     <t>-8.433472622758597, 115.27892183636139</t>
+  </si>
+  <si>
+    <t>LIVE CAMERA Russian Cruiser Aurora St.Petersburg Russia Россия онлайн Санкт-Петербург крейсер Аврора</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>JYLJDYxV_ms</t>
+  </si>
+  <si>
+    <t>59.9552456170424, 30.337814739753615</t>
+  </si>
+  <si>
+    <t>St.Petersburg</t>
+  </si>
+  <si>
+    <t>Mobotix Webcams Russia Intro видеонаблюдение в Санкт-Петербурге</t>
+  </si>
+  <si>
+    <t>h1wly909BYw</t>
+  </si>
+  <si>
+    <t>LIVE, RIVER, WARSHIP</t>
+  </si>
+  <si>
+    <t>59.934273683681106, 30.335150370158708</t>
+  </si>
+  <si>
+    <t>LIVE Nevskiy avenue St. Petersburg Russia, Gostiny Dvor. Невский пр. Санкт-Петербург, Гостиный двор</t>
+  </si>
+  <si>
+    <t>hbPntLL5eU8</t>
+  </si>
+  <si>
+    <t>60.00297893433313, 30.297868997414106</t>
+  </si>
+  <si>
+    <t>🕹️ PTZ LIVE CAMERA St. Petersburg, Pionerskaya. Метро Пионерская пр. Испытателей и Коломяжский пр.</t>
+  </si>
+  <si>
+    <t>60.000633038756554, 30.255864844735935</t>
+  </si>
+  <si>
+    <t>CROSSROADS Camera Gakkelevskaya st. Bogatyrsky ave., St. Petersburg Онлайн камера на перекрестке СПб</t>
+  </si>
+  <si>
+    <t>59.94004991910285, 30.303912259408182</t>
+  </si>
+  <si>
+    <t>Дворцовая набережная и река Нева в прямом эфире. Palace embankment and Neva river ship cam online</t>
+  </si>
+  <si>
+    <t>6qjTpNw-psE</t>
+  </si>
+  <si>
+    <t>LIVE, RIVER, BRIDGE, TRAFFIC</t>
+  </si>
+  <si>
+    <t>ZlDohRExM-A</t>
+  </si>
+  <si>
+    <t>4K video LIVE CAMERA Saint Petersburg, Russia. Rubinstein Street Улица Рубинштейна онлайн камера</t>
+  </si>
+  <si>
+    <t>GIUTYf0Fpic</t>
+  </si>
+  <si>
+    <t>59.92919635814432, 30.34401868413709</t>
   </si>
 </sst>
 </file>
@@ -4589,10 +4658,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5008,11 +5077,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10155,7 +10224,7 @@
       <c r="D257" t="s">
         <v>1124</v>
       </c>
-      <c r="E257" s="8" t="s">
+      <c r="E257" s="5" t="s">
         <v>1123</v>
       </c>
       <c r="F257" t="s">
@@ -10163,7 +10232,7 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="8" t="s">
+      <c r="A258" s="5" t="s">
         <v>1129</v>
       </c>
       <c r="B258" t="s">
@@ -10175,18 +10244,18 @@
       <c r="D258" t="s">
         <v>355</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="E258" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F258" t="s">
         <v>1128</v>
       </c>
-      <c r="G258" s="9" t="s">
+      <c r="G258" s="8" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="5" t="s">
         <v>1129</v>
       </c>
       <c r="B259" t="s">
@@ -10198,18 +10267,18 @@
       <c r="D259" t="s">
         <v>355</v>
       </c>
-      <c r="E259" s="8" t="s">
+      <c r="E259" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F259" t="s">
         <v>1132</v>
       </c>
-      <c r="G259" s="9" t="s">
+      <c r="G259" s="8" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="B260" t="s">
@@ -10221,18 +10290,18 @@
       <c r="D260" t="s">
         <v>355</v>
       </c>
-      <c r="E260" s="8" t="s">
+      <c r="E260" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F260" t="s">
         <v>1135</v>
       </c>
-      <c r="G260" s="9" t="s">
+      <c r="G260" s="8" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="B261" t="s">
@@ -10244,18 +10313,18 @@
       <c r="D261" t="s">
         <v>1139</v>
       </c>
-      <c r="E261" s="8" t="s">
+      <c r="E261" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F261" t="s">
         <v>1138</v>
       </c>
-      <c r="G261" s="9" t="s">
+      <c r="G261" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="8" t="s">
+      <c r="A262" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B262" t="s">
@@ -10267,18 +10336,18 @@
       <c r="D262" t="s">
         <v>1146</v>
       </c>
-      <c r="E262" s="8" t="s">
+      <c r="E262" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F262" t="s">
         <v>1144</v>
       </c>
-      <c r="G262" s="9" t="s">
+      <c r="G262" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B263" t="s">
@@ -10290,18 +10359,18 @@
       <c r="D263" t="s">
         <v>1146</v>
       </c>
-      <c r="E263" s="8" t="s">
+      <c r="E263" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F263" t="s">
         <v>1149</v>
       </c>
-      <c r="G263" s="9" t="s">
+      <c r="G263" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="8" t="s">
+      <c r="A264" s="5" t="s">
         <v>1153</v>
       </c>
       <c r="B264" t="s">
@@ -10313,18 +10382,18 @@
       <c r="D264" t="s">
         <v>1139</v>
       </c>
-      <c r="E264" s="8" t="s">
+      <c r="E264" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F264" t="s">
         <v>1152</v>
       </c>
-      <c r="G264" s="9" t="s">
+      <c r="G264" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="B265" t="s">
@@ -10336,18 +10405,18 @@
       <c r="D265" t="s">
         <v>1139</v>
       </c>
-      <c r="E265" s="8" t="s">
+      <c r="E265" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F265" t="s">
         <v>1154</v>
       </c>
-      <c r="G265" s="9" t="s">
+      <c r="G265" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="8" t="s">
+      <c r="A266" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="B266" t="s">
@@ -10359,18 +10428,18 @@
       <c r="D266" t="s">
         <v>1139</v>
       </c>
-      <c r="E266" s="8" t="s">
+      <c r="E266" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F266" t="s">
         <v>1158</v>
       </c>
-      <c r="G266" s="9" t="s">
+      <c r="G266" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="8" t="s">
+      <c r="A267" s="5" t="s">
         <v>1166</v>
       </c>
       <c r="B267" t="s">
@@ -10382,18 +10451,18 @@
       <c r="D267" t="s">
         <v>1165</v>
       </c>
-      <c r="E267" s="8" t="s">
+      <c r="E267" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F267" t="s">
         <v>1162</v>
       </c>
-      <c r="G267" s="9" t="s">
+      <c r="G267" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="5" t="s">
         <v>1169</v>
       </c>
       <c r="B268" t="s">
@@ -10405,18 +10474,18 @@
       <c r="D268" t="s">
         <v>1170</v>
       </c>
-      <c r="E268" s="8" t="s">
+      <c r="E268" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F268" t="s">
         <v>1171</v>
       </c>
-      <c r="G268" s="9" t="s">
+      <c r="G268" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="8" t="s">
+      <c r="A269" s="5" t="s">
         <v>1175</v>
       </c>
       <c r="B269" t="s">
@@ -10428,18 +10497,18 @@
       <c r="D269" t="s">
         <v>1146</v>
       </c>
-      <c r="E269" s="8" t="s">
+      <c r="E269" s="5" t="s">
         <v>351</v>
       </c>
       <c r="F269" t="s">
         <v>1174</v>
       </c>
-      <c r="G269" s="9" t="s">
+      <c r="G269" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="8" t="s">
+      <c r="A270" s="5" t="s">
         <v>878</v>
       </c>
       <c r="B270" t="s">
@@ -10451,18 +10520,18 @@
       <c r="D270" t="s">
         <v>1179</v>
       </c>
-      <c r="E270" s="8" t="s">
+      <c r="E270" s="5" t="s">
         <v>1123</v>
       </c>
       <c r="F270" t="s">
         <v>1178</v>
       </c>
-      <c r="G270" s="9" t="s">
+      <c r="G270" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="8" t="s">
+      <c r="A271" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B271" t="s">
@@ -10474,18 +10543,18 @@
       <c r="D271" t="s">
         <v>1184</v>
       </c>
-      <c r="E271" s="8" t="s">
+      <c r="E271" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="F271" t="s">
         <v>1180</v>
       </c>
-      <c r="G271" s="9" t="s">
+      <c r="G271" s="8" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="8" t="s">
+      <c r="A272" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B272" t="s">
@@ -10497,18 +10566,18 @@
       <c r="D272" t="s">
         <v>1184</v>
       </c>
-      <c r="E272" s="8" t="s">
+      <c r="E272" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="F272" t="s">
         <v>1186</v>
       </c>
-      <c r="G272" s="9" t="s">
+      <c r="G272" s="8" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B273" t="s">
@@ -10520,18 +10589,18 @@
       <c r="D273" t="s">
         <v>1184</v>
       </c>
-      <c r="E273" s="8" t="s">
+      <c r="E273" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="F273" t="s">
         <v>1189</v>
       </c>
-      <c r="G273" s="9" t="s">
+      <c r="G273" s="8" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="8" t="s">
+      <c r="A274" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B274" t="s">
@@ -10543,18 +10612,18 @@
       <c r="D274" t="s">
         <v>1184</v>
       </c>
-      <c r="E274" s="8" t="s">
+      <c r="E274" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="F274" t="s">
         <v>1192</v>
       </c>
-      <c r="G274" s="9" t="s">
+      <c r="G274" s="8" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="8" t="s">
+      <c r="A275" s="5" t="s">
         <v>878</v>
       </c>
       <c r="B275" t="s">
@@ -10566,14 +10635,152 @@
       <c r="D275" t="s">
         <v>1184</v>
       </c>
-      <c r="E275" s="8" t="s">
+      <c r="E275" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="F275" t="s">
         <v>1195</v>
       </c>
-      <c r="G275" s="9" t="s">
+      <c r="G275" s="8" t="s">
         <v>1183</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G278" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G280" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -10623,8 +10830,14 @@
     <hyperlink ref="G273" r:id="rId17" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{5C17B538-DB8B-4806-A7AD-D910C625B881}"/>
     <hyperlink ref="G274" r:id="rId18" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{9EBC2B0C-C31A-40DC-97CC-1DD2C5A138A6}"/>
     <hyperlink ref="G275" r:id="rId19" display="https://www.youtube.com/@BaliForumVideo" xr:uid="{52E87B74-7B8D-4B74-8ECF-0922091D82A9}"/>
+    <hyperlink ref="G276" r:id="rId20" display="https://www.youtube.com/@msbud2" xr:uid="{C4B0A031-06A3-43E1-BAB9-557C3BD15216}"/>
+    <hyperlink ref="G277" r:id="rId21" display="https://www.youtube.com/@msbud2" xr:uid="{46DF53C5-7DC9-44BD-86B5-AD384DD88103}"/>
+    <hyperlink ref="G278" r:id="rId22" display="https://www.youtube.com/@msbud2" xr:uid="{5146EC00-8A3F-4394-888B-29B3B7C9A540}"/>
+    <hyperlink ref="G279" r:id="rId23" display="https://www.youtube.com/@msbud2" xr:uid="{E17E0ECA-8C82-4CC5-BA19-35B4BED8118F}"/>
+    <hyperlink ref="G280" r:id="rId24" display="https://www.youtube.com/@msbud2" xr:uid="{5F47CD32-E9E0-41D7-ACF6-131F4F65A1B3}"/>
+    <hyperlink ref="G281" r:id="rId25" display="https://www.youtube.com/@msbud2" xr:uid="{86566566-AB08-437E-8D7A-D2B7BA8054A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A2E5C-04E4-4C85-8517-4870E845E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339EDF27-9105-4DA4-9493-E0A659F5F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1234">
   <si>
     <t>Category</t>
   </si>
@@ -3977,6 +3977,48 @@
   </si>
   <si>
     <t>59.92919635814432, 30.34401868413709</t>
+  </si>
+  <si>
+    <t>zv0-krx4Kmg</t>
+  </si>
+  <si>
+    <t>LIVE CAMERA Griboedov Canal St. Petersburg Russia. Канал Грибоедова Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>59.92266106044973, 30.303827932539864</t>
+  </si>
+  <si>
+    <t>LIVE, RIVER, TRAFFIC, STREET</t>
+  </si>
+  <si>
+    <t>kg7KL4pan0o</t>
+  </si>
+  <si>
+    <t>г. Усть-Кут, сквер Кирова / d. Ust-Kut, Kirov Square</t>
+  </si>
+  <si>
+    <t>56.77954488001514, 105.7467141383395</t>
+  </si>
+  <si>
+    <t>LIVE, PARK, SQUARE</t>
+  </si>
+  <si>
+    <t>г. Усть-Кут, сквер Кирова</t>
+  </si>
+  <si>
+    <t>56.79236308721527, 105.77176229915726</t>
+  </si>
+  <si>
+    <t>Ust-Kut city.Live Central intersection 2 / г. Усть-Кут.Live Центральный перекресток 2</t>
+  </si>
+  <si>
+    <t>mZB2d1Rsx7Y</t>
+  </si>
+  <si>
+    <t>(174) ООО Связь Усть-Кут - YouTube</t>
+  </si>
+  <si>
+    <t>Ust-Kut</t>
   </si>
 </sst>
 </file>
@@ -5077,11 +5119,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10781,6 +10823,75 @@
       </c>
       <c r="G281" s="8" t="s">
         <v>1202</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -10836,8 +10947,11 @@
     <hyperlink ref="G279" r:id="rId23" display="https://www.youtube.com/@msbud2" xr:uid="{E17E0ECA-8C82-4CC5-BA19-35B4BED8118F}"/>
     <hyperlink ref="G280" r:id="rId24" display="https://www.youtube.com/@msbud2" xr:uid="{5F47CD32-E9E0-41D7-ACF6-131F4F65A1B3}"/>
     <hyperlink ref="G281" r:id="rId25" display="https://www.youtube.com/@msbud2" xr:uid="{86566566-AB08-437E-8D7A-D2B7BA8054A1}"/>
+    <hyperlink ref="G282" r:id="rId26" display="https://www.youtube.com/@msbud2" xr:uid="{102F3046-DA44-4206-B74F-43328675F915}"/>
+    <hyperlink ref="G283" r:id="rId27" display="https://www.youtube.com/@605000" xr:uid="{03D8544A-F4DC-451F-9A6D-19FC6C9BB209}"/>
+    <hyperlink ref="G284" r:id="rId28" display="https://www.youtube.com/@605000" xr:uid="{55AC1E84-BF82-45F8-A6FC-B542733529FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339EDF27-9105-4DA4-9493-E0A659F5F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC01E00-9523-42DB-A0AD-DF2A39A046C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1269">
   <si>
     <t>Category</t>
   </si>
@@ -4019,6 +4019,111 @@
   </si>
   <si>
     <t>Ust-Kut</t>
+  </si>
+  <si>
+    <t>56.78036832140822, 105.7422456706115</t>
+  </si>
+  <si>
+    <t>Ust-Kut.Live KDC Magistral / . Усть-Кут.Live КДЦ Магистраль</t>
+  </si>
+  <si>
+    <t>GNgldJhBFWE</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, TRAIN</t>
+  </si>
+  <si>
+    <t>56.77855263397356, 105.74491432532983</t>
+  </si>
+  <si>
+    <t>Ust-Kut city.Live Memorial Motherland / г. Усть-Кут.Live Мемориал Родина-Мать</t>
+  </si>
+  <si>
+    <t>ZbNWV084p7k</t>
+  </si>
+  <si>
+    <t>LIVE, MEMORIAL</t>
+  </si>
+  <si>
+    <t>64.53904658476208, 40.516648281598236</t>
+  </si>
+  <si>
+    <t>Arkhangelsk, City Administration / Архангельск, городская Администрация</t>
+  </si>
+  <si>
+    <t>Arkhangelsk</t>
+  </si>
+  <si>
+    <t>etN4a1m89P0</t>
+  </si>
+  <si>
+    <t>Архангельск, городская Администрация</t>
+  </si>
+  <si>
+    <t>Камера Соликамск (Боровск), Россия, Пермский край / Сamera Solikamsk, Russia, feeder</t>
+  </si>
+  <si>
+    <t>283t0zgIdp8</t>
+  </si>
+  <si>
+    <t>59.70120599926993, 56.72407912181512</t>
+  </si>
+  <si>
+    <t>Perm Krai</t>
+  </si>
+  <si>
+    <t>LIVE, TRAFFIC, PARK</t>
+  </si>
+  <si>
+    <t>Примечательные моменты с камеры, Пермь, 22-23</t>
+  </si>
+  <si>
+    <t>Управляемая камера, Пермь, "Пермская ярмарка" | Live camera at Perm Expo</t>
+  </si>
+  <si>
+    <t>CIvmNuX25JE</t>
+  </si>
+  <si>
+    <t>57.99852089914484, 56.21811733040451</t>
+  </si>
+  <si>
+    <t>3PQNnVqrJEw</t>
+  </si>
+  <si>
+    <t>17.904113603750037, -62.845687046892294</t>
+  </si>
+  <si>
+    <t>Live Webcam - SBH Avions au décollage</t>
+  </si>
+  <si>
+    <t>St Barthélemy</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>LIVE, AIRPORT, AVIATION</t>
+  </si>
+  <si>
+    <t>VhKaUgTW3Vw</t>
+  </si>
+  <si>
+    <t>Live Webcam - SBH Saint-Jean</t>
+  </si>
+  <si>
+    <t>17.903264211489684, -62.835984124851265</t>
+  </si>
+  <si>
+    <t>Live Webcam - SBH Rade de Gustavia</t>
+  </si>
+  <si>
+    <t>17.905056493731802, -62.85729399558617</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, MARINA, BEACH</t>
+  </si>
+  <si>
+    <t>jBEtwmuJPLA</t>
   </si>
 </sst>
 </file>
@@ -5119,11 +5224,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10892,6 +10997,190 @@
       </c>
       <c r="G284" s="8" t="s">
         <v>1232</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>546</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G288" s="8" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>546</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G292" s="8" t="s">
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -10950,8 +11239,16 @@
     <hyperlink ref="G282" r:id="rId26" display="https://www.youtube.com/@msbud2" xr:uid="{102F3046-DA44-4206-B74F-43328675F915}"/>
     <hyperlink ref="G283" r:id="rId27" display="https://www.youtube.com/@605000" xr:uid="{03D8544A-F4DC-451F-9A6D-19FC6C9BB209}"/>
     <hyperlink ref="G284" r:id="rId28" display="https://www.youtube.com/@605000" xr:uid="{55AC1E84-BF82-45F8-A6FC-B542733529FA}"/>
+    <hyperlink ref="G285" r:id="rId29" display="https://www.youtube.com/@605000" xr:uid="{E2679DA2-5F67-4AA6-B097-5819BFF118B1}"/>
+    <hyperlink ref="G286" r:id="rId30" display="https://www.youtube.com/@605000" xr:uid="{BD57EEC3-2E1E-493C-A3A1-5F6C5DF9E3AE}"/>
+    <hyperlink ref="G287" r:id="rId31" display="https://www.youtube.com/@arhcity-osamo2520" xr:uid="{0B6D9612-A7E4-4C7C-AC6D-77AB7C0519D1}"/>
+    <hyperlink ref="G288" r:id="rId32" display="https://www.youtube.com/@NikCCTV" xr:uid="{AA1B87C2-ED40-4BBC-AE76-8AFD16599C1A}"/>
+    <hyperlink ref="G289" r:id="rId33" display="https://www.youtube.com/@NikCCTV" xr:uid="{89C915DC-9D74-4D9F-B42F-312AB50471A8}"/>
+    <hyperlink ref="G290" r:id="rId34" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{E2861A07-E846-4A0F-B3CB-EEA3F02F6D2D}"/>
+    <hyperlink ref="G291" r:id="rId35" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{AD93ED86-A564-4270-8F1D-0CCAC5F33157}"/>
+    <hyperlink ref="G292" r:id="rId36" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{B3365AC4-A166-4C46-B3B2-32653976516E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC01E00-9523-42DB-A0AD-DF2A39A046C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12EB46C-DD71-4F74-9984-A7AA04FB1285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1273">
   <si>
     <t>Category</t>
   </si>
@@ -4124,6 +4124,18 @@
   </si>
   <si>
     <t>jBEtwmuJPLA</t>
+  </si>
+  <si>
+    <t>3I_VG9GMKss</t>
+  </si>
+  <si>
+    <t>(174) Mahoney CCTV live - YouTube</t>
+  </si>
+  <si>
+    <t>Управляемая онлайн камера, Пермь / Live chat-controlled camera</t>
+  </si>
+  <si>
+    <t>57.970092948608716, 56.15057544342131</t>
   </si>
 </sst>
 </file>
@@ -4780,7 +4792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4806,9 +4818,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5224,11 +5233,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E293" sqref="E293"/>
+      <selection pane="bottomLeft" activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10793,7 +10802,7 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="5" t="s">
         <v>1204</v>
       </c>
       <c r="B276" t="s">
@@ -10805,7 +10814,7 @@
       <c r="D276" t="s">
         <v>1201</v>
       </c>
-      <c r="E276" s="9" t="s">
+      <c r="E276" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F276" t="s">
@@ -10816,7 +10825,7 @@
       </c>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B277" t="s">
@@ -10828,7 +10837,7 @@
       <c r="D277" t="s">
         <v>1201</v>
       </c>
-      <c r="E277" s="9" t="s">
+      <c r="E277" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F277" t="s">
@@ -10839,7 +10848,7 @@
       </c>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B278" t="s">
@@ -10851,7 +10860,7 @@
       <c r="D278" t="s">
         <v>1201</v>
       </c>
-      <c r="E278" s="9" t="s">
+      <c r="E278" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F278" t="s">
@@ -10862,7 +10871,7 @@
       </c>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B279" t="s">
@@ -10874,7 +10883,7 @@
       <c r="D279" t="s">
         <v>1201</v>
       </c>
-      <c r="E279" s="9" t="s">
+      <c r="E279" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F279" t="s">
@@ -10885,7 +10894,7 @@
       </c>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="5" t="s">
         <v>1215</v>
       </c>
       <c r="B280" t="s">
@@ -10897,7 +10906,7 @@
       <c r="D280" t="s">
         <v>1201</v>
       </c>
-      <c r="E280" s="9" t="s">
+      <c r="E280" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F280" t="s">
@@ -10908,7 +10917,7 @@
       </c>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B281" t="s">
@@ -10920,7 +10929,7 @@
       <c r="D281" t="s">
         <v>1201</v>
       </c>
-      <c r="E281" s="9" t="s">
+      <c r="E281" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F281" t="s">
@@ -10931,7 +10940,7 @@
       </c>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="9" t="s">
+      <c r="A282" s="5" t="s">
         <v>1223</v>
       </c>
       <c r="B282" t="s">
@@ -10943,7 +10952,7 @@
       <c r="D282" t="s">
         <v>1201</v>
       </c>
-      <c r="E282" s="9" t="s">
+      <c r="E282" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F282" t="s">
@@ -10954,7 +10963,7 @@
       </c>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="5" t="s">
         <v>1227</v>
       </c>
       <c r="B283" t="s">
@@ -10966,7 +10975,7 @@
       <c r="D283" t="s">
         <v>1201</v>
       </c>
-      <c r="E283" s="9" t="s">
+      <c r="E283" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F283" t="s">
@@ -10977,7 +10986,7 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="5" t="s">
         <v>755</v>
       </c>
       <c r="B284" t="s">
@@ -10989,7 +10998,7 @@
       <c r="D284" t="s">
         <v>1233</v>
       </c>
-      <c r="E284" s="9" t="s">
+      <c r="E284" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F284" t="s">
@@ -11000,7 +11009,7 @@
       </c>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="5" t="s">
         <v>1237</v>
       </c>
       <c r="B285" t="s">
@@ -11012,7 +11021,7 @@
       <c r="D285" t="s">
         <v>1233</v>
       </c>
-      <c r="E285" s="9" t="s">
+      <c r="E285" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F285" t="s">
@@ -11023,7 +11032,7 @@
       </c>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="5" t="s">
         <v>1241</v>
       </c>
       <c r="B286" t="s">
@@ -11035,7 +11044,7 @@
       <c r="D286" t="s">
         <v>1233</v>
       </c>
-      <c r="E286" s="9" t="s">
+      <c r="E286" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F286" t="s">
@@ -11046,7 +11055,7 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="5" t="s">
         <v>1251</v>
       </c>
       <c r="B287" t="s">
@@ -11058,7 +11067,7 @@
       <c r="D287" t="s">
         <v>1244</v>
       </c>
-      <c r="E287" s="9" t="s">
+      <c r="E287" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F287" t="s">
@@ -11081,7 +11090,7 @@
       <c r="D288" t="s">
         <v>1250</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="E288" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F288" t="s">
@@ -11104,7 +11113,7 @@
       <c r="D289" t="s">
         <v>1250</v>
       </c>
-      <c r="E289" s="9" t="s">
+      <c r="E289" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="F289" t="s">
@@ -11127,7 +11136,7 @@
       <c r="D290" t="s">
         <v>1260</v>
       </c>
-      <c r="E290" s="9" t="s">
+      <c r="E290" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="F290" t="s">
@@ -11150,7 +11159,7 @@
       <c r="D291" t="s">
         <v>1260</v>
       </c>
-      <c r="E291" s="9" t="s">
+      <c r="E291" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="F291" t="s">
@@ -11173,7 +11182,7 @@
       <c r="D292" t="s">
         <v>1260</v>
       </c>
-      <c r="E292" s="9" t="s">
+      <c r="E292" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="F292" t="s">
@@ -11181,6 +11190,29 @@
       </c>
       <c r="G292" s="8" t="s">
         <v>1258</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>389</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
@@ -11247,8 +11279,9 @@
     <hyperlink ref="G290" r:id="rId34" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{E2861A07-E846-4A0F-B3CB-EEA3F02F6D2D}"/>
     <hyperlink ref="G291" r:id="rId35" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{AD93ED86-A564-4270-8F1D-0CCAC5F33157}"/>
     <hyperlink ref="G292" r:id="rId36" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{B3365AC4-A166-4C46-B3B2-32653976516E}"/>
+    <hyperlink ref="G293" r:id="rId37" display="https://www.youtube.com/@Mahoneycctv/streams" xr:uid="{29F94752-72A7-479B-9E56-15A0E85CF794}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12EB46C-DD71-4F74-9984-A7AA04FB1285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434113C8-C93E-485F-852C-36820AFACAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="location-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'location-1'!$A$1:$E$293</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1302">
   <si>
     <t>Category</t>
   </si>
@@ -4136,6 +4136,93 @@
   </si>
   <si>
     <t>57.970092948608716, 56.15057544342131</t>
+  </si>
+  <si>
+    <t>qTGeLq0A720</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>-22.816225052856115, -43.25214354840284</t>
+  </si>
+  <si>
+    <t>AO VIVO - AEROPORTO GALEÃO</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>Sequência Top de Arremetidas (O Vento Não Deu Trégua)</t>
+  </si>
+  <si>
+    <t>tWUIUDd4DgE</t>
+  </si>
+  <si>
+    <t>-23.992954737951774, -46.30552549826314</t>
+  </si>
+  <si>
+    <t>Porto ao Vivo - Entrada no Canal do Porto de Santos</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>LIVE, PORT, SEA, TRAFFIC</t>
+  </si>
+  <si>
+    <t>-23.972708386792757, -46.35230808523054</t>
+  </si>
+  <si>
+    <t>Porto ao Vivo - Vista Panorâmica</t>
+  </si>
+  <si>
+    <t>6hWVXGrvDS0</t>
+  </si>
+  <si>
+    <t>3NZYFsG5NwM</t>
+  </si>
+  <si>
+    <t>-8.137792618212009, -34.918516126016726</t>
+  </si>
+  <si>
+    <t>PLANE SPOTTER LIVE | CABECEIRA 18 | RECIFE AIRPORT LIVE</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>🔴QUINTA FEIRA | PLANE SPOTTER LIVE | CABECEIRA 18 | AEROPORTO DO RECIFE AO VIVO | 14/11/24</t>
+  </si>
+  <si>
+    <t>vWbwFFcagFo</t>
+  </si>
+  <si>
+    <t>SBKP LIVE - VCP AIRPORT - AEROPORTO INTERNACIONAL DE VIRACOPOS CAMPINAS - Fonia @Eduardo Cavallini​</t>
+  </si>
+  <si>
+    <t>-23.00486377216318, -47.1425721033526</t>
+  </si>
+  <si>
+    <t>ATR DECLARA PAN PAN E POUSA "MONO" EM GUARULHOS (COM 1 MOTOR) E É SEGUIDO PELOS BOMBEIROS</t>
+  </si>
+  <si>
+    <t>lUCOPzJbdfI</t>
+  </si>
+  <si>
+    <t>#2 SBSP LIVE - CGH AIRPORT - AEROPORTO DE SÃO PAULO CONGONHAS - CÂMERA 24H FULL ATC</t>
+  </si>
+  <si>
+    <t>-23.625523491138342, -46.65849970649153</t>
+  </si>
+  <si>
+    <t>GVKN2Rqra4M</t>
+  </si>
+  <si>
+    <t>SBGR LIVE 10/28 - Câmera AO VIVO 24H do Aeroporto Internacional de Guarulhos - GRU Airport</t>
+  </si>
+  <si>
+    <t>-23.429928317601604, -46.471618819644185</t>
   </si>
 </sst>
 </file>
@@ -4792,7 +4879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4818,6 +4905,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5233,11 +5323,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A294" sqref="A294"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11215,8 +11305,160 @@
         <v>1270</v>
       </c>
     </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>315</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G296" s="8" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G300" s="8" t="s">
+        <v>1295</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E293" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B248">
     <cfRule type="duplicateValues" dxfId="7" priority="1"/>
@@ -11280,8 +11522,15 @@
     <hyperlink ref="G291" r:id="rId35" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{AD93ED86-A564-4270-8F1D-0CCAC5F33157}"/>
     <hyperlink ref="G292" r:id="rId36" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{B3365AC4-A166-4C46-B3B2-32653976516E}"/>
     <hyperlink ref="G293" r:id="rId37" display="https://www.youtube.com/@Mahoneycctv/streams" xr:uid="{29F94752-72A7-479B-9E56-15A0E85CF794}"/>
+    <hyperlink ref="G294" r:id="rId38" display="https://www.youtube.com/@avtv" xr:uid="{0CCE1293-EB14-4485-BEA8-04067D465DED}"/>
+    <hyperlink ref="G295" r:id="rId39" display="https://www.youtube.com/@santospilotsoficial" xr:uid="{E46BFCCE-231B-457A-83AD-086B5CCE903D}"/>
+    <hyperlink ref="G296" r:id="rId40" display="https://www.youtube.com/@santospilotsoficial" xr:uid="{595083F6-3860-4C0D-87E9-EAE937A29E76}"/>
+    <hyperlink ref="G297" r:id="rId41" display="https://www.youtube.com/@papacharliegolfBR" xr:uid="{B1B4D646-11CE-4CFD-A2FA-7E601D4D9376}"/>
+    <hyperlink ref="G298" r:id="rId42" display="https://www.youtube.com/@GolfOscarRomeo" xr:uid="{E1798E5F-4967-4752-B8D3-D6DE1D1E1F7D}"/>
+    <hyperlink ref="G299" r:id="rId43" display="https://www.youtube.com/@GolfOscarRomeo" xr:uid="{F98F2734-6AB8-4AC8-A437-6AFB59F6CEBE}"/>
+    <hyperlink ref="G300" r:id="rId44" display="https://www.youtube.com/@GolfOscarRomeo" xr:uid="{2A6B1B8E-B3B1-40D4-8855-5ABB66E7354E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LIVE CAM List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434113C8-C93E-485F-852C-36820AFACAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBBFF9-8A6C-446E-97A0-1A307AA06A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1315">
   <si>
     <t>Category</t>
   </si>
@@ -4223,6 +4223,45 @@
   </si>
   <si>
     <t>-23.429928317601604, -46.471618819644185</t>
+  </si>
+  <si>
+    <t>fJ5TTSNUs9Y</t>
+  </si>
+  <si>
+    <t>Live Webcam - SBH Sortie Port de Gustavia</t>
+  </si>
+  <si>
+    <t>17.897143063752672, -62.84957961301489</t>
+  </si>
+  <si>
+    <t>LIVE, SEA, PORT, SHIP</t>
+  </si>
+  <si>
+    <t>HXp5x6llMo4</t>
+  </si>
+  <si>
+    <t>軽井沢 小さな鳥とリスのLIVE</t>
+  </si>
+  <si>
+    <t>36.36115678601383, 138.57766731247239</t>
+  </si>
+  <si>
+    <t>軽井沢 小さな鳥とリスのLIVE / Karuizawa Small Birds and Squirrels</t>
+  </si>
+  <si>
+    <t>Nagano</t>
+  </si>
+  <si>
+    <t>0xllXx9QMBk</t>
+  </si>
+  <si>
+    <t>58.08670695284724, -153.09081294179506</t>
+  </si>
+  <si>
+    <t>Raspberry Island Beach LIVE</t>
+  </si>
+  <si>
+    <t>www.RaspberryIsland.com Beach Cam!</t>
   </si>
 </sst>
 </file>
@@ -5323,11 +5362,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
+      <selection pane="bottomLeft" activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11318,7 +11357,7 @@
       <c r="D294" t="s">
         <v>1277</v>
       </c>
-      <c r="E294" s="9" t="s">
+      <c r="E294" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F294" t="s">
@@ -11341,7 +11380,7 @@
       <c r="D295" t="s">
         <v>1282</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E295" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F295" t="s">
@@ -11364,7 +11403,7 @@
       <c r="D296" t="s">
         <v>1282</v>
       </c>
-      <c r="E296" s="9" t="s">
+      <c r="E296" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F296" t="s">
@@ -11387,7 +11426,7 @@
       <c r="D297" t="s">
         <v>1290</v>
       </c>
-      <c r="E297" s="9" t="s">
+      <c r="E297" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F297" t="s">
@@ -11407,7 +11446,7 @@
       <c r="C298" t="s">
         <v>1293</v>
       </c>
-      <c r="E298" s="9" t="s">
+      <c r="E298" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F298" t="s">
@@ -11427,7 +11466,7 @@
       <c r="C299" t="s">
         <v>1297</v>
       </c>
-      <c r="E299" s="9" t="s">
+      <c r="E299" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F299" t="s">
@@ -11447,7 +11486,7 @@
       <c r="C300" t="s">
         <v>1300</v>
       </c>
-      <c r="E300" s="9" t="s">
+      <c r="E300" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="F300" t="s">
@@ -11455,6 +11494,75 @@
       </c>
       <c r="G300" s="8" t="s">
         <v>1295</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>115</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G302" s="8" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>315</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D303" t="s">
+        <v>517</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -11529,8 +11637,11 @@
     <hyperlink ref="G298" r:id="rId42" display="https://www.youtube.com/@GolfOscarRomeo" xr:uid="{E1798E5F-4967-4752-B8D3-D6DE1D1E1F7D}"/>
     <hyperlink ref="G299" r:id="rId43" display="https://www.youtube.com/@GolfOscarRomeo" xr:uid="{F98F2734-6AB8-4AC8-A437-6AFB59F6CEBE}"/>
     <hyperlink ref="G300" r:id="rId44" display="https://www.youtube.com/@GolfOscarRomeo" xr:uid="{2A6B1B8E-B3B1-40D4-8855-5ABB66E7354E}"/>
+    <hyperlink ref="G301" r:id="rId45" display="https://www.youtube.com/@st-barthlivecam5889" xr:uid="{0A1DB0D9-94E3-4DF6-AD33-7BF398CB98F1}"/>
+    <hyperlink ref="G302" r:id="rId46" display="https://www.youtube.com/@michiski/streams" xr:uid="{58FD657A-2A58-4E6B-A2A4-8925DF9AB067}"/>
+    <hyperlink ref="G303" r:id="rId47" display="https://www.youtube.com/@birchrobbins7565" xr:uid="{59934346-D192-4177-921D-786268050509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>